--- a/nodes_source_analyses/energy/energy/energy_flexibility_pumped_storage_electricity.converter.xlsx
+++ b/nodes_source_analyses/energy/energy/energy_flexibility_pumped_storage_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2073584D-8502-5649-9FB7-2E863DCDE385}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69470434-3E53-8142-9B43-5062358FCE08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1820" yWindow="1000" windowWidth="28300" windowHeight="15840" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -38,10 +38,19 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179021" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -51,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="99">
   <si>
     <t>Source</t>
   </si>
@@ -254,21 +263,6 @@
     <t>Technical</t>
   </si>
   <si>
-    <t>hours_prep_nl</t>
-  </si>
-  <si>
-    <t>hours_prod_nl</t>
-  </si>
-  <si>
-    <t>hours_place_nl</t>
-  </si>
-  <si>
-    <t>hours_maint_nl</t>
-  </si>
-  <si>
-    <t>hours_remov_nl</t>
-  </si>
-  <si>
     <t>full_load_hours</t>
   </si>
   <si>
@@ -309,9 +303,6 @@
   </si>
   <si>
     <t xml:space="preserve">Initial investment costs </t>
-  </si>
-  <si>
-    <t>Electrical efficiency</t>
   </si>
   <si>
     <t>Quintel assumption</t>
@@ -365,6 +356,21 @@
   <si>
     <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
+  <si>
+    <t>typical_input_capacity</t>
+  </si>
+  <si>
+    <t>Roundtrip efficiency</t>
+  </si>
+  <si>
+    <t>Considered to be the roundtrip efficiency.</t>
+  </si>
+  <si>
+    <t>Roundtrip (= rückverstromung), gesamtwirkungsgrad (= efficiency)</t>
+  </si>
+  <si>
+    <t>This is in the range of an average 90% efficiency of pumps and 90% efficiency of turbines.</t>
+  </si>
 </sst>
 </file>
 
@@ -377,19 +383,12 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -508,6 +507,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -515,6 +515,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -522,6 +523,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -529,6 +531,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -536,17 +539,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,6 +566,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -884,547 +891,544 @@
   </borders>
   <cellStyleXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1438,36 +1442,47 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="274">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1756,6 +1771,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3035300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>138149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2147F94-024C-564C-AAC7-C875D36BAA08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5283200" y="1498600"/>
+          <a:ext cx="5778500" cy="887449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2231,8 +2295,8 @@
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="152" t="s">
-        <v>90</v>
+      <c r="C4" s="151" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2241,7 +2305,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2398,10 +2462,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K43"/>
+  <dimension ref="B1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" customHeight="1"/>
@@ -2427,7 +2491,7 @@
     </row>
     <row r="2" spans="2:11" ht="16" customHeight="1">
       <c r="B2" s="153" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C2" s="154"/>
       <c r="D2" s="154"/>
@@ -2513,54 +2577,57 @@
     <row r="10" spans="2:11" s="91" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B10" s="92"/>
       <c r="C10" s="105" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D10" s="109" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="142">
+        <v>78</v>
+      </c>
+      <c r="E10" s="141">
         <v>3000</v>
       </c>
       <c r="F10" s="107"/>
       <c r="G10" s="108"/>
-      <c r="I10" s="150" t="s">
-        <v>91</v>
+      <c r="I10" s="149" t="s">
+        <v>85</v>
       </c>
       <c r="J10" s="95"/>
     </row>
     <row r="11" spans="2:11" s="91" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B11" s="92"/>
       <c r="C11" s="105" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D11" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="143">
+      <c r="E11" s="142">
         <v>0</v>
       </c>
       <c r="F11" s="107"/>
       <c r="G11" s="108"/>
-      <c r="I11" s="150" t="s">
-        <v>87</v>
+      <c r="I11" s="149" t="s">
+        <v>81</v>
       </c>
       <c r="J11" s="95"/>
     </row>
     <row r="12" spans="2:11" s="91" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B12" s="92"/>
-      <c r="C12" s="146" t="s">
-        <v>88</v>
+      <c r="C12" s="145" t="s">
+        <v>82</v>
       </c>
       <c r="D12" s="109" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="106">
-        <v>0.9</v>
+        <f>'Research data'!G10</f>
+        <v>0.8</v>
       </c>
       <c r="F12" s="107"/>
-      <c r="G12" s="108"/>
-      <c r="I12" s="150" t="s">
-        <v>91</v>
+      <c r="G12" s="162" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="149" t="s">
+        <v>92</v>
       </c>
       <c r="J12" s="95"/>
     </row>
@@ -2572,58 +2639,57 @@
       <c r="D13" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="142">
-        <v>450</v>
+      <c r="E13" s="106">
+        <v>500</v>
       </c>
       <c r="F13" s="107"/>
       <c r="G13" s="108"/>
-      <c r="I13" s="150" t="s">
-        <v>91</v>
+      <c r="I13" s="149" t="s">
+        <v>85</v>
       </c>
       <c r="J13" s="95"/>
     </row>
-    <row r="14" spans="2:11" ht="16" customHeight="1" thickBot="1">
-      <c r="B14" s="96"/>
-      <c r="C14" s="107" t="s">
-        <v>23</v>
+    <row r="14" spans="2:11" s="91" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="B14" s="92"/>
+      <c r="C14" s="162" t="s">
+        <v>94</v>
       </c>
       <c r="D14" s="109" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="E14" s="106">
-        <v>0.95</v>
+        <v>500</v>
       </c>
       <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="I14" s="150" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14" s="97"/>
-      <c r="K14" s="83"/>
+      <c r="G14" s="108"/>
+      <c r="I14" s="163" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="95"/>
     </row>
     <row r="15" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B15" s="96"/>
       <c r="C15" s="107" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="110">
-        <v>0</v>
+      <c r="E15" s="106">
+        <v>0.95</v>
       </c>
       <c r="F15" s="107"/>
       <c r="G15" s="107"/>
-      <c r="I15" s="150" t="s">
-        <v>87</v>
+      <c r="I15" s="149" t="s">
+        <v>85</v>
       </c>
       <c r="J15" s="97"/>
       <c r="K15" s="83"/>
     </row>
     <row r="16" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B16" s="96"/>
-      <c r="C16" s="111" t="s">
-        <v>72</v>
+      <c r="C16" s="107" t="s">
+        <v>25</v>
       </c>
       <c r="D16" s="109" t="s">
         <v>4</v>
@@ -2633,16 +2699,16 @@
       </c>
       <c r="F16" s="107"/>
       <c r="G16" s="107"/>
-      <c r="I16" s="150" t="s">
-        <v>87</v>
+      <c r="I16" s="149" t="s">
+        <v>81</v>
       </c>
       <c r="J16" s="97"/>
       <c r="K16" s="83"/>
     </row>
     <row r="17" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B17" s="96"/>
-      <c r="C17" s="107" t="s">
-        <v>7</v>
+      <c r="C17" s="111" t="s">
+        <v>67</v>
       </c>
       <c r="D17" s="109" t="s">
         <v>4</v>
@@ -2652,8 +2718,8 @@
       </c>
       <c r="F17" s="107"/>
       <c r="G17" s="107"/>
-      <c r="I17" s="150" t="s">
-        <v>87</v>
+      <c r="I17" s="149" t="s">
+        <v>81</v>
       </c>
       <c r="J17" s="97"/>
       <c r="K17" s="83"/>
@@ -2661,18 +2727,18 @@
     <row r="18" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B18" s="96"/>
       <c r="C18" s="107" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D18" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="112">
+      <c r="E18" s="110">
         <v>0</v>
       </c>
       <c r="F18" s="107"/>
       <c r="G18" s="107"/>
-      <c r="I18" s="150" t="s">
-        <v>87</v>
+      <c r="I18" s="149" t="s">
+        <v>81</v>
       </c>
       <c r="J18" s="97"/>
       <c r="K18" s="83"/>
@@ -2680,7 +2746,7 @@
     <row r="19" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B19" s="96"/>
       <c r="C19" s="107" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="109" t="s">
         <v>4</v>
@@ -2690,8 +2756,8 @@
       </c>
       <c r="F19" s="107"/>
       <c r="G19" s="107"/>
-      <c r="I19" s="150" t="s">
-        <v>87</v>
+      <c r="I19" s="149" t="s">
+        <v>81</v>
       </c>
       <c r="J19" s="97"/>
       <c r="K19" s="83"/>
@@ -2699,36 +2765,43 @@
     <row r="20" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B20" s="96"/>
       <c r="C20" s="107" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="109" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="113">
+        <v>4</v>
+      </c>
+      <c r="E20" s="112">
         <v>0</v>
       </c>
       <c r="F20" s="107"/>
       <c r="G20" s="107"/>
-      <c r="I20" s="150" t="s">
-        <v>87</v>
+      <c r="I20" s="149" t="s">
+        <v>81</v>
       </c>
       <c r="J20" s="97"/>
-    </row>
-    <row r="21" spans="2:11" ht="16" customHeight="1">
+      <c r="K20" s="83"/>
+    </row>
+    <row r="21" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B21" s="96"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="I21" s="83"/>
+      <c r="C21" s="107" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="109" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="113">
+        <v>0</v>
+      </c>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="I21" s="149" t="s">
+        <v>81</v>
+      </c>
       <c r="J21" s="97"/>
     </row>
-    <row r="22" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="22" spans="2:11" ht="16" customHeight="1">
       <c r="B22" s="96"/>
-      <c r="C22" s="93" t="s">
-        <v>61</v>
-      </c>
+      <c r="C22" s="98"/>
       <c r="D22" s="99"/>
       <c r="E22" s="100"/>
       <c r="F22" s="83"/>
@@ -2738,44 +2811,38 @@
     </row>
     <row r="23" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B23" s="96"/>
-      <c r="C23" s="107" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="109" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="110">
-        <v>500000000</v>
-      </c>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="I23" s="150" t="s">
-        <v>91</v>
-      </c>
+      <c r="C23" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="99"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="I23" s="83"/>
       <c r="J23" s="97"/>
     </row>
     <row r="24" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B24" s="96"/>
       <c r="C24" s="107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="109" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="110">
-        <v>0</v>
+        <v>500000000</v>
       </c>
       <c r="F24" s="107"/>
       <c r="G24" s="107"/>
-      <c r="I24" s="150" t="s">
-        <v>87</v>
+      <c r="I24" s="149" t="s">
+        <v>85</v>
       </c>
       <c r="J24" s="97"/>
     </row>
     <row r="25" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B25" s="96"/>
       <c r="C25" s="107" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D25" s="109" t="s">
         <v>22</v>
@@ -2785,15 +2852,15 @@
       </c>
       <c r="F25" s="107"/>
       <c r="G25" s="107"/>
-      <c r="I25" s="150" t="s">
-        <v>87</v>
+      <c r="I25" s="149" t="s">
+        <v>81</v>
       </c>
       <c r="J25" s="97"/>
     </row>
     <row r="26" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B26" s="96"/>
       <c r="C26" s="107" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D26" s="109" t="s">
         <v>22</v>
@@ -2803,116 +2870,122 @@
       </c>
       <c r="F26" s="107"/>
       <c r="G26" s="107"/>
-      <c r="I26" s="150" t="s">
-        <v>87</v>
+      <c r="I26" s="149" t="s">
+        <v>81</v>
       </c>
       <c r="J26" s="97"/>
     </row>
     <row r="27" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B27" s="96"/>
       <c r="C27" s="107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="114">
-        <v>15000</v>
+        <v>22</v>
+      </c>
+      <c r="E27" s="110">
+        <v>0</v>
       </c>
       <c r="F27" s="107"/>
       <c r="G27" s="107"/>
-      <c r="I27" s="150" t="s">
-        <v>91</v>
+      <c r="I27" s="149" t="s">
+        <v>81</v>
       </c>
       <c r="J27" s="97"/>
     </row>
     <row r="28" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B28" s="96"/>
       <c r="C28" s="107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="109" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="106">
-        <v>5000</v>
+        <v>42</v>
+      </c>
+      <c r="E28" s="114">
+        <v>15000</v>
       </c>
       <c r="F28" s="107"/>
       <c r="G28" s="107"/>
-      <c r="I28" s="150" t="s">
-        <v>91</v>
+      <c r="I28" s="149" t="s">
+        <v>85</v>
       </c>
       <c r="J28" s="97"/>
     </row>
     <row r="29" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B29" s="96"/>
       <c r="C29" s="107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="115">
-        <v>0</v>
+      <c r="E29" s="106">
+        <v>5000</v>
       </c>
       <c r="F29" s="107"/>
       <c r="G29" s="107"/>
-      <c r="I29" s="150" t="s">
-        <v>87</v>
+      <c r="I29" s="149" t="s">
+        <v>85</v>
       </c>
       <c r="J29" s="97"/>
     </row>
     <row r="30" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B30" s="96"/>
       <c r="C30" s="107" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D30" s="109" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="106">
-        <v>0.04</v>
+        <v>41</v>
+      </c>
+      <c r="E30" s="115">
+        <v>0</v>
       </c>
       <c r="F30" s="107"/>
       <c r="G30" s="107"/>
-      <c r="I30" s="162" t="s">
-        <v>99</v>
+      <c r="I30" s="149" t="s">
+        <v>81</v>
       </c>
       <c r="J30" s="97"/>
     </row>
     <row r="31" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B31" s="96"/>
       <c r="C31" s="107" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D31" s="109" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="110">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E31" s="106">
+        <v>0.04</v>
       </c>
       <c r="F31" s="107"/>
       <c r="G31" s="107"/>
-      <c r="I31" s="150" t="s">
-        <v>87</v>
+      <c r="I31" s="152" t="s">
+        <v>93</v>
       </c>
       <c r="J31" s="97"/>
     </row>
-    <row r="32" spans="2:11" ht="16" customHeight="1">
+    <row r="32" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B32" s="96"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="I32" s="83"/>
+      <c r="C32" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="110">
+        <v>0</v>
+      </c>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="I32" s="149" t="s">
+        <v>81</v>
+      </c>
       <c r="J32" s="97"/>
     </row>
-    <row r="33" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="33" spans="2:10" ht="16" customHeight="1">
       <c r="B33" s="96"/>
-      <c r="C33" s="93" t="s">
-        <v>6</v>
-      </c>
+      <c r="C33" s="83"/>
       <c r="D33" s="99"/>
       <c r="E33" s="101"/>
       <c r="F33" s="83"/>
@@ -2922,166 +2995,98 @@
     </row>
     <row r="34" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B34" s="96"/>
-      <c r="C34" s="107" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="109" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="110">
-        <v>0</v>
-      </c>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="I34" s="150" t="s">
-        <v>87</v>
-      </c>
+      <c r="C34" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="99"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="I34" s="83"/>
       <c r="J34" s="97"/>
     </row>
     <row r="35" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B35" s="96"/>
       <c r="C35" s="107" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D35" s="109" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="114">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E35" s="110">
+        <v>0</v>
       </c>
       <c r="F35" s="107"/>
       <c r="G35" s="107"/>
-      <c r="I35" s="150" t="s">
-        <v>91</v>
+      <c r="I35" s="149" t="s">
+        <v>81</v>
       </c>
       <c r="J35" s="97"/>
     </row>
     <row r="36" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B36" s="96"/>
       <c r="C36" s="107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="110">
-        <v>75</v>
+      <c r="E36" s="114">
+        <v>5</v>
       </c>
       <c r="F36" s="107"/>
       <c r="G36" s="107"/>
-      <c r="I36" s="150" t="s">
-        <v>91</v>
+      <c r="I36" s="149" t="s">
+        <v>85</v>
       </c>
       <c r="J36" s="97"/>
     </row>
     <row r="37" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B37" s="96"/>
       <c r="C37" s="107" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D37" s="109" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E37" s="110">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F37" s="107"/>
       <c r="G37" s="107"/>
-      <c r="I37" s="150" t="s">
-        <v>87</v>
+      <c r="I37" s="149" t="s">
+        <v>85</v>
       </c>
       <c r="J37" s="97"/>
     </row>
     <row r="38" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B38" s="96"/>
-      <c r="C38" s="116" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="109"/>
-      <c r="E38" s="114">
+      <c r="C38" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="110">
         <v>0</v>
       </c>
       <c r="F38" s="107"/>
       <c r="G38" s="107"/>
-      <c r="I38" s="150" t="s">
-        <v>87</v>
+      <c r="I38" s="149" t="s">
+        <v>81</v>
       </c>
       <c r="J38" s="97"/>
     </row>
     <row r="39" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B39" s="96"/>
-      <c r="C39" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="109"/>
-      <c r="E39" s="114">
-        <v>0</v>
-      </c>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="I39" s="150" t="s">
-        <v>87</v>
-      </c>
-      <c r="J39" s="97"/>
-    </row>
-    <row r="40" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B40" s="96"/>
-      <c r="C40" s="116" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="109"/>
-      <c r="E40" s="114">
-        <v>0</v>
-      </c>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="I40" s="150" t="s">
-        <v>87</v>
-      </c>
-      <c r="J40" s="97"/>
-    </row>
-    <row r="41" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B41" s="96"/>
-      <c r="C41" s="116" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="109"/>
-      <c r="E41" s="114">
-        <v>0</v>
-      </c>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="I41" s="150" t="s">
-        <v>87</v>
-      </c>
-      <c r="J41" s="97"/>
-    </row>
-    <row r="42" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B42" s="96"/>
-      <c r="C42" s="116" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="109"/>
-      <c r="E42" s="114">
-        <v>0</v>
-      </c>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="I42" s="150" t="s">
-        <v>87</v>
-      </c>
-      <c r="J42" s="97"/>
-    </row>
-    <row r="43" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B43" s="102"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="104"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3100,7 +3105,7 @@
   <dimension ref="B1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:K9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -3184,83 +3189,86 @@
     </row>
     <row r="6" spans="2:12" ht="17" thickBot="1">
       <c r="B6" s="42"/>
-      <c r="C6" s="135" t="s">
-        <v>80</v>
+      <c r="C6" s="134" t="s">
+        <v>75</v>
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="45"/>
-      <c r="F6" s="136" t="s">
-        <v>83</v>
+      <c r="F6" s="135" t="s">
+        <v>78</v>
       </c>
       <c r="G6" s="69"/>
       <c r="H6" s="46"/>
       <c r="I6" s="46"/>
       <c r="J6" s="44"/>
-      <c r="K6" s="140"/>
+      <c r="K6" s="139"/>
       <c r="L6" s="77"/>
     </row>
     <row r="7" spans="2:12" ht="17" thickBot="1">
       <c r="B7" s="42"/>
-      <c r="C7" s="135" t="s">
-        <v>82</v>
+      <c r="C7" s="134" t="s">
+        <v>77</v>
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="136" t="s">
+      <c r="F7" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="138"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="46"/>
       <c r="I7" s="46"/>
       <c r="J7" s="44"/>
-      <c r="K7" s="140"/>
+      <c r="K7" s="139"/>
       <c r="L7" s="77"/>
     </row>
     <row r="8" spans="2:12" ht="17" thickBot="1">
       <c r="B8" s="42"/>
-      <c r="C8" s="135" t="s">
-        <v>84</v>
+      <c r="C8" s="134" t="s">
+        <v>79</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
-      <c r="F8" s="136" t="s">
+      <c r="F8" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="137"/>
+      <c r="G8" s="136"/>
       <c r="H8" s="46"/>
       <c r="I8" s="46"/>
       <c r="J8" s="44"/>
-      <c r="K8" s="140"/>
+      <c r="K8" s="139"/>
       <c r="L8" s="77"/>
     </row>
     <row r="9" spans="2:12" ht="17" thickBot="1">
       <c r="B9" s="42"/>
-      <c r="C9" s="135" t="s">
-        <v>81</v>
+      <c r="C9" s="134" t="s">
+        <v>76</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="45"/>
-      <c r="F9" s="136" t="s">
+      <c r="F9" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="139"/>
+      <c r="G9" s="138"/>
       <c r="H9" s="46"/>
       <c r="I9" s="46"/>
       <c r="J9" s="44"/>
-      <c r="K9" s="140"/>
+      <c r="K9" s="139"/>
       <c r="L9" s="77"/>
     </row>
     <row r="10" spans="2:12" ht="17" thickBot="1">
       <c r="B10" s="42"/>
-      <c r="C10" s="135" t="s">
-        <v>86</v>
+      <c r="C10" s="164" t="s">
+        <v>95</v>
       </c>
       <c r="D10" s="45"/>
       <c r="E10" s="45"/>
-      <c r="F10" s="136" t="s">
+      <c r="F10" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="141"/>
+      <c r="G10" s="140">
+        <f>Notes!E6</f>
+        <v>0.8</v>
+      </c>
       <c r="H10" s="46"/>
       <c r="I10" s="46"/>
       <c r="J10" s="44"/>
@@ -3296,13 +3304,13 @@
     </row>
     <row r="13" spans="2:12" ht="17" thickBot="1">
       <c r="B13" s="42"/>
-      <c r="C13" s="135" t="s">
-        <v>85</v>
+      <c r="C13" s="134" t="s">
+        <v>80</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="135" t="s">
-        <v>79</v>
+      <c r="F13" s="134" t="s">
+        <v>74</v>
       </c>
       <c r="G13" s="50"/>
       <c r="H13" s="10"/>
@@ -3338,7 +3346,7 @@
   <dimension ref="B1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
@@ -3410,56 +3418,56 @@
         <v>20</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I5" s="33" t="s">
         <v>43</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K5" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="C7" s="151" t="s">
-        <v>95</v>
+      <c r="C7" s="150" t="s">
+        <v>89</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="151" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="133">
+        <v>88</v>
+      </c>
+      <c r="F7" s="150" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="132">
         <v>2014</v>
       </c>
-      <c r="I7" s="134">
+      <c r="I7" s="133">
         <v>43319</v>
       </c>
       <c r="K7" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="C8" s="150" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="C8" s="151" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="151" t="s">
-        <v>93</v>
+      <c r="F8" s="150" t="s">
+        <v>87</v>
       </c>
       <c r="H8" s="22">
         <v>2015</v>
       </c>
-      <c r="I8" s="134">
+      <c r="I8" s="133">
         <v>43319</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3475,56 +3483,58 @@
   </sheetPr>
   <dimension ref="B2:K166"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="117" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="117" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="117" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="117" customWidth="1"/>
-    <col min="5" max="6" width="8.42578125" style="117" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="117"/>
-    <col min="8" max="8" width="10.7109375" style="118"/>
-    <col min="9" max="9" width="10.7109375" style="117"/>
-    <col min="10" max="10" width="35" style="117" customWidth="1"/>
-    <col min="11" max="11" width="63.28515625" style="117" customWidth="1"/>
-    <col min="12" max="16384" width="10.7109375" style="117"/>
+    <col min="1" max="1" width="3.42578125" style="116" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="116" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="116" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="116" customWidth="1"/>
+    <col min="5" max="6" width="8.42578125" style="116" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="116"/>
+    <col min="8" max="8" width="10.7109375" style="117"/>
+    <col min="9" max="9" width="10.7109375" style="116"/>
+    <col min="10" max="10" width="35" style="116" customWidth="1"/>
+    <col min="11" max="11" width="63.28515625" style="116" customWidth="1"/>
+    <col min="12" max="16384" width="10.7109375" style="116"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="17" thickBot="1"/>
     <row r="3" spans="2:11">
-      <c r="B3" s="119"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="122"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="121"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="123"/>
-      <c r="C4" s="124" t="s">
+      <c r="B4" s="122"/>
+      <c r="C4" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="124" t="s">
+      <c r="D4" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="124" t="s">
+      <c r="E4" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="124" t="s">
+      <c r="F4" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="124"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="126" t="s">
-        <v>78</v>
+      <c r="G4" s="123"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="125" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -3534,22 +3544,34 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="127"/>
+      <c r="H5" s="126"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="14"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="127"/>
+      <c r="C6" s="127" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="165" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="166">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="165" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="126"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="129"/>
+      <c r="K6" s="22" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="14"/>
@@ -3557,8 +3579,10 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="127"/>
+      <c r="G7" s="165" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="126"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="76"/>
@@ -3566,11 +3590,11 @@
     <row r="8" spans="2:11">
       <c r="B8" s="14"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="127"/>
+      <c r="H8" s="126"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="76"/>
@@ -3578,11 +3602,11 @@
     <row r="9" spans="2:11">
       <c r="B9" s="14"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="127"/>
+      <c r="H9" s="126"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="76"/>
@@ -3594,7 +3618,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="127"/>
+      <c r="H10" s="126"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="76"/>
@@ -3602,11 +3626,11 @@
     <row r="11" spans="2:11">
       <c r="B11" s="14"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="127"/>
+      <c r="H11" s="126"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="76"/>
@@ -3614,11 +3638,11 @@
     <row r="12" spans="2:11">
       <c r="B12" s="14"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="127"/>
+      <c r="H12" s="126"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="76"/>
@@ -3626,11 +3650,11 @@
     <row r="13" spans="2:11">
       <c r="B13" s="14"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="127"/>
+      <c r="H13" s="126"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="76"/>
@@ -3638,11 +3662,11 @@
     <row r="14" spans="2:11">
       <c r="B14" s="14"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="127"/>
+      <c r="H14" s="126"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="76"/>
@@ -3650,11 +3674,11 @@
     <row r="15" spans="2:11">
       <c r="B15" s="14"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="127"/>
+      <c r="H15" s="126"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="76"/>
@@ -3662,11 +3686,11 @@
     <row r="16" spans="2:11">
       <c r="B16" s="14"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="127"/>
+      <c r="H16" s="126"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="76"/>
@@ -3674,11 +3698,11 @@
     <row r="17" spans="2:11">
       <c r="B17" s="14"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="127"/>
+      <c r="H17" s="126"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="76"/>
@@ -3686,11 +3710,11 @@
     <row r="18" spans="2:11">
       <c r="B18" s="14"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="127"/>
+      <c r="H18" s="126"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="76"/>
@@ -3698,11 +3722,11 @@
     <row r="19" spans="2:11">
       <c r="B19" s="14"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="127"/>
+      <c r="H19" s="126"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="76"/>
@@ -3714,7 +3738,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="127"/>
+      <c r="H20" s="126"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="76"/>
@@ -3726,22 +3750,22 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="127"/>
+      <c r="H21" s="126"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="76"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="130"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="127"/>
+      <c r="H22" s="126"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="129"/>
+      <c r="K22" s="128"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="14"/>
@@ -3750,10 +3774,10 @@
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="127"/>
+      <c r="H23" s="126"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="149"/>
+      <c r="K23" s="148"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="14"/>
@@ -3762,7 +3786,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="127"/>
+      <c r="H24" s="126"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="76"/>
@@ -3774,7 +3798,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="127"/>
+      <c r="H25" s="126"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="76"/>
@@ -3786,7 +3810,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="127"/>
+      <c r="H26" s="126"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="76"/>
@@ -3798,7 +3822,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="127"/>
+      <c r="H27" s="126"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="76"/>
@@ -3810,7 +3834,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="127"/>
+      <c r="H28" s="126"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="76"/>
@@ -3822,7 +3846,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="127"/>
+      <c r="H29" s="126"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="76"/>
@@ -3834,7 +3858,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="127"/>
+      <c r="H30" s="126"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="76"/>
@@ -3846,7 +3870,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="127"/>
+      <c r="H31" s="126"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="76"/>
@@ -3854,11 +3878,11 @@
     <row r="32" spans="2:11">
       <c r="B32" s="14"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="127"/>
+      <c r="H32" s="126"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="76"/>
@@ -3870,7 +3894,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="127"/>
+      <c r="H33" s="126"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="76"/>
@@ -3882,7 +3906,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
-      <c r="H34" s="127"/>
+      <c r="H34" s="126"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="76"/>
@@ -3894,7 +3918,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="127"/>
+      <c r="H35" s="126"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="76"/>
@@ -3906,7 +3930,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="127"/>
+      <c r="H36" s="126"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="76"/>
@@ -3918,7 +3942,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="127"/>
+      <c r="H37" s="126"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="76"/>
@@ -3926,11 +3950,11 @@
     <row r="38" spans="2:11">
       <c r="B38" s="14"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="128"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="127"/>
+      <c r="H38" s="126"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
       <c r="K38" s="76"/>
@@ -3938,10 +3962,10 @@
     <row r="39" spans="2:11">
       <c r="B39" s="14"/>
       <c r="C39" s="12"/>
-      <c r="D39" s="145"/>
+      <c r="D39" s="144"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="127"/>
+      <c r="H39" s="126"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="76"/>
@@ -3949,11 +3973,11 @@
     <row r="40" spans="2:11">
       <c r="B40" s="14"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="127"/>
+      <c r="H40" s="126"/>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
       <c r="K40" s="76"/>
@@ -3961,11 +3985,11 @@
     <row r="41" spans="2:11">
       <c r="B41" s="14"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="145"/>
+      <c r="D41" s="144"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="127"/>
+      <c r="H41" s="126"/>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="76"/>
@@ -3977,7 +4001,7 @@
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="127"/>
+      <c r="H42" s="126"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
       <c r="K42" s="76"/>
@@ -3989,7 +4013,7 @@
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="127"/>
+      <c r="H43" s="126"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
       <c r="K43" s="76"/>
@@ -4001,7 +4025,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="127"/>
+      <c r="H44" s="126"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
       <c r="K44" s="76"/>
@@ -4013,7 +4037,7 @@
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
-      <c r="H45" s="127"/>
+      <c r="H45" s="126"/>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
       <c r="K45" s="76"/>
@@ -4025,7 +4049,7 @@
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
-      <c r="H46" s="127"/>
+      <c r="H46" s="126"/>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
       <c r="K46" s="76"/>
@@ -4037,7 +4061,7 @@
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
-      <c r="H47" s="127"/>
+      <c r="H47" s="126"/>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
       <c r="K47" s="76"/>
@@ -4049,7 +4073,7 @@
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
-      <c r="H48" s="127"/>
+      <c r="H48" s="126"/>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
       <c r="K48" s="76"/>
@@ -4057,11 +4081,11 @@
     <row r="49" spans="2:11">
       <c r="B49" s="14"/>
       <c r="C49" s="12"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="131"/>
-      <c r="F49" s="128"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="127"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="127"/>
+      <c r="H49" s="126"/>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="76"/>
@@ -4073,1371 +4097,1372 @@
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
-      <c r="H50" s="127"/>
+      <c r="H50" s="126"/>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
       <c r="K50" s="76"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="130"/>
-      <c r="C51" s="128"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="128"/>
-      <c r="F51" s="128"/>
-      <c r="G51" s="128"/>
-      <c r="H51" s="131"/>
-      <c r="I51" s="128"/>
-      <c r="J51" s="128"/>
-      <c r="K51" s="129"/>
+      <c r="B51" s="129"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="127"/>
+      <c r="E51" s="127"/>
+      <c r="F51" s="127"/>
+      <c r="G51" s="127"/>
+      <c r="H51" s="130"/>
+      <c r="I51" s="127"/>
+      <c r="J51" s="127"/>
+      <c r="K51" s="128"/>
     </row>
     <row r="52" spans="2:11">
-      <c r="B52" s="130"/>
-      <c r="G52" s="128"/>
-      <c r="H52" s="131"/>
-      <c r="I52" s="128"/>
-      <c r="J52" s="128"/>
-      <c r="K52" s="129"/>
+      <c r="B52" s="129"/>
+      <c r="G52" s="127"/>
+      <c r="H52" s="130"/>
+      <c r="I52" s="127"/>
+      <c r="J52" s="127"/>
+      <c r="K52" s="128"/>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="130"/>
-      <c r="C53" s="128"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="128"/>
-      <c r="F53" s="128"/>
-      <c r="G53" s="128"/>
-      <c r="H53" s="131"/>
-      <c r="I53" s="128"/>
-      <c r="J53" s="128"/>
-      <c r="K53" s="129"/>
+      <c r="B53" s="129"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="127"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="127"/>
+      <c r="G53" s="127"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="127"/>
+      <c r="J53" s="127"/>
+      <c r="K53" s="128"/>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="130"/>
-      <c r="C54" s="128"/>
-      <c r="D54" s="128"/>
-      <c r="E54" s="128"/>
-      <c r="F54" s="128"/>
-      <c r="G54" s="128"/>
-      <c r="H54" s="131"/>
-      <c r="I54" s="128"/>
-      <c r="J54" s="128"/>
-      <c r="K54" s="129"/>
+      <c r="B54" s="129"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="127"/>
+      <c r="E54" s="127"/>
+      <c r="F54" s="127"/>
+      <c r="G54" s="127"/>
+      <c r="H54" s="130"/>
+      <c r="I54" s="127"/>
+      <c r="J54" s="127"/>
+      <c r="K54" s="128"/>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="130"/>
-      <c r="C55" s="128"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="132"/>
-      <c r="F55" s="132"/>
-      <c r="G55" s="128"/>
-      <c r="H55" s="131"/>
-      <c r="I55" s="128"/>
-      <c r="J55" s="128"/>
-      <c r="K55" s="129"/>
+      <c r="B55" s="129"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="127"/>
+      <c r="E55" s="131"/>
+      <c r="F55" s="131"/>
+      <c r="G55" s="127"/>
+      <c r="H55" s="130"/>
+      <c r="I55" s="127"/>
+      <c r="J55" s="127"/>
+      <c r="K55" s="128"/>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="130"/>
-      <c r="C56" s="128"/>
-      <c r="G56" s="128"/>
-      <c r="H56" s="131"/>
-      <c r="I56" s="128"/>
-      <c r="J56" s="128"/>
-      <c r="K56" s="129"/>
+      <c r="B56" s="129"/>
+      <c r="C56" s="127"/>
+      <c r="G56" s="127"/>
+      <c r="H56" s="130"/>
+      <c r="I56" s="127"/>
+      <c r="J56" s="127"/>
+      <c r="K56" s="128"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="130"/>
-      <c r="C57" s="128"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="128"/>
-      <c r="F57" s="128"/>
-      <c r="G57" s="128"/>
-      <c r="H57" s="131"/>
-      <c r="I57" s="128"/>
-      <c r="J57" s="128"/>
-      <c r="K57" s="129"/>
+      <c r="B57" s="129"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="127"/>
+      <c r="E57" s="127"/>
+      <c r="F57" s="127"/>
+      <c r="G57" s="127"/>
+      <c r="H57" s="130"/>
+      <c r="I57" s="127"/>
+      <c r="J57" s="127"/>
+      <c r="K57" s="128"/>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="130"/>
-      <c r="C58" s="128"/>
-      <c r="G58" s="128"/>
-      <c r="H58" s="131"/>
-      <c r="I58" s="128"/>
-      <c r="J58" s="128"/>
-      <c r="K58" s="129"/>
+      <c r="B58" s="129"/>
+      <c r="C58" s="127"/>
+      <c r="G58" s="127"/>
+      <c r="H58" s="130"/>
+      <c r="I58" s="127"/>
+      <c r="J58" s="127"/>
+      <c r="K58" s="128"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="130"/>
-      <c r="C59" s="128"/>
-      <c r="D59" s="128"/>
-      <c r="E59" s="128"/>
-      <c r="F59" s="128"/>
-      <c r="G59" s="128"/>
-      <c r="H59" s="131"/>
-      <c r="I59" s="128"/>
-      <c r="J59" s="128"/>
-      <c r="K59" s="129"/>
+      <c r="B59" s="129"/>
+      <c r="C59" s="127"/>
+      <c r="D59" s="127"/>
+      <c r="E59" s="127"/>
+      <c r="F59" s="127"/>
+      <c r="G59" s="127"/>
+      <c r="H59" s="130"/>
+      <c r="I59" s="127"/>
+      <c r="J59" s="127"/>
+      <c r="K59" s="128"/>
     </row>
     <row r="60" spans="2:11">
-      <c r="B60" s="130"/>
-      <c r="C60" s="128"/>
-      <c r="D60" s="128"/>
-      <c r="E60" s="128"/>
-      <c r="F60" s="128"/>
-      <c r="G60" s="128"/>
-      <c r="H60" s="131"/>
-      <c r="I60" s="128"/>
-      <c r="J60" s="128"/>
-      <c r="K60" s="129"/>
+      <c r="B60" s="129"/>
+      <c r="C60" s="127"/>
+      <c r="D60" s="127"/>
+      <c r="E60" s="127"/>
+      <c r="F60" s="127"/>
+      <c r="G60" s="127"/>
+      <c r="H60" s="130"/>
+      <c r="I60" s="127"/>
+      <c r="J60" s="127"/>
+      <c r="K60" s="128"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="130"/>
-      <c r="C61" s="128"/>
-      <c r="D61" s="128"/>
-      <c r="E61" s="128"/>
-      <c r="F61" s="128"/>
-      <c r="G61" s="128"/>
-      <c r="H61" s="131"/>
-      <c r="I61" s="128"/>
-      <c r="J61" s="128"/>
-      <c r="K61" s="129"/>
+      <c r="B61" s="129"/>
+      <c r="C61" s="127"/>
+      <c r="D61" s="127"/>
+      <c r="E61" s="127"/>
+      <c r="F61" s="127"/>
+      <c r="G61" s="127"/>
+      <c r="H61" s="130"/>
+      <c r="I61" s="127"/>
+      <c r="J61" s="127"/>
+      <c r="K61" s="128"/>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="130"/>
-      <c r="C62" s="128"/>
-      <c r="D62" s="128"/>
-      <c r="E62" s="128"/>
-      <c r="F62" s="128"/>
-      <c r="G62" s="128"/>
-      <c r="H62" s="131"/>
-      <c r="I62" s="128"/>
-      <c r="J62" s="128"/>
+      <c r="B62" s="129"/>
+      <c r="C62" s="127"/>
+      <c r="D62" s="127"/>
+      <c r="E62" s="127"/>
+      <c r="F62" s="127"/>
+      <c r="G62" s="127"/>
+      <c r="H62" s="130"/>
+      <c r="I62" s="127"/>
+      <c r="J62" s="127"/>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="130"/>
-      <c r="C63" s="128"/>
-      <c r="D63" s="128"/>
-      <c r="E63" s="128"/>
-      <c r="F63" s="128"/>
-      <c r="G63" s="128"/>
-      <c r="H63" s="131"/>
-      <c r="I63" s="128"/>
-      <c r="J63" s="128"/>
-      <c r="K63" s="129"/>
+      <c r="B63" s="129"/>
+      <c r="C63" s="127"/>
+      <c r="D63" s="127"/>
+      <c r="E63" s="127"/>
+      <c r="F63" s="127"/>
+      <c r="G63" s="127"/>
+      <c r="H63" s="130"/>
+      <c r="I63" s="127"/>
+      <c r="J63" s="127"/>
+      <c r="K63" s="128"/>
     </row>
     <row r="64" spans="2:11">
-      <c r="B64" s="130"/>
-      <c r="C64" s="128"/>
-      <c r="D64" s="128"/>
-      <c r="E64" s="128"/>
-      <c r="F64" s="128"/>
-      <c r="G64" s="128"/>
-      <c r="H64" s="131"/>
-      <c r="I64" s="128"/>
-      <c r="J64" s="128"/>
-      <c r="K64" s="129"/>
+      <c r="B64" s="129"/>
+      <c r="C64" s="127"/>
+      <c r="D64" s="127"/>
+      <c r="E64" s="127"/>
+      <c r="F64" s="127"/>
+      <c r="G64" s="127"/>
+      <c r="H64" s="130"/>
+      <c r="I64" s="127"/>
+      <c r="J64" s="127"/>
+      <c r="K64" s="128"/>
     </row>
     <row r="65" spans="2:11">
-      <c r="B65" s="130"/>
-      <c r="C65" s="128"/>
-      <c r="D65" s="128"/>
-      <c r="E65" s="128"/>
-      <c r="F65" s="128"/>
-      <c r="G65" s="128"/>
-      <c r="H65" s="131"/>
-      <c r="I65" s="128"/>
-      <c r="J65" s="128"/>
-      <c r="K65" s="129"/>
+      <c r="B65" s="129"/>
+      <c r="C65" s="127"/>
+      <c r="D65" s="127"/>
+      <c r="E65" s="127"/>
+      <c r="F65" s="127"/>
+      <c r="G65" s="127"/>
+      <c r="H65" s="130"/>
+      <c r="I65" s="127"/>
+      <c r="J65" s="127"/>
+      <c r="K65" s="128"/>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="130"/>
-      <c r="C66" s="128"/>
-      <c r="D66" s="148"/>
-      <c r="E66" s="128"/>
-      <c r="F66" s="128"/>
-      <c r="G66" s="128"/>
-      <c r="H66" s="131"/>
-      <c r="I66" s="128"/>
-      <c r="J66" s="128"/>
-      <c r="K66" s="129"/>
+      <c r="B66" s="129"/>
+      <c r="C66" s="127"/>
+      <c r="D66" s="147"/>
+      <c r="E66" s="127"/>
+      <c r="F66" s="127"/>
+      <c r="G66" s="127"/>
+      <c r="H66" s="130"/>
+      <c r="I66" s="127"/>
+      <c r="J66" s="127"/>
+      <c r="K66" s="128"/>
     </row>
     <row r="67" spans="2:11">
-      <c r="B67" s="130"/>
-      <c r="C67" s="128"/>
-      <c r="D67" s="148"/>
-      <c r="E67" s="128"/>
-      <c r="F67" s="128"/>
-      <c r="G67" s="128"/>
-      <c r="H67" s="131"/>
-      <c r="I67" s="128"/>
-      <c r="J67" s="128"/>
-      <c r="K67" s="129"/>
+      <c r="B67" s="129"/>
+      <c r="C67" s="127"/>
+      <c r="D67" s="147"/>
+      <c r="E67" s="127"/>
+      <c r="F67" s="127"/>
+      <c r="G67" s="127"/>
+      <c r="H67" s="130"/>
+      <c r="I67" s="127"/>
+      <c r="J67" s="127"/>
+      <c r="K67" s="128"/>
     </row>
     <row r="68" spans="2:11">
-      <c r="B68" s="130"/>
-      <c r="C68" s="128"/>
-      <c r="D68" s="148"/>
-      <c r="E68" s="128"/>
-      <c r="F68" s="148"/>
-      <c r="G68" s="128"/>
-      <c r="H68" s="131"/>
-      <c r="I68" s="128"/>
-      <c r="J68" s="128"/>
-      <c r="K68" s="129"/>
+      <c r="B68" s="129"/>
+      <c r="C68" s="127"/>
+      <c r="D68" s="147"/>
+      <c r="E68" s="127"/>
+      <c r="F68" s="147"/>
+      <c r="G68" s="127"/>
+      <c r="H68" s="130"/>
+      <c r="I68" s="127"/>
+      <c r="J68" s="127"/>
+      <c r="K68" s="128"/>
     </row>
     <row r="69" spans="2:11">
-      <c r="B69" s="130"/>
-      <c r="C69" s="128"/>
-      <c r="G69" s="128"/>
-      <c r="H69" s="131"/>
-      <c r="I69" s="128"/>
-      <c r="J69" s="128"/>
-      <c r="K69" s="129"/>
+      <c r="B69" s="129"/>
+      <c r="C69" s="127"/>
+      <c r="G69" s="127"/>
+      <c r="H69" s="130"/>
+      <c r="I69" s="127"/>
+      <c r="J69" s="127"/>
+      <c r="K69" s="128"/>
     </row>
     <row r="70" spans="2:11">
-      <c r="B70" s="130"/>
-      <c r="C70" s="128"/>
-      <c r="G70" s="128"/>
-      <c r="H70" s="131"/>
-      <c r="I70" s="128"/>
-      <c r="J70" s="128"/>
-      <c r="K70" s="129"/>
+      <c r="B70" s="129"/>
+      <c r="C70" s="127"/>
+      <c r="G70" s="127"/>
+      <c r="H70" s="130"/>
+      <c r="I70" s="127"/>
+      <c r="J70" s="127"/>
+      <c r="K70" s="128"/>
     </row>
     <row r="71" spans="2:11">
-      <c r="B71" s="130"/>
-      <c r="C71" s="128"/>
-      <c r="G71" s="128"/>
-      <c r="H71" s="131"/>
-      <c r="I71" s="128"/>
-      <c r="J71" s="128"/>
-      <c r="K71" s="129"/>
+      <c r="B71" s="129"/>
+      <c r="C71" s="127"/>
+      <c r="G71" s="127"/>
+      <c r="H71" s="130"/>
+      <c r="I71" s="127"/>
+      <c r="J71" s="127"/>
+      <c r="K71" s="128"/>
     </row>
     <row r="72" spans="2:11">
-      <c r="B72" s="130"/>
-      <c r="C72" s="128"/>
-      <c r="G72" s="128"/>
-      <c r="H72" s="131"/>
-      <c r="I72" s="128"/>
-      <c r="J72" s="128"/>
-      <c r="K72" s="129"/>
+      <c r="B72" s="129"/>
+      <c r="C72" s="127"/>
+      <c r="G72" s="127"/>
+      <c r="H72" s="130"/>
+      <c r="I72" s="127"/>
+      <c r="J72" s="127"/>
+      <c r="K72" s="128"/>
     </row>
     <row r="73" spans="2:11">
-      <c r="B73" s="130"/>
-      <c r="C73" s="128"/>
-      <c r="G73" s="128"/>
-      <c r="H73" s="131"/>
-      <c r="I73" s="128"/>
-      <c r="J73" s="128"/>
-      <c r="K73" s="145"/>
+      <c r="B73" s="129"/>
+      <c r="C73" s="127"/>
+      <c r="G73" s="127"/>
+      <c r="H73" s="130"/>
+      <c r="I73" s="127"/>
+      <c r="J73" s="127"/>
+      <c r="K73" s="144"/>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="130"/>
-      <c r="C74" s="128"/>
-      <c r="D74" s="128"/>
-      <c r="E74" s="128"/>
-      <c r="F74" s="128"/>
-      <c r="G74" s="128"/>
-      <c r="H74" s="131"/>
-      <c r="I74" s="128"/>
-      <c r="J74" s="128"/>
-      <c r="K74" s="129"/>
+      <c r="B74" s="129"/>
+      <c r="C74" s="127"/>
+      <c r="D74" s="127"/>
+      <c r="E74" s="127"/>
+      <c r="F74" s="127"/>
+      <c r="G74" s="127"/>
+      <c r="H74" s="130"/>
+      <c r="I74" s="127"/>
+      <c r="J74" s="127"/>
+      <c r="K74" s="128"/>
     </row>
     <row r="75" spans="2:11">
-      <c r="B75" s="130"/>
-      <c r="C75" s="128"/>
-      <c r="D75" s="128"/>
-      <c r="E75" s="128"/>
-      <c r="F75" s="128"/>
-      <c r="G75" s="128"/>
-      <c r="H75" s="131"/>
-      <c r="I75" s="128"/>
-      <c r="J75" s="128"/>
-      <c r="K75" s="129"/>
+      <c r="B75" s="129"/>
+      <c r="C75" s="127"/>
+      <c r="D75" s="127"/>
+      <c r="E75" s="127"/>
+      <c r="F75" s="127"/>
+      <c r="G75" s="127"/>
+      <c r="H75" s="130"/>
+      <c r="I75" s="127"/>
+      <c r="J75" s="127"/>
+      <c r="K75" s="128"/>
     </row>
     <row r="76" spans="2:11">
-      <c r="B76" s="130"/>
-      <c r="C76" s="128"/>
-      <c r="D76" s="128"/>
-      <c r="E76" s="128"/>
-      <c r="F76" s="128"/>
-      <c r="G76" s="128"/>
-      <c r="H76" s="131"/>
-      <c r="I76" s="128"/>
-      <c r="J76" s="128"/>
-      <c r="K76" s="129"/>
+      <c r="B76" s="129"/>
+      <c r="C76" s="127"/>
+      <c r="D76" s="127"/>
+      <c r="E76" s="127"/>
+      <c r="F76" s="127"/>
+      <c r="G76" s="127"/>
+      <c r="H76" s="130"/>
+      <c r="I76" s="127"/>
+      <c r="J76" s="127"/>
+      <c r="K76" s="128"/>
     </row>
     <row r="77" spans="2:11">
-      <c r="B77" s="130"/>
-      <c r="C77" s="128"/>
-      <c r="D77" s="128"/>
-      <c r="E77" s="128"/>
-      <c r="F77" s="128"/>
-      <c r="G77" s="128"/>
-      <c r="H77" s="131"/>
-      <c r="I77" s="128"/>
-      <c r="J77" s="128"/>
-      <c r="K77" s="129"/>
+      <c r="B77" s="129"/>
+      <c r="C77" s="127"/>
+      <c r="D77" s="127"/>
+      <c r="E77" s="127"/>
+      <c r="F77" s="127"/>
+      <c r="G77" s="127"/>
+      <c r="H77" s="130"/>
+      <c r="I77" s="127"/>
+      <c r="J77" s="127"/>
+      <c r="K77" s="128"/>
     </row>
     <row r="78" spans="2:11">
-      <c r="B78" s="130"/>
-      <c r="C78" s="128"/>
-      <c r="G78" s="128"/>
-      <c r="H78" s="131"/>
-      <c r="I78" s="128"/>
-      <c r="J78" s="128"/>
-      <c r="K78" s="129"/>
+      <c r="B78" s="129"/>
+      <c r="C78" s="127"/>
+      <c r="G78" s="127"/>
+      <c r="H78" s="130"/>
+      <c r="I78" s="127"/>
+      <c r="J78" s="127"/>
+      <c r="K78" s="128"/>
     </row>
     <row r="79" spans="2:11">
-      <c r="B79" s="130"/>
-      <c r="C79" s="128"/>
-      <c r="G79" s="128"/>
-      <c r="H79" s="131"/>
-      <c r="I79" s="128"/>
-      <c r="J79" s="128"/>
-      <c r="K79" s="129"/>
+      <c r="B79" s="129"/>
+      <c r="C79" s="127"/>
+      <c r="G79" s="127"/>
+      <c r="H79" s="130"/>
+      <c r="I79" s="127"/>
+      <c r="J79" s="127"/>
+      <c r="K79" s="128"/>
     </row>
     <row r="80" spans="2:11">
-      <c r="B80" s="130"/>
-      <c r="C80" s="128"/>
-      <c r="D80" s="147"/>
-      <c r="G80" s="128"/>
-      <c r="H80" s="131"/>
-      <c r="I80" s="128"/>
-      <c r="J80" s="128"/>
-      <c r="K80" s="129"/>
+      <c r="B80" s="129"/>
+      <c r="C80" s="127"/>
+      <c r="D80" s="146"/>
+      <c r="G80" s="127"/>
+      <c r="H80" s="130"/>
+      <c r="I80" s="127"/>
+      <c r="J80" s="127"/>
+      <c r="K80" s="128"/>
     </row>
     <row r="81" spans="2:11">
-      <c r="B81" s="130"/>
-      <c r="C81" s="128"/>
-      <c r="D81" s="128"/>
-      <c r="E81" s="128"/>
-      <c r="F81" s="144"/>
-      <c r="G81" s="128"/>
-      <c r="H81" s="131"/>
-      <c r="I81" s="128"/>
-      <c r="J81" s="128"/>
-      <c r="K81" s="129"/>
+      <c r="B81" s="129"/>
+      <c r="C81" s="127"/>
+      <c r="D81" s="127"/>
+      <c r="E81" s="127"/>
+      <c r="F81" s="143"/>
+      <c r="G81" s="127"/>
+      <c r="H81" s="130"/>
+      <c r="I81" s="127"/>
+      <c r="J81" s="127"/>
+      <c r="K81" s="128"/>
     </row>
     <row r="82" spans="2:11">
-      <c r="B82" s="130"/>
-      <c r="C82" s="128"/>
-      <c r="D82" s="128"/>
-      <c r="E82" s="128"/>
-      <c r="F82" s="144"/>
-      <c r="G82" s="128"/>
-      <c r="H82" s="131"/>
-      <c r="I82" s="128"/>
-      <c r="J82" s="128"/>
-      <c r="K82" s="129"/>
+      <c r="B82" s="129"/>
+      <c r="C82" s="127"/>
+      <c r="D82" s="127"/>
+      <c r="E82" s="127"/>
+      <c r="F82" s="143"/>
+      <c r="G82" s="127"/>
+      <c r="H82" s="130"/>
+      <c r="I82" s="127"/>
+      <c r="J82" s="127"/>
+      <c r="K82" s="128"/>
     </row>
     <row r="83" spans="2:11">
-      <c r="B83" s="130"/>
-      <c r="C83" s="128"/>
-      <c r="D83" s="128"/>
-      <c r="E83" s="128"/>
-      <c r="F83" s="128"/>
-      <c r="G83" s="128"/>
-      <c r="H83" s="131"/>
-      <c r="I83" s="128"/>
-      <c r="J83" s="128"/>
-      <c r="K83" s="129"/>
+      <c r="B83" s="129"/>
+      <c r="C83" s="127"/>
+      <c r="D83" s="127"/>
+      <c r="E83" s="127"/>
+      <c r="F83" s="127"/>
+      <c r="G83" s="127"/>
+      <c r="H83" s="130"/>
+      <c r="I83" s="127"/>
+      <c r="J83" s="127"/>
+      <c r="K83" s="128"/>
     </row>
     <row r="84" spans="2:11">
-      <c r="B84" s="130"/>
-      <c r="C84" s="128"/>
-      <c r="D84" s="128"/>
-      <c r="E84" s="128"/>
-      <c r="F84" s="128"/>
-      <c r="G84" s="128"/>
-      <c r="H84" s="131"/>
-      <c r="I84" s="128"/>
-      <c r="J84" s="128"/>
-      <c r="K84" s="129"/>
+      <c r="B84" s="129"/>
+      <c r="C84" s="127"/>
+      <c r="D84" s="127"/>
+      <c r="E84" s="127"/>
+      <c r="F84" s="127"/>
+      <c r="G84" s="127"/>
+      <c r="H84" s="130"/>
+      <c r="I84" s="127"/>
+      <c r="J84" s="127"/>
+      <c r="K84" s="128"/>
     </row>
     <row r="85" spans="2:11">
-      <c r="B85" s="130"/>
-      <c r="C85" s="128"/>
-      <c r="D85" s="128"/>
-      <c r="E85" s="128"/>
-      <c r="F85" s="128"/>
-      <c r="G85" s="128"/>
-      <c r="H85" s="131"/>
-      <c r="I85" s="128"/>
-      <c r="J85" s="128"/>
-      <c r="K85" s="129"/>
+      <c r="B85" s="129"/>
+      <c r="C85" s="127"/>
+      <c r="D85" s="127"/>
+      <c r="E85" s="127"/>
+      <c r="F85" s="127"/>
+      <c r="G85" s="127"/>
+      <c r="H85" s="130"/>
+      <c r="I85" s="127"/>
+      <c r="J85" s="127"/>
+      <c r="K85" s="128"/>
     </row>
     <row r="86" spans="2:11">
-      <c r="B86" s="130"/>
-      <c r="C86" s="128"/>
-      <c r="D86" s="128"/>
-      <c r="E86" s="128"/>
-      <c r="F86" s="128"/>
-      <c r="G86" s="128"/>
-      <c r="H86" s="131"/>
-      <c r="I86" s="128"/>
-      <c r="J86" s="128"/>
-      <c r="K86" s="129"/>
+      <c r="B86" s="129"/>
+      <c r="C86" s="127"/>
+      <c r="D86" s="127"/>
+      <c r="E86" s="127"/>
+      <c r="F86" s="127"/>
+      <c r="G86" s="127"/>
+      <c r="H86" s="130"/>
+      <c r="I86" s="127"/>
+      <c r="J86" s="127"/>
+      <c r="K86" s="128"/>
     </row>
     <row r="87" spans="2:11">
-      <c r="B87" s="130"/>
-      <c r="C87" s="128"/>
-      <c r="D87" s="128"/>
-      <c r="E87" s="128"/>
-      <c r="F87" s="128"/>
-      <c r="G87" s="128"/>
-      <c r="H87" s="131"/>
-      <c r="I87" s="128"/>
-      <c r="J87" s="128"/>
-      <c r="K87" s="129"/>
+      <c r="B87" s="129"/>
+      <c r="C87" s="127"/>
+      <c r="D87" s="127"/>
+      <c r="E87" s="127"/>
+      <c r="F87" s="127"/>
+      <c r="G87" s="127"/>
+      <c r="H87" s="130"/>
+      <c r="I87" s="127"/>
+      <c r="J87" s="127"/>
+      <c r="K87" s="128"/>
     </row>
     <row r="88" spans="2:11">
-      <c r="B88" s="130"/>
-      <c r="C88" s="128"/>
-      <c r="D88" s="128"/>
-      <c r="E88" s="128"/>
-      <c r="F88" s="128"/>
-      <c r="G88" s="128"/>
-      <c r="H88" s="131"/>
-      <c r="I88" s="128"/>
-      <c r="J88" s="128"/>
-      <c r="K88" s="129"/>
+      <c r="B88" s="129"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
+      <c r="G88" s="127"/>
+      <c r="H88" s="130"/>
+      <c r="I88" s="127"/>
+      <c r="J88" s="127"/>
+      <c r="K88" s="128"/>
     </row>
     <row r="89" spans="2:11">
-      <c r="B89" s="130"/>
-      <c r="C89" s="128"/>
-      <c r="D89" s="128"/>
-      <c r="E89" s="128"/>
-      <c r="F89" s="128"/>
-      <c r="G89" s="128"/>
-      <c r="H89" s="131"/>
-      <c r="I89" s="128"/>
-      <c r="J89" s="128"/>
-      <c r="K89" s="129"/>
+      <c r="B89" s="129"/>
+      <c r="C89" s="127"/>
+      <c r="D89" s="127"/>
+      <c r="E89" s="127"/>
+      <c r="F89" s="127"/>
+      <c r="G89" s="127"/>
+      <c r="H89" s="130"/>
+      <c r="I89" s="127"/>
+      <c r="J89" s="127"/>
+      <c r="K89" s="128"/>
     </row>
     <row r="90" spans="2:11">
-      <c r="B90" s="130"/>
-      <c r="C90" s="128"/>
-      <c r="D90" s="128"/>
-      <c r="E90" s="128"/>
-      <c r="F90" s="128"/>
-      <c r="G90" s="128"/>
-      <c r="H90" s="131"/>
-      <c r="I90" s="128"/>
-      <c r="J90" s="128"/>
-      <c r="K90" s="129"/>
+      <c r="B90" s="129"/>
+      <c r="C90" s="127"/>
+      <c r="D90" s="127"/>
+      <c r="E90" s="127"/>
+      <c r="F90" s="127"/>
+      <c r="G90" s="127"/>
+      <c r="H90" s="130"/>
+      <c r="I90" s="127"/>
+      <c r="J90" s="127"/>
+      <c r="K90" s="128"/>
     </row>
     <row r="91" spans="2:11">
-      <c r="B91" s="130"/>
-      <c r="C91" s="128"/>
-      <c r="D91" s="128"/>
-      <c r="E91" s="128"/>
-      <c r="F91" s="128"/>
-      <c r="G91" s="128"/>
-      <c r="H91" s="131"/>
-      <c r="I91" s="128"/>
-      <c r="J91" s="128"/>
-      <c r="K91" s="129"/>
+      <c r="B91" s="129"/>
+      <c r="C91" s="127"/>
+      <c r="D91" s="127"/>
+      <c r="E91" s="127"/>
+      <c r="F91" s="127"/>
+      <c r="G91" s="127"/>
+      <c r="H91" s="130"/>
+      <c r="I91" s="127"/>
+      <c r="J91" s="127"/>
+      <c r="K91" s="128"/>
     </row>
     <row r="92" spans="2:11">
-      <c r="B92" s="130"/>
-      <c r="C92" s="128"/>
-      <c r="D92" s="128"/>
-      <c r="E92" s="128"/>
-      <c r="F92" s="128"/>
-      <c r="G92" s="128"/>
-      <c r="H92" s="131"/>
-      <c r="I92" s="128"/>
-      <c r="J92" s="128"/>
-      <c r="K92" s="129"/>
+      <c r="B92" s="129"/>
+      <c r="C92" s="127"/>
+      <c r="D92" s="127"/>
+      <c r="E92" s="127"/>
+      <c r="F92" s="127"/>
+      <c r="G92" s="127"/>
+      <c r="H92" s="130"/>
+      <c r="I92" s="127"/>
+      <c r="J92" s="127"/>
+      <c r="K92" s="128"/>
     </row>
     <row r="93" spans="2:11">
-      <c r="B93" s="130"/>
-      <c r="C93" s="128"/>
-      <c r="D93" s="128"/>
-      <c r="E93" s="128"/>
-      <c r="F93" s="128"/>
-      <c r="G93" s="128"/>
-      <c r="H93" s="131"/>
-      <c r="I93" s="128"/>
-      <c r="J93" s="128"/>
-      <c r="K93" s="129"/>
+      <c r="B93" s="129"/>
+      <c r="C93" s="127"/>
+      <c r="D93" s="127"/>
+      <c r="E93" s="127"/>
+      <c r="F93" s="127"/>
+      <c r="G93" s="127"/>
+      <c r="H93" s="130"/>
+      <c r="I93" s="127"/>
+      <c r="J93" s="127"/>
+      <c r="K93" s="128"/>
     </row>
     <row r="94" spans="2:11">
-      <c r="B94" s="130"/>
-      <c r="C94" s="128"/>
-      <c r="D94" s="128"/>
-      <c r="E94" s="128"/>
-      <c r="F94" s="128"/>
-      <c r="G94" s="128"/>
-      <c r="H94" s="131"/>
-      <c r="I94" s="128"/>
-      <c r="J94" s="128"/>
-      <c r="K94" s="129"/>
+      <c r="B94" s="129"/>
+      <c r="C94" s="127"/>
+      <c r="D94" s="127"/>
+      <c r="E94" s="127"/>
+      <c r="F94" s="127"/>
+      <c r="G94" s="127"/>
+      <c r="H94" s="130"/>
+      <c r="I94" s="127"/>
+      <c r="J94" s="127"/>
+      <c r="K94" s="128"/>
     </row>
     <row r="95" spans="2:11">
-      <c r="B95" s="130"/>
-      <c r="C95" s="128"/>
-      <c r="D95" s="128"/>
-      <c r="E95" s="128"/>
-      <c r="F95" s="128"/>
-      <c r="G95" s="128"/>
-      <c r="H95" s="131"/>
-      <c r="I95" s="128"/>
-      <c r="J95" s="128"/>
-      <c r="K95" s="129"/>
+      <c r="B95" s="129"/>
+      <c r="C95" s="127"/>
+      <c r="D95" s="127"/>
+      <c r="E95" s="127"/>
+      <c r="F95" s="127"/>
+      <c r="G95" s="127"/>
+      <c r="H95" s="130"/>
+      <c r="I95" s="127"/>
+      <c r="J95" s="127"/>
+      <c r="K95" s="128"/>
     </row>
     <row r="96" spans="2:11">
-      <c r="B96" s="130"/>
-      <c r="C96" s="128"/>
-      <c r="D96" s="128"/>
-      <c r="E96" s="128"/>
-      <c r="F96" s="128"/>
-      <c r="G96" s="128"/>
-      <c r="H96" s="131"/>
-      <c r="I96" s="128"/>
-      <c r="J96" s="128"/>
-      <c r="K96" s="129"/>
+      <c r="B96" s="129"/>
+      <c r="C96" s="127"/>
+      <c r="D96" s="127"/>
+      <c r="E96" s="127"/>
+      <c r="F96" s="127"/>
+      <c r="G96" s="127"/>
+      <c r="H96" s="130"/>
+      <c r="I96" s="127"/>
+      <c r="J96" s="127"/>
+      <c r="K96" s="128"/>
     </row>
     <row r="97" spans="2:11">
-      <c r="B97" s="130"/>
-      <c r="C97" s="128"/>
-      <c r="D97" s="128"/>
-      <c r="E97" s="128"/>
-      <c r="F97" s="128"/>
-      <c r="G97" s="128"/>
-      <c r="H97" s="131"/>
-      <c r="I97" s="128"/>
-      <c r="J97" s="128"/>
-      <c r="K97" s="129"/>
+      <c r="B97" s="129"/>
+      <c r="C97" s="127"/>
+      <c r="D97" s="127"/>
+      <c r="E97" s="127"/>
+      <c r="F97" s="127"/>
+      <c r="G97" s="127"/>
+      <c r="H97" s="130"/>
+      <c r="I97" s="127"/>
+      <c r="J97" s="127"/>
+      <c r="K97" s="128"/>
     </row>
     <row r="98" spans="2:11">
-      <c r="B98" s="130"/>
-      <c r="C98" s="128"/>
-      <c r="D98" s="128"/>
-      <c r="E98" s="128"/>
-      <c r="F98" s="128"/>
-      <c r="G98" s="128"/>
-      <c r="H98" s="131"/>
-      <c r="I98" s="128"/>
-      <c r="J98" s="128"/>
-      <c r="K98" s="129"/>
+      <c r="B98" s="129"/>
+      <c r="C98" s="127"/>
+      <c r="D98" s="127"/>
+      <c r="E98" s="127"/>
+      <c r="F98" s="127"/>
+      <c r="G98" s="127"/>
+      <c r="H98" s="130"/>
+      <c r="I98" s="127"/>
+      <c r="J98" s="127"/>
+      <c r="K98" s="128"/>
     </row>
     <row r="99" spans="2:11">
-      <c r="B99" s="130"/>
-      <c r="C99" s="128"/>
-      <c r="D99" s="128"/>
-      <c r="E99" s="128"/>
-      <c r="F99" s="128"/>
-      <c r="G99" s="128"/>
-      <c r="H99" s="131"/>
-      <c r="I99" s="128"/>
-      <c r="J99" s="128"/>
-      <c r="K99" s="129"/>
+      <c r="B99" s="129"/>
+      <c r="C99" s="127"/>
+      <c r="D99" s="127"/>
+      <c r="E99" s="127"/>
+      <c r="F99" s="127"/>
+      <c r="G99" s="127"/>
+      <c r="H99" s="130"/>
+      <c r="I99" s="127"/>
+      <c r="J99" s="127"/>
+      <c r="K99" s="128"/>
     </row>
     <row r="100" spans="2:11">
-      <c r="B100" s="130"/>
-      <c r="C100" s="128"/>
-      <c r="D100" s="128"/>
-      <c r="E100" s="128"/>
-      <c r="F100" s="128"/>
-      <c r="G100" s="128"/>
-      <c r="H100" s="131"/>
-      <c r="I100" s="128"/>
-      <c r="J100" s="128"/>
-      <c r="K100" s="129"/>
+      <c r="B100" s="129"/>
+      <c r="C100" s="127"/>
+      <c r="D100" s="127"/>
+      <c r="E100" s="127"/>
+      <c r="F100" s="127"/>
+      <c r="G100" s="127"/>
+      <c r="H100" s="130"/>
+      <c r="I100" s="127"/>
+      <c r="J100" s="127"/>
+      <c r="K100" s="128"/>
     </row>
     <row r="101" spans="2:11">
-      <c r="B101" s="130"/>
-      <c r="C101" s="128"/>
-      <c r="D101" s="128"/>
-      <c r="E101" s="128"/>
-      <c r="F101" s="128"/>
-      <c r="G101" s="128"/>
-      <c r="H101" s="131"/>
-      <c r="I101" s="128"/>
-      <c r="J101" s="128"/>
-      <c r="K101" s="129"/>
+      <c r="B101" s="129"/>
+      <c r="C101" s="127"/>
+      <c r="D101" s="127"/>
+      <c r="E101" s="127"/>
+      <c r="F101" s="127"/>
+      <c r="G101" s="127"/>
+      <c r="H101" s="130"/>
+      <c r="I101" s="127"/>
+      <c r="J101" s="127"/>
+      <c r="K101" s="128"/>
     </row>
     <row r="102" spans="2:11">
-      <c r="B102" s="130"/>
-      <c r="C102" s="128"/>
-      <c r="D102" s="128"/>
-      <c r="E102" s="128"/>
-      <c r="F102" s="128"/>
-      <c r="G102" s="128"/>
-      <c r="H102" s="131"/>
-      <c r="I102" s="128"/>
-      <c r="J102" s="128"/>
-      <c r="K102" s="129"/>
+      <c r="B102" s="129"/>
+      <c r="C102" s="127"/>
+      <c r="D102" s="127"/>
+      <c r="E102" s="127"/>
+      <c r="F102" s="127"/>
+      <c r="G102" s="127"/>
+      <c r="H102" s="130"/>
+      <c r="I102" s="127"/>
+      <c r="J102" s="127"/>
+      <c r="K102" s="128"/>
     </row>
     <row r="103" spans="2:11">
-      <c r="B103" s="130"/>
-      <c r="C103" s="128"/>
-      <c r="D103" s="128"/>
-      <c r="E103" s="128"/>
-      <c r="F103" s="128"/>
-      <c r="G103" s="128"/>
-      <c r="H103" s="131"/>
-      <c r="I103" s="128"/>
-      <c r="J103" s="128"/>
-      <c r="K103" s="129"/>
+      <c r="B103" s="129"/>
+      <c r="C103" s="127"/>
+      <c r="D103" s="127"/>
+      <c r="E103" s="127"/>
+      <c r="F103" s="127"/>
+      <c r="G103" s="127"/>
+      <c r="H103" s="130"/>
+      <c r="I103" s="127"/>
+      <c r="J103" s="127"/>
+      <c r="K103" s="128"/>
     </row>
     <row r="104" spans="2:11">
-      <c r="B104" s="130"/>
-      <c r="C104" s="128"/>
-      <c r="D104" s="128"/>
-      <c r="E104" s="128"/>
-      <c r="F104" s="128"/>
-      <c r="G104" s="128"/>
-      <c r="H104" s="131"/>
-      <c r="I104" s="128"/>
-      <c r="J104" s="128"/>
-      <c r="K104" s="129"/>
+      <c r="B104" s="129"/>
+      <c r="C104" s="127"/>
+      <c r="D104" s="127"/>
+      <c r="E104" s="127"/>
+      <c r="F104" s="127"/>
+      <c r="G104" s="127"/>
+      <c r="H104" s="130"/>
+      <c r="I104" s="127"/>
+      <c r="J104" s="127"/>
+      <c r="K104" s="128"/>
     </row>
     <row r="105" spans="2:11">
-      <c r="B105" s="130"/>
-      <c r="C105" s="128"/>
-      <c r="D105" s="128"/>
-      <c r="E105" s="128"/>
-      <c r="F105" s="128"/>
-      <c r="G105" s="128"/>
-      <c r="H105" s="131"/>
-      <c r="I105" s="128"/>
-      <c r="J105" s="128"/>
-      <c r="K105" s="129"/>
+      <c r="B105" s="129"/>
+      <c r="C105" s="127"/>
+      <c r="D105" s="127"/>
+      <c r="E105" s="127"/>
+      <c r="F105" s="127"/>
+      <c r="G105" s="127"/>
+      <c r="H105" s="130"/>
+      <c r="I105" s="127"/>
+      <c r="J105" s="127"/>
+      <c r="K105" s="128"/>
     </row>
     <row r="106" spans="2:11">
-      <c r="B106" s="130"/>
-      <c r="C106" s="128"/>
-      <c r="D106" s="128"/>
-      <c r="E106" s="128"/>
-      <c r="F106" s="128"/>
-      <c r="G106" s="128"/>
-      <c r="H106" s="131"/>
-      <c r="I106" s="128"/>
-      <c r="J106" s="128"/>
-      <c r="K106" s="129"/>
+      <c r="B106" s="129"/>
+      <c r="C106" s="127"/>
+      <c r="D106" s="127"/>
+      <c r="E106" s="127"/>
+      <c r="F106" s="127"/>
+      <c r="G106" s="127"/>
+      <c r="H106" s="130"/>
+      <c r="I106" s="127"/>
+      <c r="J106" s="127"/>
+      <c r="K106" s="128"/>
     </row>
     <row r="107" spans="2:11">
-      <c r="B107" s="130"/>
-      <c r="C107" s="128"/>
-      <c r="D107" s="128"/>
-      <c r="E107" s="128"/>
-      <c r="F107" s="128"/>
-      <c r="G107" s="128"/>
-      <c r="H107" s="131"/>
-      <c r="I107" s="128"/>
-      <c r="J107" s="128"/>
-      <c r="K107" s="129"/>
+      <c r="B107" s="129"/>
+      <c r="C107" s="127"/>
+      <c r="D107" s="127"/>
+      <c r="E107" s="127"/>
+      <c r="F107" s="127"/>
+      <c r="G107" s="127"/>
+      <c r="H107" s="130"/>
+      <c r="I107" s="127"/>
+      <c r="J107" s="127"/>
+      <c r="K107" s="128"/>
     </row>
     <row r="108" spans="2:11">
-      <c r="B108" s="130"/>
-      <c r="C108" s="128"/>
-      <c r="D108" s="128"/>
-      <c r="E108" s="128"/>
-      <c r="F108" s="128"/>
-      <c r="G108" s="128"/>
-      <c r="H108" s="131"/>
-      <c r="I108" s="128"/>
-      <c r="J108" s="128"/>
-      <c r="K108" s="129"/>
+      <c r="B108" s="129"/>
+      <c r="C108" s="127"/>
+      <c r="D108" s="127"/>
+      <c r="E108" s="127"/>
+      <c r="F108" s="127"/>
+      <c r="G108" s="127"/>
+      <c r="H108" s="130"/>
+      <c r="I108" s="127"/>
+      <c r="J108" s="127"/>
+      <c r="K108" s="128"/>
     </row>
     <row r="109" spans="2:11">
-      <c r="B109" s="130"/>
-      <c r="C109" s="128"/>
-      <c r="D109" s="128"/>
-      <c r="E109" s="128"/>
-      <c r="F109" s="128"/>
-      <c r="G109" s="128"/>
-      <c r="H109" s="131"/>
-      <c r="I109" s="128"/>
-      <c r="J109" s="128"/>
-      <c r="K109" s="129"/>
+      <c r="B109" s="129"/>
+      <c r="C109" s="127"/>
+      <c r="D109" s="127"/>
+      <c r="E109" s="127"/>
+      <c r="F109" s="127"/>
+      <c r="G109" s="127"/>
+      <c r="H109" s="130"/>
+      <c r="I109" s="127"/>
+      <c r="J109" s="127"/>
+      <c r="K109" s="128"/>
     </row>
     <row r="110" spans="2:11">
-      <c r="B110" s="130"/>
-      <c r="C110" s="128"/>
-      <c r="D110" s="128"/>
-      <c r="E110" s="128"/>
-      <c r="F110" s="128"/>
-      <c r="G110" s="128"/>
-      <c r="H110" s="131"/>
-      <c r="I110" s="128"/>
-      <c r="J110" s="128"/>
-      <c r="K110" s="129"/>
+      <c r="B110" s="129"/>
+      <c r="C110" s="127"/>
+      <c r="D110" s="127"/>
+      <c r="E110" s="127"/>
+      <c r="F110" s="127"/>
+      <c r="G110" s="127"/>
+      <c r="H110" s="130"/>
+      <c r="I110" s="127"/>
+      <c r="J110" s="127"/>
+      <c r="K110" s="128"/>
     </row>
     <row r="111" spans="2:11">
-      <c r="B111" s="130"/>
-      <c r="C111" s="128"/>
-      <c r="D111" s="128"/>
-      <c r="E111" s="128"/>
-      <c r="F111" s="128"/>
-      <c r="G111" s="128"/>
-      <c r="H111" s="131"/>
-      <c r="I111" s="128"/>
-      <c r="J111" s="128"/>
-      <c r="K111" s="129"/>
+      <c r="B111" s="129"/>
+      <c r="C111" s="127"/>
+      <c r="D111" s="127"/>
+      <c r="E111" s="127"/>
+      <c r="F111" s="127"/>
+      <c r="G111" s="127"/>
+      <c r="H111" s="130"/>
+      <c r="I111" s="127"/>
+      <c r="J111" s="127"/>
+      <c r="K111" s="128"/>
     </row>
     <row r="112" spans="2:11">
-      <c r="B112" s="130"/>
-      <c r="C112" s="128"/>
-      <c r="D112" s="128"/>
-      <c r="E112" s="128"/>
-      <c r="F112" s="128"/>
-      <c r="G112" s="128"/>
-      <c r="H112" s="131"/>
-      <c r="I112" s="128"/>
-      <c r="J112" s="128"/>
-      <c r="K112" s="129"/>
+      <c r="B112" s="129"/>
+      <c r="C112" s="127"/>
+      <c r="D112" s="127"/>
+      <c r="E112" s="127"/>
+      <c r="F112" s="127"/>
+      <c r="G112" s="127"/>
+      <c r="H112" s="130"/>
+      <c r="I112" s="127"/>
+      <c r="J112" s="127"/>
+      <c r="K112" s="128"/>
     </row>
     <row r="113" spans="2:11">
-      <c r="B113" s="130"/>
-      <c r="C113" s="128"/>
-      <c r="D113" s="128"/>
-      <c r="E113" s="128"/>
-      <c r="F113" s="128"/>
-      <c r="G113" s="128"/>
-      <c r="H113" s="131"/>
-      <c r="I113" s="128"/>
-      <c r="J113" s="128"/>
-      <c r="K113" s="129"/>
+      <c r="B113" s="129"/>
+      <c r="C113" s="127"/>
+      <c r="D113" s="127"/>
+      <c r="E113" s="127"/>
+      <c r="F113" s="127"/>
+      <c r="G113" s="127"/>
+      <c r="H113" s="130"/>
+      <c r="I113" s="127"/>
+      <c r="J113" s="127"/>
+      <c r="K113" s="128"/>
     </row>
     <row r="114" spans="2:11">
-      <c r="B114" s="130"/>
-      <c r="C114" s="128"/>
-      <c r="D114" s="128"/>
-      <c r="E114" s="128"/>
-      <c r="F114" s="128"/>
-      <c r="G114" s="128"/>
-      <c r="H114" s="131"/>
-      <c r="I114" s="128"/>
-      <c r="J114" s="128"/>
-      <c r="K114" s="129"/>
+      <c r="B114" s="129"/>
+      <c r="C114" s="127"/>
+      <c r="D114" s="127"/>
+      <c r="E114" s="127"/>
+      <c r="F114" s="127"/>
+      <c r="G114" s="127"/>
+      <c r="H114" s="130"/>
+      <c r="I114" s="127"/>
+      <c r="J114" s="127"/>
+      <c r="K114" s="128"/>
     </row>
     <row r="115" spans="2:11">
-      <c r="B115" s="130"/>
-      <c r="C115" s="128"/>
-      <c r="D115" s="128"/>
-      <c r="E115" s="128"/>
-      <c r="F115" s="128"/>
-      <c r="G115" s="128"/>
-      <c r="H115" s="131"/>
-      <c r="I115" s="128"/>
-      <c r="J115" s="128"/>
-      <c r="K115" s="129"/>
+      <c r="B115" s="129"/>
+      <c r="C115" s="127"/>
+      <c r="D115" s="127"/>
+      <c r="E115" s="127"/>
+      <c r="F115" s="127"/>
+      <c r="G115" s="127"/>
+      <c r="H115" s="130"/>
+      <c r="I115" s="127"/>
+      <c r="J115" s="127"/>
+      <c r="K115" s="128"/>
     </row>
     <row r="116" spans="2:11">
-      <c r="B116" s="130"/>
-      <c r="C116" s="128"/>
-      <c r="D116" s="128"/>
-      <c r="E116" s="128"/>
-      <c r="F116" s="128"/>
-      <c r="G116" s="128"/>
-      <c r="H116" s="131"/>
-      <c r="I116" s="128"/>
-      <c r="J116" s="128"/>
-      <c r="K116" s="129"/>
+      <c r="B116" s="129"/>
+      <c r="C116" s="127"/>
+      <c r="D116" s="127"/>
+      <c r="E116" s="127"/>
+      <c r="F116" s="127"/>
+      <c r="G116" s="127"/>
+      <c r="H116" s="130"/>
+      <c r="I116" s="127"/>
+      <c r="J116" s="127"/>
+      <c r="K116" s="128"/>
     </row>
     <row r="117" spans="2:11">
-      <c r="B117" s="130"/>
-      <c r="C117" s="128"/>
-      <c r="D117" s="128"/>
-      <c r="E117" s="128"/>
-      <c r="F117" s="128"/>
-      <c r="G117" s="128"/>
-      <c r="H117" s="131"/>
-      <c r="I117" s="128"/>
-      <c r="J117" s="128"/>
-      <c r="K117" s="129"/>
+      <c r="B117" s="129"/>
+      <c r="C117" s="127"/>
+      <c r="D117" s="127"/>
+      <c r="E117" s="127"/>
+      <c r="F117" s="127"/>
+      <c r="G117" s="127"/>
+      <c r="H117" s="130"/>
+      <c r="I117" s="127"/>
+      <c r="J117" s="127"/>
+      <c r="K117" s="128"/>
     </row>
     <row r="118" spans="2:11">
-      <c r="B118" s="130"/>
-      <c r="C118" s="128"/>
-      <c r="D118" s="128"/>
-      <c r="E118" s="128"/>
-      <c r="F118" s="128"/>
-      <c r="G118" s="128"/>
-      <c r="H118" s="131"/>
-      <c r="I118" s="128"/>
-      <c r="J118" s="128"/>
-      <c r="K118" s="129"/>
+      <c r="B118" s="129"/>
+      <c r="C118" s="127"/>
+      <c r="D118" s="127"/>
+      <c r="E118" s="127"/>
+      <c r="F118" s="127"/>
+      <c r="G118" s="127"/>
+      <c r="H118" s="130"/>
+      <c r="I118" s="127"/>
+      <c r="J118" s="127"/>
+      <c r="K118" s="128"/>
     </row>
     <row r="119" spans="2:11">
-      <c r="B119" s="130"/>
-      <c r="C119" s="128"/>
-      <c r="D119" s="128"/>
-      <c r="E119" s="128"/>
-      <c r="F119" s="128"/>
-      <c r="G119" s="128"/>
-      <c r="H119" s="131"/>
-      <c r="I119" s="128"/>
-      <c r="J119" s="128"/>
-      <c r="K119" s="129"/>
+      <c r="B119" s="129"/>
+      <c r="C119" s="127"/>
+      <c r="D119" s="127"/>
+      <c r="E119" s="127"/>
+      <c r="F119" s="127"/>
+      <c r="G119" s="127"/>
+      <c r="H119" s="130"/>
+      <c r="I119" s="127"/>
+      <c r="J119" s="127"/>
+      <c r="K119" s="128"/>
     </row>
     <row r="120" spans="2:11">
-      <c r="B120" s="130"/>
-      <c r="C120" s="128"/>
-      <c r="D120" s="128"/>
-      <c r="E120" s="128"/>
-      <c r="F120" s="128"/>
-      <c r="G120" s="128"/>
-      <c r="H120" s="131"/>
-      <c r="I120" s="128"/>
-      <c r="J120" s="128"/>
-      <c r="K120" s="129"/>
+      <c r="B120" s="129"/>
+      <c r="C120" s="127"/>
+      <c r="D120" s="127"/>
+      <c r="E120" s="127"/>
+      <c r="F120" s="127"/>
+      <c r="G120" s="127"/>
+      <c r="H120" s="130"/>
+      <c r="I120" s="127"/>
+      <c r="J120" s="127"/>
+      <c r="K120" s="128"/>
     </row>
     <row r="121" spans="2:11">
-      <c r="B121" s="130"/>
-      <c r="C121" s="128"/>
-      <c r="D121" s="128"/>
-      <c r="E121" s="128"/>
-      <c r="F121" s="128"/>
-      <c r="G121" s="128"/>
-      <c r="H121" s="131"/>
-      <c r="I121" s="128"/>
-      <c r="J121" s="128"/>
-      <c r="K121" s="129"/>
+      <c r="B121" s="129"/>
+      <c r="C121" s="127"/>
+      <c r="D121" s="127"/>
+      <c r="E121" s="127"/>
+      <c r="F121" s="127"/>
+      <c r="G121" s="127"/>
+      <c r="H121" s="130"/>
+      <c r="I121" s="127"/>
+      <c r="J121" s="127"/>
+      <c r="K121" s="128"/>
     </row>
     <row r="122" spans="2:11">
-      <c r="B122" s="130"/>
-      <c r="C122" s="128"/>
-      <c r="D122" s="128"/>
-      <c r="E122" s="128"/>
-      <c r="F122" s="128"/>
-      <c r="G122" s="128"/>
-      <c r="H122" s="131"/>
-      <c r="I122" s="128"/>
-      <c r="J122" s="128"/>
-      <c r="K122" s="129"/>
+      <c r="B122" s="129"/>
+      <c r="C122" s="127"/>
+      <c r="D122" s="127"/>
+      <c r="E122" s="127"/>
+      <c r="F122" s="127"/>
+      <c r="G122" s="127"/>
+      <c r="H122" s="130"/>
+      <c r="I122" s="127"/>
+      <c r="J122" s="127"/>
+      <c r="K122" s="128"/>
     </row>
     <row r="123" spans="2:11">
-      <c r="B123" s="130"/>
-      <c r="C123" s="128"/>
-      <c r="D123" s="128"/>
-      <c r="E123" s="128"/>
-      <c r="F123" s="128"/>
-      <c r="G123" s="128"/>
-      <c r="H123" s="131"/>
-      <c r="I123" s="128"/>
-      <c r="J123" s="128"/>
-      <c r="K123" s="129"/>
+      <c r="B123" s="129"/>
+      <c r="C123" s="127"/>
+      <c r="D123" s="127"/>
+      <c r="E123" s="127"/>
+      <c r="F123" s="127"/>
+      <c r="G123" s="127"/>
+      <c r="H123" s="130"/>
+      <c r="I123" s="127"/>
+      <c r="J123" s="127"/>
+      <c r="K123" s="128"/>
     </row>
     <row r="124" spans="2:11">
-      <c r="B124" s="130"/>
-      <c r="C124" s="128"/>
-      <c r="D124" s="128"/>
-      <c r="E124" s="128"/>
-      <c r="F124" s="128"/>
-      <c r="G124" s="128"/>
-      <c r="H124" s="131"/>
-      <c r="I124" s="128"/>
-      <c r="J124" s="128"/>
-      <c r="K124" s="129"/>
+      <c r="B124" s="129"/>
+      <c r="C124" s="127"/>
+      <c r="D124" s="127"/>
+      <c r="E124" s="127"/>
+      <c r="F124" s="127"/>
+      <c r="G124" s="127"/>
+      <c r="H124" s="130"/>
+      <c r="I124" s="127"/>
+      <c r="J124" s="127"/>
+      <c r="K124" s="128"/>
     </row>
     <row r="125" spans="2:11">
-      <c r="B125" s="130"/>
-      <c r="C125" s="128"/>
-      <c r="D125" s="128"/>
-      <c r="E125" s="128"/>
-      <c r="F125" s="128"/>
-      <c r="G125" s="128"/>
-      <c r="H125" s="131"/>
-      <c r="I125" s="128"/>
-      <c r="J125" s="128"/>
-      <c r="K125" s="129"/>
+      <c r="B125" s="129"/>
+      <c r="C125" s="127"/>
+      <c r="D125" s="127"/>
+      <c r="E125" s="127"/>
+      <c r="F125" s="127"/>
+      <c r="G125" s="127"/>
+      <c r="H125" s="130"/>
+      <c r="I125" s="127"/>
+      <c r="J125" s="127"/>
+      <c r="K125" s="128"/>
     </row>
     <row r="126" spans="2:11">
-      <c r="B126" s="130"/>
-      <c r="C126" s="128"/>
-      <c r="D126" s="128"/>
-      <c r="E126" s="128"/>
-      <c r="F126" s="128"/>
-      <c r="G126" s="128"/>
-      <c r="H126" s="131"/>
-      <c r="I126" s="128"/>
-      <c r="J126" s="128"/>
-      <c r="K126" s="129"/>
+      <c r="B126" s="129"/>
+      <c r="C126" s="127"/>
+      <c r="D126" s="127"/>
+      <c r="E126" s="127"/>
+      <c r="F126" s="127"/>
+      <c r="G126" s="127"/>
+      <c r="H126" s="130"/>
+      <c r="I126" s="127"/>
+      <c r="J126" s="127"/>
+      <c r="K126" s="128"/>
     </row>
     <row r="127" spans="2:11">
-      <c r="B127" s="130"/>
-      <c r="C127" s="128"/>
-      <c r="D127" s="128"/>
-      <c r="E127" s="128"/>
-      <c r="F127" s="128"/>
-      <c r="G127" s="128"/>
-      <c r="H127" s="131"/>
-      <c r="I127" s="128"/>
-      <c r="J127" s="128"/>
-      <c r="K127" s="129"/>
+      <c r="B127" s="129"/>
+      <c r="C127" s="127"/>
+      <c r="D127" s="127"/>
+      <c r="E127" s="127"/>
+      <c r="F127" s="127"/>
+      <c r="G127" s="127"/>
+      <c r="H127" s="130"/>
+      <c r="I127" s="127"/>
+      <c r="J127" s="127"/>
+      <c r="K127" s="128"/>
     </row>
     <row r="128" spans="2:11">
-      <c r="B128" s="130"/>
-      <c r="C128" s="128"/>
-      <c r="D128" s="128"/>
-      <c r="E128" s="128"/>
-      <c r="F128" s="128"/>
-      <c r="G128" s="128"/>
-      <c r="H128" s="131"/>
-      <c r="I128" s="128"/>
-      <c r="J128" s="128"/>
-      <c r="K128" s="129"/>
+      <c r="B128" s="129"/>
+      <c r="C128" s="127"/>
+      <c r="D128" s="127"/>
+      <c r="E128" s="127"/>
+      <c r="F128" s="127"/>
+      <c r="G128" s="127"/>
+      <c r="H128" s="130"/>
+      <c r="I128" s="127"/>
+      <c r="J128" s="127"/>
+      <c r="K128" s="128"/>
     </row>
     <row r="129" spans="2:11">
-      <c r="B129" s="130"/>
-      <c r="C129" s="128"/>
-      <c r="D129" s="128"/>
-      <c r="E129" s="128"/>
-      <c r="F129" s="128"/>
-      <c r="G129" s="128"/>
-      <c r="H129" s="131"/>
-      <c r="I129" s="128"/>
-      <c r="J129" s="128"/>
-      <c r="K129" s="129"/>
+      <c r="B129" s="129"/>
+      <c r="C129" s="127"/>
+      <c r="D129" s="127"/>
+      <c r="E129" s="127"/>
+      <c r="F129" s="127"/>
+      <c r="G129" s="127"/>
+      <c r="H129" s="130"/>
+      <c r="I129" s="127"/>
+      <c r="J129" s="127"/>
+      <c r="K129" s="128"/>
     </row>
     <row r="130" spans="2:11">
-      <c r="B130" s="130"/>
-      <c r="C130" s="128"/>
-      <c r="D130" s="128"/>
-      <c r="E130" s="128"/>
-      <c r="F130" s="128"/>
-      <c r="G130" s="128"/>
-      <c r="H130" s="131"/>
-      <c r="I130" s="128"/>
-      <c r="J130" s="128"/>
-      <c r="K130" s="129"/>
+      <c r="B130" s="129"/>
+      <c r="C130" s="127"/>
+      <c r="D130" s="127"/>
+      <c r="E130" s="127"/>
+      <c r="F130" s="127"/>
+      <c r="G130" s="127"/>
+      <c r="H130" s="130"/>
+      <c r="I130" s="127"/>
+      <c r="J130" s="127"/>
+      <c r="K130" s="128"/>
     </row>
     <row r="131" spans="2:11">
-      <c r="B131" s="130"/>
-      <c r="C131" s="128"/>
-      <c r="D131" s="128"/>
-      <c r="E131" s="128"/>
-      <c r="F131" s="128"/>
-      <c r="G131" s="128"/>
-      <c r="H131" s="131"/>
-      <c r="I131" s="128"/>
-      <c r="J131" s="128"/>
-      <c r="K131" s="129"/>
+      <c r="B131" s="129"/>
+      <c r="C131" s="127"/>
+      <c r="D131" s="127"/>
+      <c r="E131" s="127"/>
+      <c r="F131" s="127"/>
+      <c r="G131" s="127"/>
+      <c r="H131" s="130"/>
+      <c r="I131" s="127"/>
+      <c r="J131" s="127"/>
+      <c r="K131" s="128"/>
     </row>
     <row r="132" spans="2:11">
-      <c r="B132" s="130"/>
-      <c r="C132" s="128"/>
-      <c r="D132" s="128"/>
-      <c r="E132" s="128"/>
-      <c r="F132" s="128"/>
-      <c r="G132" s="128"/>
-      <c r="H132" s="131"/>
-      <c r="I132" s="128"/>
-      <c r="J132" s="128"/>
-      <c r="K132" s="129"/>
+      <c r="B132" s="129"/>
+      <c r="C132" s="127"/>
+      <c r="D132" s="127"/>
+      <c r="E132" s="127"/>
+      <c r="F132" s="127"/>
+      <c r="G132" s="127"/>
+      <c r="H132" s="130"/>
+      <c r="I132" s="127"/>
+      <c r="J132" s="127"/>
+      <c r="K132" s="128"/>
     </row>
     <row r="133" spans="2:11">
-      <c r="B133" s="130"/>
-      <c r="C133" s="128"/>
-      <c r="D133" s="128"/>
-      <c r="E133" s="128"/>
-      <c r="F133" s="128"/>
-      <c r="G133" s="128"/>
-      <c r="H133" s="131"/>
-      <c r="I133" s="128"/>
-      <c r="J133" s="128"/>
-      <c r="K133" s="129"/>
+      <c r="B133" s="129"/>
+      <c r="C133" s="127"/>
+      <c r="D133" s="127"/>
+      <c r="E133" s="127"/>
+      <c r="F133" s="127"/>
+      <c r="G133" s="127"/>
+      <c r="H133" s="130"/>
+      <c r="I133" s="127"/>
+      <c r="J133" s="127"/>
+      <c r="K133" s="128"/>
     </row>
     <row r="134" spans="2:11">
-      <c r="B134" s="130"/>
-      <c r="C134" s="128"/>
-      <c r="D134" s="128"/>
-      <c r="E134" s="128"/>
-      <c r="F134" s="128"/>
-      <c r="G134" s="128"/>
-      <c r="H134" s="131"/>
-      <c r="I134" s="128"/>
-      <c r="J134" s="128"/>
-      <c r="K134" s="129"/>
+      <c r="B134" s="129"/>
+      <c r="C134" s="127"/>
+      <c r="D134" s="127"/>
+      <c r="E134" s="127"/>
+      <c r="F134" s="127"/>
+      <c r="G134" s="127"/>
+      <c r="H134" s="130"/>
+      <c r="I134" s="127"/>
+      <c r="J134" s="127"/>
+      <c r="K134" s="128"/>
     </row>
     <row r="135" spans="2:11">
-      <c r="B135" s="130"/>
-      <c r="C135" s="128"/>
-      <c r="D135" s="128"/>
-      <c r="E135" s="128"/>
-      <c r="F135" s="128"/>
-      <c r="G135" s="128"/>
-      <c r="H135" s="131"/>
-      <c r="I135" s="128"/>
-      <c r="J135" s="128"/>
-      <c r="K135" s="129"/>
+      <c r="B135" s="129"/>
+      <c r="C135" s="127"/>
+      <c r="D135" s="127"/>
+      <c r="E135" s="127"/>
+      <c r="F135" s="127"/>
+      <c r="G135" s="127"/>
+      <c r="H135" s="130"/>
+      <c r="I135" s="127"/>
+      <c r="J135" s="127"/>
+      <c r="K135" s="128"/>
     </row>
     <row r="136" spans="2:11">
-      <c r="B136" s="130"/>
-      <c r="C136" s="128"/>
-      <c r="D136" s="128"/>
-      <c r="E136" s="128"/>
-      <c r="F136" s="128"/>
-      <c r="G136" s="128"/>
-      <c r="H136" s="131"/>
-      <c r="I136" s="128"/>
-      <c r="J136" s="128"/>
-      <c r="K136" s="129"/>
+      <c r="B136" s="129"/>
+      <c r="C136" s="127"/>
+      <c r="D136" s="127"/>
+      <c r="E136" s="127"/>
+      <c r="F136" s="127"/>
+      <c r="G136" s="127"/>
+      <c r="H136" s="130"/>
+      <c r="I136" s="127"/>
+      <c r="J136" s="127"/>
+      <c r="K136" s="128"/>
     </row>
     <row r="137" spans="2:11">
-      <c r="B137" s="130"/>
-      <c r="C137" s="128"/>
-      <c r="D137" s="128"/>
-      <c r="E137" s="128"/>
-      <c r="F137" s="128"/>
-      <c r="G137" s="128"/>
-      <c r="H137" s="131"/>
-      <c r="I137" s="128"/>
-      <c r="J137" s="128"/>
-      <c r="K137" s="129"/>
+      <c r="B137" s="129"/>
+      <c r="C137" s="127"/>
+      <c r="D137" s="127"/>
+      <c r="E137" s="127"/>
+      <c r="F137" s="127"/>
+      <c r="G137" s="127"/>
+      <c r="H137" s="130"/>
+      <c r="I137" s="127"/>
+      <c r="J137" s="127"/>
+      <c r="K137" s="128"/>
     </row>
     <row r="138" spans="2:11">
-      <c r="B138" s="130"/>
-      <c r="C138" s="128"/>
-      <c r="D138" s="128"/>
-      <c r="E138" s="128"/>
-      <c r="F138" s="128"/>
-      <c r="G138" s="128"/>
-      <c r="H138" s="131"/>
-      <c r="I138" s="128"/>
-      <c r="J138" s="128"/>
-      <c r="K138" s="129"/>
+      <c r="B138" s="129"/>
+      <c r="C138" s="127"/>
+      <c r="D138" s="127"/>
+      <c r="E138" s="127"/>
+      <c r="F138" s="127"/>
+      <c r="G138" s="127"/>
+      <c r="H138" s="130"/>
+      <c r="I138" s="127"/>
+      <c r="J138" s="127"/>
+      <c r="K138" s="128"/>
     </row>
     <row r="139" spans="2:11">
-      <c r="B139" s="130"/>
-      <c r="C139" s="128"/>
-      <c r="D139" s="128"/>
-      <c r="E139" s="128"/>
-      <c r="F139" s="128"/>
-      <c r="G139" s="128"/>
-      <c r="H139" s="131"/>
-      <c r="I139" s="128"/>
-      <c r="J139" s="128"/>
-      <c r="K139" s="129"/>
+      <c r="B139" s="129"/>
+      <c r="C139" s="127"/>
+      <c r="D139" s="127"/>
+      <c r="E139" s="127"/>
+      <c r="F139" s="127"/>
+      <c r="G139" s="127"/>
+      <c r="H139" s="130"/>
+      <c r="I139" s="127"/>
+      <c r="J139" s="127"/>
+      <c r="K139" s="128"/>
     </row>
     <row r="140" spans="2:11">
-      <c r="B140" s="130"/>
-      <c r="C140" s="128"/>
-      <c r="D140" s="128"/>
-      <c r="E140" s="128"/>
-      <c r="F140" s="128"/>
-      <c r="G140" s="128"/>
-      <c r="H140" s="131"/>
-      <c r="I140" s="128"/>
-      <c r="J140" s="128"/>
-      <c r="K140" s="129"/>
+      <c r="B140" s="129"/>
+      <c r="C140" s="127"/>
+      <c r="D140" s="127"/>
+      <c r="E140" s="127"/>
+      <c r="F140" s="127"/>
+      <c r="G140" s="127"/>
+      <c r="H140" s="130"/>
+      <c r="I140" s="127"/>
+      <c r="J140" s="127"/>
+      <c r="K140" s="128"/>
     </row>
     <row r="141" spans="2:11">
-      <c r="B141" s="130"/>
-      <c r="C141" s="128"/>
-      <c r="D141" s="128"/>
-      <c r="E141" s="128"/>
-      <c r="F141" s="128"/>
-      <c r="G141" s="128"/>
-      <c r="H141" s="131"/>
-      <c r="I141" s="128"/>
-      <c r="J141" s="128"/>
-      <c r="K141" s="129"/>
+      <c r="B141" s="129"/>
+      <c r="C141" s="127"/>
+      <c r="D141" s="127"/>
+      <c r="E141" s="127"/>
+      <c r="F141" s="127"/>
+      <c r="G141" s="127"/>
+      <c r="H141" s="130"/>
+      <c r="I141" s="127"/>
+      <c r="J141" s="127"/>
+      <c r="K141" s="128"/>
     </row>
     <row r="142" spans="2:11">
-      <c r="B142" s="130"/>
-      <c r="C142" s="128"/>
-      <c r="D142" s="128"/>
-      <c r="E142" s="128"/>
-      <c r="F142" s="128"/>
-      <c r="G142" s="128"/>
-      <c r="H142" s="131"/>
-      <c r="I142" s="128"/>
-      <c r="J142" s="128"/>
-      <c r="K142" s="129"/>
+      <c r="B142" s="129"/>
+      <c r="C142" s="127"/>
+      <c r="D142" s="127"/>
+      <c r="E142" s="127"/>
+      <c r="F142" s="127"/>
+      <c r="G142" s="127"/>
+      <c r="H142" s="130"/>
+      <c r="I142" s="127"/>
+      <c r="J142" s="127"/>
+      <c r="K142" s="128"/>
     </row>
     <row r="143" spans="2:11">
-      <c r="B143" s="130"/>
-      <c r="C143" s="128"/>
-      <c r="D143" s="128"/>
-      <c r="E143" s="128"/>
-      <c r="F143" s="128"/>
-      <c r="G143" s="128"/>
-      <c r="H143" s="131"/>
-      <c r="I143" s="128"/>
-      <c r="J143" s="128"/>
-      <c r="K143" s="129"/>
+      <c r="B143" s="129"/>
+      <c r="C143" s="127"/>
+      <c r="D143" s="127"/>
+      <c r="E143" s="127"/>
+      <c r="F143" s="127"/>
+      <c r="G143" s="127"/>
+      <c r="H143" s="130"/>
+      <c r="I143" s="127"/>
+      <c r="J143" s="127"/>
+      <c r="K143" s="128"/>
     </row>
     <row r="144" spans="2:11">
-      <c r="B144" s="130"/>
-      <c r="C144" s="128"/>
-      <c r="D144" s="128"/>
-      <c r="E144" s="128"/>
-      <c r="F144" s="128"/>
-      <c r="G144" s="128"/>
-      <c r="H144" s="131"/>
-      <c r="I144" s="128"/>
-      <c r="J144" s="128"/>
-      <c r="K144" s="129"/>
+      <c r="B144" s="129"/>
+      <c r="C144" s="127"/>
+      <c r="D144" s="127"/>
+      <c r="E144" s="127"/>
+      <c r="F144" s="127"/>
+      <c r="G144" s="127"/>
+      <c r="H144" s="130"/>
+      <c r="I144" s="127"/>
+      <c r="J144" s="127"/>
+      <c r="K144" s="128"/>
     </row>
     <row r="145" spans="2:11">
-      <c r="B145" s="130"/>
-      <c r="C145" s="128"/>
-      <c r="D145" s="128"/>
-      <c r="E145" s="128"/>
-      <c r="F145" s="128"/>
-      <c r="G145" s="128"/>
-      <c r="H145" s="131"/>
-      <c r="I145" s="128"/>
-      <c r="J145" s="128"/>
-      <c r="K145" s="129"/>
+      <c r="B145" s="129"/>
+      <c r="C145" s="127"/>
+      <c r="D145" s="127"/>
+      <c r="E145" s="127"/>
+      <c r="F145" s="127"/>
+      <c r="G145" s="127"/>
+      <c r="H145" s="130"/>
+      <c r="I145" s="127"/>
+      <c r="J145" s="127"/>
+      <c r="K145" s="128"/>
     </row>
     <row r="146" spans="2:11">
-      <c r="B146" s="130"/>
-      <c r="C146" s="128"/>
-      <c r="D146" s="128"/>
-      <c r="E146" s="128"/>
-      <c r="F146" s="128"/>
-      <c r="G146" s="128"/>
-      <c r="H146" s="131"/>
-      <c r="I146" s="128"/>
-      <c r="J146" s="128"/>
-      <c r="K146" s="129"/>
+      <c r="B146" s="129"/>
+      <c r="C146" s="127"/>
+      <c r="D146" s="127"/>
+      <c r="E146" s="127"/>
+      <c r="F146" s="127"/>
+      <c r="G146" s="127"/>
+      <c r="H146" s="130"/>
+      <c r="I146" s="127"/>
+      <c r="J146" s="127"/>
+      <c r="K146" s="128"/>
     </row>
     <row r="147" spans="2:11">
-      <c r="B147" s="130"/>
-      <c r="C147" s="128"/>
-      <c r="D147" s="128"/>
-      <c r="E147" s="128"/>
-      <c r="F147" s="128"/>
-      <c r="G147" s="128"/>
-      <c r="H147" s="131"/>
-      <c r="I147" s="128"/>
-      <c r="J147" s="128"/>
-      <c r="K147" s="129"/>
+      <c r="B147" s="129"/>
+      <c r="C147" s="127"/>
+      <c r="D147" s="127"/>
+      <c r="E147" s="127"/>
+      <c r="F147" s="127"/>
+      <c r="G147" s="127"/>
+      <c r="H147" s="130"/>
+      <c r="I147" s="127"/>
+      <c r="J147" s="127"/>
+      <c r="K147" s="128"/>
     </row>
     <row r="148" spans="2:11">
-      <c r="B148" s="130"/>
-      <c r="C148" s="128"/>
-      <c r="D148" s="128"/>
-      <c r="E148" s="128"/>
-      <c r="F148" s="128"/>
-      <c r="G148" s="128"/>
-      <c r="H148" s="131"/>
-      <c r="I148" s="128"/>
-      <c r="J148" s="128"/>
-      <c r="K148" s="129"/>
+      <c r="B148" s="129"/>
+      <c r="C148" s="127"/>
+      <c r="D148" s="127"/>
+      <c r="E148" s="127"/>
+      <c r="F148" s="127"/>
+      <c r="G148" s="127"/>
+      <c r="H148" s="130"/>
+      <c r="I148" s="127"/>
+      <c r="J148" s="127"/>
+      <c r="K148" s="128"/>
     </row>
     <row r="149" spans="2:11">
-      <c r="B149" s="130"/>
-      <c r="C149" s="128"/>
-      <c r="D149" s="128"/>
-      <c r="E149" s="128"/>
-      <c r="F149" s="128"/>
-      <c r="G149" s="128"/>
-      <c r="H149" s="131"/>
-      <c r="I149" s="128"/>
-      <c r="J149" s="128"/>
-      <c r="K149" s="129"/>
+      <c r="B149" s="129"/>
+      <c r="C149" s="127"/>
+      <c r="D149" s="127"/>
+      <c r="E149" s="127"/>
+      <c r="F149" s="127"/>
+      <c r="G149" s="127"/>
+      <c r="H149" s="130"/>
+      <c r="I149" s="127"/>
+      <c r="J149" s="127"/>
+      <c r="K149" s="128"/>
     </row>
     <row r="150" spans="2:11">
-      <c r="B150" s="130"/>
-      <c r="C150" s="128"/>
-      <c r="D150" s="128"/>
-      <c r="E150" s="128"/>
-      <c r="F150" s="128"/>
-      <c r="G150" s="128"/>
-      <c r="H150" s="131"/>
-      <c r="I150" s="128"/>
-      <c r="J150" s="128"/>
-      <c r="K150" s="129"/>
+      <c r="B150" s="129"/>
+      <c r="C150" s="127"/>
+      <c r="D150" s="127"/>
+      <c r="E150" s="127"/>
+      <c r="F150" s="127"/>
+      <c r="G150" s="127"/>
+      <c r="H150" s="130"/>
+      <c r="I150" s="127"/>
+      <c r="J150" s="127"/>
+      <c r="K150" s="128"/>
     </row>
     <row r="151" spans="2:11">
-      <c r="B151" s="130"/>
-      <c r="C151" s="128"/>
-      <c r="D151" s="128"/>
-      <c r="E151" s="128"/>
-      <c r="F151" s="128"/>
-      <c r="G151" s="128"/>
-      <c r="H151" s="131"/>
-      <c r="I151" s="128"/>
-      <c r="J151" s="128"/>
-      <c r="K151" s="129"/>
+      <c r="B151" s="129"/>
+      <c r="C151" s="127"/>
+      <c r="D151" s="127"/>
+      <c r="E151" s="127"/>
+      <c r="F151" s="127"/>
+      <c r="G151" s="127"/>
+      <c r="H151" s="130"/>
+      <c r="I151" s="127"/>
+      <c r="J151" s="127"/>
+      <c r="K151" s="128"/>
     </row>
     <row r="152" spans="2:11">
-      <c r="B152" s="130"/>
-      <c r="C152" s="128"/>
-      <c r="D152" s="128"/>
-      <c r="E152" s="128"/>
-      <c r="F152" s="128"/>
-      <c r="G152" s="128"/>
-      <c r="H152" s="131"/>
-      <c r="I152" s="128"/>
-      <c r="J152" s="128"/>
-      <c r="K152" s="129"/>
+      <c r="B152" s="129"/>
+      <c r="C152" s="127"/>
+      <c r="D152" s="127"/>
+      <c r="E152" s="127"/>
+      <c r="F152" s="127"/>
+      <c r="G152" s="127"/>
+      <c r="H152" s="130"/>
+      <c r="I152" s="127"/>
+      <c r="J152" s="127"/>
+      <c r="K152" s="128"/>
     </row>
     <row r="153" spans="2:11">
-      <c r="B153" s="130"/>
-      <c r="C153" s="128"/>
-      <c r="D153" s="128"/>
-      <c r="E153" s="128"/>
-      <c r="F153" s="128"/>
-      <c r="G153" s="128"/>
-      <c r="H153" s="131"/>
-      <c r="I153" s="128"/>
-      <c r="J153" s="128"/>
-      <c r="K153" s="129"/>
+      <c r="B153" s="129"/>
+      <c r="C153" s="127"/>
+      <c r="D153" s="127"/>
+      <c r="E153" s="127"/>
+      <c r="F153" s="127"/>
+      <c r="G153" s="127"/>
+      <c r="H153" s="130"/>
+      <c r="I153" s="127"/>
+      <c r="J153" s="127"/>
+      <c r="K153" s="128"/>
     </row>
     <row r="154" spans="2:11">
-      <c r="B154" s="130"/>
-      <c r="C154" s="128"/>
-      <c r="D154" s="128"/>
-      <c r="E154" s="128"/>
-      <c r="F154" s="128"/>
-      <c r="G154" s="128"/>
-      <c r="H154" s="131"/>
-      <c r="I154" s="128"/>
-      <c r="J154" s="128"/>
-      <c r="K154" s="129"/>
+      <c r="B154" s="129"/>
+      <c r="C154" s="127"/>
+      <c r="D154" s="127"/>
+      <c r="E154" s="127"/>
+      <c r="F154" s="127"/>
+      <c r="G154" s="127"/>
+      <c r="H154" s="130"/>
+      <c r="I154" s="127"/>
+      <c r="J154" s="127"/>
+      <c r="K154" s="128"/>
     </row>
     <row r="155" spans="2:11">
-      <c r="B155" s="130"/>
-      <c r="C155" s="128"/>
-      <c r="D155" s="128"/>
-      <c r="E155" s="128"/>
-      <c r="F155" s="128"/>
-      <c r="G155" s="128"/>
-      <c r="H155" s="131"/>
-      <c r="I155" s="128"/>
-      <c r="J155" s="128"/>
-      <c r="K155" s="129"/>
+      <c r="B155" s="129"/>
+      <c r="C155" s="127"/>
+      <c r="D155" s="127"/>
+      <c r="E155" s="127"/>
+      <c r="F155" s="127"/>
+      <c r="G155" s="127"/>
+      <c r="H155" s="130"/>
+      <c r="I155" s="127"/>
+      <c r="J155" s="127"/>
+      <c r="K155" s="128"/>
     </row>
     <row r="156" spans="2:11">
-      <c r="B156" s="130"/>
-      <c r="C156" s="128"/>
-      <c r="D156" s="128"/>
-      <c r="E156" s="128"/>
-      <c r="F156" s="128"/>
-      <c r="G156" s="128"/>
-      <c r="H156" s="131"/>
-      <c r="I156" s="128"/>
-      <c r="J156" s="128"/>
-      <c r="K156" s="129"/>
+      <c r="B156" s="129"/>
+      <c r="C156" s="127"/>
+      <c r="D156" s="127"/>
+      <c r="E156" s="127"/>
+      <c r="F156" s="127"/>
+      <c r="G156" s="127"/>
+      <c r="H156" s="130"/>
+      <c r="I156" s="127"/>
+      <c r="J156" s="127"/>
+      <c r="K156" s="128"/>
     </row>
     <row r="157" spans="2:11">
-      <c r="B157" s="130"/>
-      <c r="C157" s="128"/>
-      <c r="D157" s="128"/>
-      <c r="E157" s="128"/>
-      <c r="F157" s="128"/>
-      <c r="G157" s="128"/>
-      <c r="H157" s="131"/>
-      <c r="I157" s="128"/>
-      <c r="J157" s="128"/>
-      <c r="K157" s="129"/>
+      <c r="B157" s="129"/>
+      <c r="C157" s="127"/>
+      <c r="D157" s="127"/>
+      <c r="E157" s="127"/>
+      <c r="F157" s="127"/>
+      <c r="G157" s="127"/>
+      <c r="H157" s="130"/>
+      <c r="I157" s="127"/>
+      <c r="J157" s="127"/>
+      <c r="K157" s="128"/>
     </row>
     <row r="158" spans="2:11">
-      <c r="B158" s="130"/>
-      <c r="C158" s="128"/>
-      <c r="D158" s="128"/>
-      <c r="E158" s="128"/>
-      <c r="F158" s="128"/>
-      <c r="G158" s="128"/>
-      <c r="H158" s="131"/>
-      <c r="I158" s="128"/>
-      <c r="J158" s="128"/>
-      <c r="K158" s="129"/>
+      <c r="B158" s="129"/>
+      <c r="C158" s="127"/>
+      <c r="D158" s="127"/>
+      <c r="E158" s="127"/>
+      <c r="F158" s="127"/>
+      <c r="G158" s="127"/>
+      <c r="H158" s="130"/>
+      <c r="I158" s="127"/>
+      <c r="J158" s="127"/>
+      <c r="K158" s="128"/>
     </row>
     <row r="159" spans="2:11">
-      <c r="B159" s="130"/>
-      <c r="C159" s="128"/>
-      <c r="D159" s="128"/>
-      <c r="E159" s="128"/>
-      <c r="F159" s="128"/>
-      <c r="G159" s="128"/>
-      <c r="H159" s="131"/>
-      <c r="I159" s="128"/>
-      <c r="J159" s="128"/>
-      <c r="K159" s="129"/>
+      <c r="B159" s="129"/>
+      <c r="C159" s="127"/>
+      <c r="D159" s="127"/>
+      <c r="E159" s="127"/>
+      <c r="F159" s="127"/>
+      <c r="G159" s="127"/>
+      <c r="H159" s="130"/>
+      <c r="I159" s="127"/>
+      <c r="J159" s="127"/>
+      <c r="K159" s="128"/>
     </row>
     <row r="160" spans="2:11">
-      <c r="B160" s="130"/>
-      <c r="C160" s="128"/>
-      <c r="D160" s="128"/>
-      <c r="E160" s="128"/>
-      <c r="F160" s="128"/>
-      <c r="G160" s="128"/>
-      <c r="H160" s="131"/>
-      <c r="I160" s="128"/>
-      <c r="J160" s="128"/>
-      <c r="K160" s="129"/>
+      <c r="B160" s="129"/>
+      <c r="C160" s="127"/>
+      <c r="D160" s="127"/>
+      <c r="E160" s="127"/>
+      <c r="F160" s="127"/>
+      <c r="G160" s="127"/>
+      <c r="H160" s="130"/>
+      <c r="I160" s="127"/>
+      <c r="J160" s="127"/>
+      <c r="K160" s="128"/>
     </row>
     <row r="161" spans="2:11">
-      <c r="B161" s="130"/>
-      <c r="C161" s="128"/>
-      <c r="D161" s="128"/>
-      <c r="E161" s="128"/>
-      <c r="F161" s="128"/>
-      <c r="G161" s="128"/>
-      <c r="H161" s="131"/>
-      <c r="I161" s="128"/>
-      <c r="J161" s="128"/>
-      <c r="K161" s="129"/>
+      <c r="B161" s="129"/>
+      <c r="C161" s="127"/>
+      <c r="D161" s="127"/>
+      <c r="E161" s="127"/>
+      <c r="F161" s="127"/>
+      <c r="G161" s="127"/>
+      <c r="H161" s="130"/>
+      <c r="I161" s="127"/>
+      <c r="J161" s="127"/>
+      <c r="K161" s="128"/>
     </row>
     <row r="162" spans="2:11">
-      <c r="B162" s="130"/>
-      <c r="C162" s="128"/>
-      <c r="D162" s="128"/>
-      <c r="E162" s="128"/>
-      <c r="F162" s="128"/>
-      <c r="G162" s="128"/>
-      <c r="H162" s="131"/>
-      <c r="I162" s="128"/>
-      <c r="J162" s="128"/>
-      <c r="K162" s="129"/>
+      <c r="B162" s="129"/>
+      <c r="C162" s="127"/>
+      <c r="D162" s="127"/>
+      <c r="E162" s="127"/>
+      <c r="F162" s="127"/>
+      <c r="G162" s="127"/>
+      <c r="H162" s="130"/>
+      <c r="I162" s="127"/>
+      <c r="J162" s="127"/>
+      <c r="K162" s="128"/>
     </row>
     <row r="163" spans="2:11">
-      <c r="B163" s="130"/>
-      <c r="C163" s="128"/>
-      <c r="D163" s="128"/>
-      <c r="E163" s="128"/>
-      <c r="F163" s="128"/>
-      <c r="G163" s="128"/>
-      <c r="H163" s="131"/>
-      <c r="I163" s="128"/>
-      <c r="J163" s="128"/>
-      <c r="K163" s="129"/>
+      <c r="B163" s="129"/>
+      <c r="C163" s="127"/>
+      <c r="D163" s="127"/>
+      <c r="E163" s="127"/>
+      <c r="F163" s="127"/>
+      <c r="G163" s="127"/>
+      <c r="H163" s="130"/>
+      <c r="I163" s="127"/>
+      <c r="J163" s="127"/>
+      <c r="K163" s="128"/>
     </row>
     <row r="164" spans="2:11">
-      <c r="B164" s="130"/>
-      <c r="C164" s="128"/>
-      <c r="D164" s="128"/>
-      <c r="E164" s="128"/>
-      <c r="F164" s="128"/>
-      <c r="G164" s="128"/>
-      <c r="H164" s="131"/>
-      <c r="I164" s="128"/>
-      <c r="J164" s="128"/>
-      <c r="K164" s="129"/>
+      <c r="B164" s="129"/>
+      <c r="C164" s="127"/>
+      <c r="D164" s="127"/>
+      <c r="E164" s="127"/>
+      <c r="F164" s="127"/>
+      <c r="G164" s="127"/>
+      <c r="H164" s="130"/>
+      <c r="I164" s="127"/>
+      <c r="J164" s="127"/>
+      <c r="K164" s="128"/>
     </row>
     <row r="165" spans="2:11">
-      <c r="B165" s="130"/>
-      <c r="C165" s="128"/>
-      <c r="D165" s="128"/>
-      <c r="E165" s="128"/>
-      <c r="F165" s="128"/>
-      <c r="G165" s="128"/>
-      <c r="H165" s="131"/>
-      <c r="I165" s="128"/>
-      <c r="J165" s="128"/>
-      <c r="K165" s="129"/>
+      <c r="B165" s="129"/>
+      <c r="C165" s="127"/>
+      <c r="D165" s="127"/>
+      <c r="E165" s="127"/>
+      <c r="F165" s="127"/>
+      <c r="G165" s="127"/>
+      <c r="H165" s="130"/>
+      <c r="I165" s="127"/>
+      <c r="J165" s="127"/>
+      <c r="K165" s="128"/>
     </row>
     <row r="166" spans="2:11">
-      <c r="B166" s="130"/>
-      <c r="C166" s="128"/>
-      <c r="D166" s="128"/>
-      <c r="E166" s="128"/>
-      <c r="F166" s="128"/>
-      <c r="G166" s="128"/>
-      <c r="H166" s="131"/>
-      <c r="I166" s="128"/>
-      <c r="J166" s="128"/>
-      <c r="K166" s="129"/>
+      <c r="B166" s="129"/>
+      <c r="C166" s="127"/>
+      <c r="D166" s="127"/>
+      <c r="E166" s="127"/>
+      <c r="F166" s="127"/>
+      <c r="G166" s="127"/>
+      <c r="H166" s="130"/>
+      <c r="I166" s="127"/>
+      <c r="J166" s="127"/>
+      <c r="K166" s="128"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy/energy_flexibility_pumped_storage_electricity.converter.xlsx
+++ b/nodes_source_analyses/energy/energy/energy_flexibility_pumped_storage_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Code/etdataset/nodes_source_analyses/energy/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69470434-3E53-8142-9B43-5062358FCE08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD179088-230E-8D4A-8E6F-6A7F9199250A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1000" windowWidth="28300" windowHeight="15840" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1000" windowWidth="27660" windowHeight="15840" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="97">
   <si>
     <t>Source</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>households_supplied_per_unit</t>
-  </si>
-  <si>
     <t>yes=1, no=0</t>
   </si>
   <si>
@@ -137,25 +134,13 @@
     <t>free_co2_factor</t>
   </si>
   <si>
-    <t>forecasting_error</t>
-  </si>
-  <si>
     <t>land_use_per_unit</t>
   </si>
   <si>
     <t>takes_part_in_ets</t>
   </si>
   <si>
-    <t>part_load_efficiency_penalty</t>
-  </si>
-  <si>
-    <t>part_load_operating_point</t>
-  </si>
-  <si>
     <t>electricity_output_capacity</t>
-  </si>
-  <si>
-    <t>heat_output_capacity</t>
   </si>
   <si>
     <t>initial_investment</t>
@@ -371,6 +356,15 @@
   <si>
     <t>This is in the range of an average 90% efficiency of pumps and 90% efficiency of turbines.</t>
   </si>
+  <si>
+    <t>euro/MWh</t>
+  </si>
+  <si>
+    <t>max_consumption_price</t>
+  </si>
+  <si>
+    <t>marginal_costs</t>
+  </si>
 </sst>
 </file>
 
@@ -383,12 +377,19 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -891,598 +892,592 @@
   </borders>
   <cellStyleXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="274">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2281,7 +2276,7 @@
     <row r="2" spans="1:4" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="19"/>
     </row>
@@ -2293,28 +2288,28 @@
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="151" t="s">
-        <v>84</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="149" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2330,7 +2325,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="51" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C9" s="52"/>
       <c r="D9" s="70"/>
@@ -2344,10 +2339,10 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="53" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D11" s="71"/>
     </row>
@@ -2355,7 +2350,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="53"/>
       <c r="C12" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D12" s="71"/>
     </row>
@@ -2363,7 +2358,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="53"/>
       <c r="C13" s="56" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D13" s="71"/>
     </row>
@@ -2371,7 +2366,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="53"/>
       <c r="C14" s="54" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D14" s="71"/>
     </row>
@@ -2384,10 +2379,10 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="53" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D16" s="71"/>
     </row>
@@ -2395,7 +2390,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="53"/>
       <c r="C17" s="58" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D17" s="71"/>
     </row>
@@ -2403,7 +2398,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="53"/>
       <c r="C18" s="59" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D18" s="71"/>
     </row>
@@ -2411,7 +2406,7 @@
       <c r="A19" s="1"/>
       <c r="B19" s="53"/>
       <c r="C19" s="60" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D19" s="71"/>
     </row>
@@ -2419,7 +2414,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="61"/>
       <c r="C20" s="62" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D20" s="71"/>
     </row>
@@ -2427,7 +2422,7 @@
       <c r="A21" s="1"/>
       <c r="B21" s="61"/>
       <c r="C21" s="63" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D21" s="71"/>
     </row>
@@ -2435,14 +2430,14 @@
       <c r="A22" s="1"/>
       <c r="B22" s="61"/>
       <c r="C22" s="64" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D22" s="71"/>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="61"/>
       <c r="C23" s="65" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D23" s="71"/>
     </row>
@@ -2462,10 +2457,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K39"/>
+  <dimension ref="B1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" customHeight="1"/>
@@ -2490,28 +2485,28 @@
       <c r="G1" s="83"/>
     </row>
     <row r="2" spans="2:11" ht="16" customHeight="1">
-      <c r="B2" s="153" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="155"/>
+      <c r="B2" s="156" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="158"/>
       <c r="F2" s="83"/>
       <c r="G2" s="83"/>
     </row>
     <row r="3" spans="2:11" ht="16" customHeight="1">
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="158"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="161"/>
       <c r="F3" s="83"/>
       <c r="G3" s="83"/>
     </row>
     <row r="4" spans="2:11" ht="32" customHeight="1">
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="161"/>
+      <c r="B4" s="162"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="164"/>
       <c r="F4" s="83"/>
       <c r="G4" s="83"/>
     </row>
@@ -2532,17 +2527,17 @@
     <row r="7" spans="2:11" s="91" customFormat="1" ht="16" customHeight="1">
       <c r="B7" s="87"/>
       <c r="C7" s="88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="88" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="88"/>
       <c r="G7" s="88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="88"/>
       <c r="I7" s="88" t="s">
@@ -2564,7 +2559,7 @@
     <row r="9" spans="2:11" s="91" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B9" s="92"/>
       <c r="C9" s="93" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D9" s="94"/>
       <c r="E9" s="93"/>
@@ -2577,43 +2572,43 @@
     <row r="10" spans="2:11" s="91" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B10" s="92"/>
       <c r="C10" s="105" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D10" s="109" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="141">
+        <v>73</v>
+      </c>
+      <c r="E10" s="139">
         <v>3000</v>
       </c>
       <c r="F10" s="107"/>
       <c r="G10" s="108"/>
-      <c r="I10" s="149" t="s">
-        <v>85</v>
+      <c r="I10" s="147" t="s">
+        <v>80</v>
       </c>
       <c r="J10" s="95"/>
     </row>
     <row r="11" spans="2:11" s="91" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B11" s="92"/>
       <c r="C11" s="105" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D11" s="109" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="142">
+        <v>39</v>
+      </c>
+      <c r="E11" s="140">
         <v>0</v>
       </c>
       <c r="F11" s="107"/>
       <c r="G11" s="108"/>
-      <c r="I11" s="149" t="s">
-        <v>81</v>
+      <c r="I11" s="147" t="s">
+        <v>76</v>
       </c>
       <c r="J11" s="95"/>
     </row>
     <row r="12" spans="2:11" s="91" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B12" s="92"/>
-      <c r="C12" s="145" t="s">
-        <v>82</v>
+      <c r="C12" s="143" t="s">
+        <v>77</v>
       </c>
       <c r="D12" s="109" t="s">
         <v>4</v>
@@ -2623,54 +2618,54 @@
         <v>0.8</v>
       </c>
       <c r="F12" s="107"/>
-      <c r="G12" s="162" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="149" t="s">
-        <v>92</v>
+      <c r="G12" s="151" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="147" t="s">
+        <v>87</v>
       </c>
       <c r="J12" s="95"/>
     </row>
     <row r="13" spans="2:11" s="91" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B13" s="92"/>
       <c r="C13" s="105" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D13" s="109" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E13" s="106">
         <v>500</v>
       </c>
       <c r="F13" s="107"/>
       <c r="G13" s="108"/>
-      <c r="I13" s="149" t="s">
-        <v>85</v>
+      <c r="I13" s="147" t="s">
+        <v>80</v>
       </c>
       <c r="J13" s="95"/>
     </row>
     <row r="14" spans="2:11" s="91" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B14" s="92"/>
-      <c r="C14" s="162" t="s">
-        <v>94</v>
+      <c r="C14" s="151" t="s">
+        <v>89</v>
       </c>
       <c r="D14" s="109" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E14" s="106">
         <v>500</v>
       </c>
       <c r="F14" s="107"/>
       <c r="G14" s="108"/>
-      <c r="I14" s="163" t="s">
-        <v>85</v>
+      <c r="I14" s="152" t="s">
+        <v>80</v>
       </c>
       <c r="J14" s="95"/>
     </row>
     <row r="15" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B15" s="96"/>
       <c r="C15" s="107" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="109" t="s">
         <v>4</v>
@@ -2680,16 +2675,16 @@
       </c>
       <c r="F15" s="107"/>
       <c r="G15" s="107"/>
-      <c r="I15" s="149" t="s">
-        <v>85</v>
+      <c r="I15" s="147" t="s">
+        <v>80</v>
       </c>
       <c r="J15" s="97"/>
       <c r="K15" s="83"/>
     </row>
     <row r="16" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B16" s="96"/>
-      <c r="C16" s="107" t="s">
-        <v>25</v>
+      <c r="C16" s="111" t="s">
+        <v>62</v>
       </c>
       <c r="D16" s="109" t="s">
         <v>4</v>
@@ -2699,394 +2694,337 @@
       </c>
       <c r="F16" s="107"/>
       <c r="G16" s="107"/>
-      <c r="I16" s="149" t="s">
-        <v>81</v>
+      <c r="I16" s="147" t="s">
+        <v>76</v>
       </c>
       <c r="J16" s="97"/>
       <c r="K16" s="83"/>
     </row>
-    <row r="17" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="17" spans="2:10" ht="16" customHeight="1">
       <c r="B17" s="96"/>
-      <c r="C17" s="111" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="109" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="110">
-        <v>0</v>
-      </c>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="I17" s="149" t="s">
-        <v>81</v>
-      </c>
+      <c r="C17" s="98"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="I17" s="83"/>
       <c r="J17" s="97"/>
-      <c r="K17" s="83"/>
-    </row>
-    <row r="18" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    </row>
+    <row r="18" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B18" s="96"/>
-      <c r="C18" s="107" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="109" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="110">
-        <v>0</v>
-      </c>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="I18" s="149" t="s">
-        <v>81</v>
-      </c>
+      <c r="C18" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="99"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="I18" s="83"/>
       <c r="J18" s="97"/>
-      <c r="K18" s="83"/>
-    </row>
-    <row r="19" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    </row>
+    <row r="19" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B19" s="96"/>
       <c r="C19" s="107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="109" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="112">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="E19" s="110">
+        <v>500000000</v>
       </c>
       <c r="F19" s="107"/>
       <c r="G19" s="107"/>
-      <c r="I19" s="149" t="s">
-        <v>81</v>
+      <c r="I19" s="147" t="s">
+        <v>80</v>
       </c>
       <c r="J19" s="97"/>
-      <c r="K19" s="83"/>
-    </row>
-    <row r="20" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    </row>
+    <row r="20" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B20" s="96"/>
       <c r="C20" s="107" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="109" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="112">
+        <v>21</v>
+      </c>
+      <c r="E20" s="110">
         <v>0</v>
       </c>
       <c r="F20" s="107"/>
       <c r="G20" s="107"/>
-      <c r="I20" s="149" t="s">
-        <v>81</v>
+      <c r="I20" s="147" t="s">
+        <v>76</v>
       </c>
       <c r="J20" s="97"/>
-      <c r="K20" s="83"/>
-    </row>
-    <row r="21" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    </row>
+    <row r="21" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B21" s="96"/>
       <c r="C21" s="107" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D21" s="109" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="113">
+        <v>21</v>
+      </c>
+      <c r="E21" s="110">
         <v>0</v>
       </c>
       <c r="F21" s="107"/>
       <c r="G21" s="107"/>
-      <c r="I21" s="149" t="s">
-        <v>81</v>
+      <c r="I21" s="147" t="s">
+        <v>76</v>
       </c>
       <c r="J21" s="97"/>
     </row>
-    <row r="22" spans="2:11" ht="16" customHeight="1">
+    <row r="22" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B22" s="96"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="I22" s="83"/>
+      <c r="C22" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="110">
+        <v>0</v>
+      </c>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="I22" s="147" t="s">
+        <v>76</v>
+      </c>
       <c r="J22" s="97"/>
     </row>
-    <row r="23" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="23" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B23" s="96"/>
-      <c r="C23" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="I23" s="83"/>
+      <c r="C23" s="107" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="109" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="112">
+        <v>15000</v>
+      </c>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="I23" s="147" t="s">
+        <v>80</v>
+      </c>
       <c r="J23" s="97"/>
     </row>
-    <row r="24" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="24" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B24" s="96"/>
       <c r="C24" s="107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="109" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="110">
-        <v>500000000</v>
+        <v>36</v>
+      </c>
+      <c r="E24" s="106">
+        <v>5000</v>
       </c>
       <c r="F24" s="107"/>
       <c r="G24" s="107"/>
-      <c r="I24" s="149" t="s">
-        <v>85</v>
+      <c r="I24" s="147" t="s">
+        <v>80</v>
       </c>
       <c r="J24" s="97"/>
     </row>
-    <row r="25" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="25" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B25" s="96"/>
       <c r="C25" s="107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="109" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="110">
+        <v>36</v>
+      </c>
+      <c r="E25" s="113">
         <v>0</v>
       </c>
       <c r="F25" s="107"/>
       <c r="G25" s="107"/>
-      <c r="I25" s="149" t="s">
-        <v>81</v>
+      <c r="I25" s="147" t="s">
+        <v>76</v>
       </c>
       <c r="J25" s="97"/>
     </row>
-    <row r="26" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="26" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B26" s="96"/>
       <c r="C26" s="107" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D26" s="109" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="110">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E26" s="106">
+        <v>0.04</v>
       </c>
       <c r="F26" s="107"/>
       <c r="G26" s="107"/>
-      <c r="I26" s="149" t="s">
-        <v>81</v>
+      <c r="I26" s="150" t="s">
+        <v>88</v>
       </c>
       <c r="J26" s="97"/>
     </row>
-    <row r="27" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="27" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B27" s="96"/>
       <c r="C27" s="107" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D27" s="109" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E27" s="110">
         <v>0</v>
       </c>
       <c r="F27" s="107"/>
       <c r="G27" s="107"/>
-      <c r="I27" s="149" t="s">
-        <v>81</v>
+      <c r="I27" s="147" t="s">
+        <v>76</v>
       </c>
       <c r="J27" s="97"/>
     </row>
-    <row r="28" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="28" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B28" s="96"/>
       <c r="C28" s="107" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="D28" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="114">
-        <v>15000</v>
+        <v>94</v>
+      </c>
+      <c r="E28" s="110">
+        <v>4.4000000000000004</v>
       </c>
       <c r="F28" s="107"/>
       <c r="G28" s="107"/>
-      <c r="I28" s="149" t="s">
-        <v>85</v>
+      <c r="I28" s="147" t="s">
+        <v>76</v>
       </c>
       <c r="J28" s="97"/>
     </row>
-    <row r="29" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="29" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B29" s="96"/>
       <c r="C29" s="107" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="D29" s="109" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="106">
-        <v>5000</v>
+        <v>94</v>
+      </c>
+      <c r="E29" s="110">
+        <f>E28/E12</f>
+        <v>5.5</v>
       </c>
       <c r="F29" s="107"/>
       <c r="G29" s="107"/>
-      <c r="I29" s="149" t="s">
-        <v>85</v>
+      <c r="I29" s="147" t="s">
+        <v>76</v>
       </c>
       <c r="J29" s="97"/>
     </row>
-    <row r="30" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="30" spans="2:10" ht="16" customHeight="1">
       <c r="B30" s="96"/>
-      <c r="C30" s="107" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="109" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="115">
-        <v>0</v>
-      </c>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="I30" s="149" t="s">
-        <v>81</v>
-      </c>
+      <c r="C30" s="83"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="I30" s="83"/>
       <c r="J30" s="97"/>
     </row>
-    <row r="31" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="31" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B31" s="96"/>
-      <c r="C31" s="107" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="109" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="106">
-        <v>0.04</v>
-      </c>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="I31" s="152" t="s">
-        <v>93</v>
-      </c>
+      <c r="C31" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="99"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="I31" s="83"/>
       <c r="J31" s="97"/>
     </row>
-    <row r="32" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="32" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B32" s="96"/>
       <c r="C32" s="107" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D32" s="109" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E32" s="110">
         <v>0</v>
       </c>
       <c r="F32" s="107"/>
       <c r="G32" s="107"/>
-      <c r="I32" s="149" t="s">
-        <v>81</v>
+      <c r="I32" s="147" t="s">
+        <v>76</v>
       </c>
       <c r="J32" s="97"/>
     </row>
-    <row r="33" spans="2:10" ht="16" customHeight="1">
+    <row r="33" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B33" s="96"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="I33" s="83"/>
+      <c r="C33" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="112">
+        <v>5</v>
+      </c>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="I33" s="147" t="s">
+        <v>80</v>
+      </c>
       <c r="J33" s="97"/>
     </row>
     <row r="34" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B34" s="96"/>
-      <c r="C34" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="99"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="I34" s="83"/>
+      <c r="C34" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="110">
+        <v>75</v>
+      </c>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="I34" s="147" t="s">
+        <v>80</v>
+      </c>
       <c r="J34" s="97"/>
     </row>
     <row r="35" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B35" s="96"/>
       <c r="C35" s="107" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D35" s="109" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35" s="110">
         <v>0</v>
       </c>
       <c r="F35" s="107"/>
       <c r="G35" s="107"/>
-      <c r="I35" s="149" t="s">
-        <v>81</v>
+      <c r="I35" s="147" t="s">
+        <v>76</v>
       </c>
       <c r="J35" s="97"/>
     </row>
     <row r="36" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B36" s="96"/>
-      <c r="C36" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="109" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="114">
-        <v>5</v>
-      </c>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="I36" s="149" t="s">
-        <v>85</v>
-      </c>
-      <c r="J36" s="97"/>
-    </row>
-    <row r="37" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B37" s="96"/>
-      <c r="C37" s="107" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="109" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="110">
-        <v>75</v>
-      </c>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="I37" s="149" t="s">
-        <v>85</v>
-      </c>
-      <c r="J37" s="97"/>
-    </row>
-    <row r="38" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B38" s="96"/>
-      <c r="C38" s="107" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="109" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="110">
-        <v>0</v>
-      </c>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="I38" s="149" t="s">
-        <v>81</v>
-      </c>
-      <c r="J38" s="97"/>
-    </row>
-    <row r="39" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B39" s="102"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="104"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3141,21 +3079,21 @@
     <row r="3" spans="2:12" s="15" customFormat="1">
       <c r="B3" s="14"/>
       <c r="C3" s="67" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="67" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H3" s="67"/>
       <c r="I3" s="67"/>
       <c r="J3" s="35"/>
       <c r="K3" s="67" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L3" s="76"/>
     </row>
@@ -3175,7 +3113,7 @@
     <row r="5" spans="2:12" ht="17" thickBot="1">
       <c r="B5" s="42"/>
       <c r="C5" s="21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -3189,83 +3127,83 @@
     </row>
     <row r="6" spans="2:12" ht="17" thickBot="1">
       <c r="B6" s="42"/>
-      <c r="C6" s="134" t="s">
-        <v>75</v>
+      <c r="C6" s="132" t="s">
+        <v>70</v>
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="45"/>
-      <c r="F6" s="135" t="s">
-        <v>78</v>
+      <c r="F6" s="133" t="s">
+        <v>73</v>
       </c>
       <c r="G6" s="69"/>
       <c r="H6" s="46"/>
       <c r="I6" s="46"/>
       <c r="J6" s="44"/>
-      <c r="K6" s="139"/>
+      <c r="K6" s="137"/>
       <c r="L6" s="77"/>
     </row>
     <row r="7" spans="2:12" ht="17" thickBot="1">
       <c r="B7" s="42"/>
-      <c r="C7" s="134" t="s">
-        <v>77</v>
+      <c r="C7" s="132" t="s">
+        <v>72</v>
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="135" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="137"/>
+      <c r="F7" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="135"/>
       <c r="H7" s="46"/>
       <c r="I7" s="46"/>
       <c r="J7" s="44"/>
-      <c r="K7" s="139"/>
+      <c r="K7" s="137"/>
       <c r="L7" s="77"/>
     </row>
     <row r="8" spans="2:12" ht="17" thickBot="1">
       <c r="B8" s="42"/>
-      <c r="C8" s="134" t="s">
-        <v>79</v>
+      <c r="C8" s="132" t="s">
+        <v>74</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
-      <c r="F8" s="135" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="136"/>
+      <c r="F8" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="134"/>
       <c r="H8" s="46"/>
       <c r="I8" s="46"/>
       <c r="J8" s="44"/>
-      <c r="K8" s="139"/>
+      <c r="K8" s="137"/>
       <c r="L8" s="77"/>
     </row>
     <row r="9" spans="2:12" ht="17" thickBot="1">
       <c r="B9" s="42"/>
-      <c r="C9" s="134" t="s">
-        <v>76</v>
+      <c r="C9" s="132" t="s">
+        <v>71</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="45"/>
-      <c r="F9" s="135" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="138"/>
+      <c r="F9" s="133" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="136"/>
       <c r="H9" s="46"/>
       <c r="I9" s="46"/>
       <c r="J9" s="44"/>
-      <c r="K9" s="139"/>
+      <c r="K9" s="137"/>
       <c r="L9" s="77"/>
     </row>
     <row r="10" spans="2:12" ht="17" thickBot="1">
       <c r="B10" s="42"/>
-      <c r="C10" s="164" t="s">
-        <v>95</v>
+      <c r="C10" s="153" t="s">
+        <v>90</v>
       </c>
       <c r="D10" s="45"/>
       <c r="E10" s="45"/>
-      <c r="F10" s="135" t="s">
+      <c r="F10" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="140">
+      <c r="G10" s="138">
         <f>Notes!E6</f>
         <v>0.8</v>
       </c>
@@ -3290,7 +3228,7 @@
     <row r="12" spans="2:12" ht="17" thickBot="1">
       <c r="B12" s="42"/>
       <c r="C12" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -3304,13 +3242,13 @@
     </row>
     <row r="13" spans="2:12" ht="17" thickBot="1">
       <c r="B13" s="42"/>
-      <c r="C13" s="134" t="s">
-        <v>80</v>
+      <c r="C13" s="132" t="s">
+        <v>75</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="134" t="s">
-        <v>74</v>
+      <c r="F13" s="132" t="s">
+        <v>69</v>
       </c>
       <c r="G13" s="50"/>
       <c r="H13" s="10"/>
@@ -3379,7 +3317,7 @@
     <row r="3" spans="2:11">
       <c r="B3" s="27"/>
       <c r="C3" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -3405,69 +3343,69 @@
     <row r="5" spans="2:11">
       <c r="B5" s="32"/>
       <c r="C5" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="C7" s="150" t="s">
-        <v>89</v>
+      <c r="C7" s="148" t="s">
+        <v>84</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="150" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="148" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="130">
+        <v>2014</v>
+      </c>
+      <c r="I7" s="131">
+        <v>43319</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="C8" s="148" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="132">
-        <v>2014</v>
-      </c>
-      <c r="I7" s="133">
-        <v>43319</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="C8" s="150" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="150" t="s">
-        <v>87</v>
+      <c r="F8" s="148" t="s">
+        <v>82</v>
       </c>
       <c r="H8" s="22">
         <v>2015</v>
       </c>
-      <c r="I8" s="133">
+      <c r="I8" s="131">
         <v>43319</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3489,52 +3427,52 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="116" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="116" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="116" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="116" customWidth="1"/>
-    <col min="5" max="6" width="8.42578125" style="116" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="116"/>
-    <col min="8" max="8" width="10.7109375" style="117"/>
-    <col min="9" max="9" width="10.7109375" style="116"/>
-    <col min="10" max="10" width="35" style="116" customWidth="1"/>
-    <col min="11" max="11" width="63.28515625" style="116" customWidth="1"/>
-    <col min="12" max="16384" width="10.7109375" style="116"/>
+    <col min="1" max="1" width="3.42578125" style="114" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="114" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="114" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="114" customWidth="1"/>
+    <col min="5" max="6" width="8.42578125" style="114" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="114"/>
+    <col min="8" max="8" width="10.7109375" style="115"/>
+    <col min="9" max="9" width="10.7109375" style="114"/>
+    <col min="10" max="10" width="35" style="114" customWidth="1"/>
+    <col min="11" max="11" width="63.28515625" style="114" customWidth="1"/>
+    <col min="12" max="16384" width="10.7109375" style="114"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="17" thickBot="1"/>
     <row r="3" spans="2:11">
-      <c r="B3" s="118"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="121"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="119"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="122"/>
-      <c r="C4" s="123" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="123" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="123" t="s">
+      <c r="D4" s="121" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="123"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="125" t="s">
-        <v>73</v>
+      <c r="F4" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="121"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="123" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -3544,33 +3482,33 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="126"/>
+      <c r="H5" s="124"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="14"/>
-      <c r="C6" s="127" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="165" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="166">
+      <c r="C6" s="125" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="154" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="155">
         <v>0.8</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="165" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="126"/>
+      <c r="G6" s="154" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="124"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="22" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -3579,10 +3517,10 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="165" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="126"/>
+      <c r="G7" s="154" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="124"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="76"/>
@@ -3590,11 +3528,11 @@
     <row r="8" spans="2:11">
       <c r="B8" s="14"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="126"/>
+      <c r="H8" s="124"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="76"/>
@@ -3602,11 +3540,11 @@
     <row r="9" spans="2:11">
       <c r="B9" s="14"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="126"/>
+      <c r="H9" s="124"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="76"/>
@@ -3618,7 +3556,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="126"/>
+      <c r="H10" s="124"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="76"/>
@@ -3626,11 +3564,11 @@
     <row r="11" spans="2:11">
       <c r="B11" s="14"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="126"/>
+      <c r="H11" s="124"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="76"/>
@@ -3638,11 +3576,11 @@
     <row r="12" spans="2:11">
       <c r="B12" s="14"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="126"/>
+      <c r="H12" s="124"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="76"/>
@@ -3650,11 +3588,11 @@
     <row r="13" spans="2:11">
       <c r="B13" s="14"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="126"/>
+      <c r="H13" s="124"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="76"/>
@@ -3662,11 +3600,11 @@
     <row r="14" spans="2:11">
       <c r="B14" s="14"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="126"/>
+      <c r="H14" s="124"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="76"/>
@@ -3674,11 +3612,11 @@
     <row r="15" spans="2:11">
       <c r="B15" s="14"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="126"/>
+      <c r="H15" s="124"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="76"/>
@@ -3686,11 +3624,11 @@
     <row r="16" spans="2:11">
       <c r="B16" s="14"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="126"/>
+      <c r="H16" s="124"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="76"/>
@@ -3698,11 +3636,11 @@
     <row r="17" spans="2:11">
       <c r="B17" s="14"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="126"/>
+      <c r="H17" s="124"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="76"/>
@@ -3710,11 +3648,11 @@
     <row r="18" spans="2:11">
       <c r="B18" s="14"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="126"/>
+      <c r="H18" s="124"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="76"/>
@@ -3722,11 +3660,11 @@
     <row r="19" spans="2:11">
       <c r="B19" s="14"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="126"/>
+      <c r="H19" s="124"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="76"/>
@@ -3738,7 +3676,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="126"/>
+      <c r="H20" s="124"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="76"/>
@@ -3750,22 +3688,22 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="126"/>
+      <c r="H21" s="124"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="76"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="129"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="126"/>
+      <c r="H22" s="124"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="128"/>
+      <c r="K22" s="126"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="14"/>
@@ -3774,10 +3712,10 @@
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="126"/>
+      <c r="H23" s="124"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="148"/>
+      <c r="K23" s="146"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="14"/>
@@ -3786,7 +3724,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="126"/>
+      <c r="H24" s="124"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="76"/>
@@ -3798,7 +3736,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="126"/>
+      <c r="H25" s="124"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="76"/>
@@ -3810,7 +3748,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="126"/>
+      <c r="H26" s="124"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="76"/>
@@ -3822,7 +3760,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="126"/>
+      <c r="H27" s="124"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="76"/>
@@ -3834,7 +3772,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="126"/>
+      <c r="H28" s="124"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="76"/>
@@ -3846,7 +3784,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="126"/>
+      <c r="H29" s="124"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="76"/>
@@ -3858,7 +3796,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="126"/>
+      <c r="H30" s="124"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="76"/>
@@ -3870,7 +3808,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="126"/>
+      <c r="H31" s="124"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="76"/>
@@ -3878,11 +3816,11 @@
     <row r="32" spans="2:11">
       <c r="B32" s="14"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="125"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="126"/>
+      <c r="H32" s="124"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="76"/>
@@ -3894,7 +3832,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="126"/>
+      <c r="H33" s="124"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="76"/>
@@ -3906,7 +3844,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
-      <c r="H34" s="126"/>
+      <c r="H34" s="124"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="76"/>
@@ -3918,7 +3856,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="126"/>
+      <c r="H35" s="124"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="76"/>
@@ -3930,7 +3868,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="126"/>
+      <c r="H36" s="124"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="76"/>
@@ -3942,7 +3880,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="126"/>
+      <c r="H37" s="124"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="76"/>
@@ -3950,11 +3888,11 @@
     <row r="38" spans="2:11">
       <c r="B38" s="14"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="127"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="126"/>
+      <c r="H38" s="124"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
       <c r="K38" s="76"/>
@@ -3962,10 +3900,10 @@
     <row r="39" spans="2:11">
       <c r="B39" s="14"/>
       <c r="C39" s="12"/>
-      <c r="D39" s="144"/>
+      <c r="D39" s="142"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="126"/>
+      <c r="H39" s="124"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="76"/>
@@ -3973,11 +3911,11 @@
     <row r="40" spans="2:11">
       <c r="B40" s="14"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="127"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="125"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="126"/>
+      <c r="H40" s="124"/>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
       <c r="K40" s="76"/>
@@ -3985,11 +3923,11 @@
     <row r="41" spans="2:11">
       <c r="B41" s="14"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="144"/>
+      <c r="D41" s="142"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="126"/>
+      <c r="H41" s="124"/>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="76"/>
@@ -4001,7 +3939,7 @@
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="126"/>
+      <c r="H42" s="124"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
       <c r="K42" s="76"/>
@@ -4013,7 +3951,7 @@
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="126"/>
+      <c r="H43" s="124"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
       <c r="K43" s="76"/>
@@ -4025,7 +3963,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="126"/>
+      <c r="H44" s="124"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
       <c r="K44" s="76"/>
@@ -4037,7 +3975,7 @@
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
-      <c r="H45" s="126"/>
+      <c r="H45" s="124"/>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
       <c r="K45" s="76"/>
@@ -4049,7 +3987,7 @@
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
-      <c r="H46" s="126"/>
+      <c r="H46" s="124"/>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
       <c r="K46" s="76"/>
@@ -4061,7 +3999,7 @@
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
-      <c r="H47" s="126"/>
+      <c r="H47" s="124"/>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
       <c r="K47" s="76"/>
@@ -4073,7 +4011,7 @@
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
-      <c r="H48" s="126"/>
+      <c r="H48" s="124"/>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
       <c r="K48" s="76"/>
@@ -4081,11 +4019,11 @@
     <row r="49" spans="2:11">
       <c r="B49" s="14"/>
       <c r="C49" s="12"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="130"/>
-      <c r="F49" s="127"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="125"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="126"/>
+      <c r="H49" s="124"/>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="76"/>
@@ -4097,1368 +4035,1368 @@
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
-      <c r="H50" s="126"/>
+      <c r="H50" s="124"/>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
       <c r="K50" s="76"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="129"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="127"/>
-      <c r="E51" s="127"/>
-      <c r="F51" s="127"/>
-      <c r="G51" s="127"/>
-      <c r="H51" s="130"/>
-      <c r="I51" s="127"/>
-      <c r="J51" s="127"/>
-      <c r="K51" s="128"/>
+      <c r="B51" s="127"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="125"/>
+      <c r="G51" s="125"/>
+      <c r="H51" s="128"/>
+      <c r="I51" s="125"/>
+      <c r="J51" s="125"/>
+      <c r="K51" s="126"/>
     </row>
     <row r="52" spans="2:11">
-      <c r="B52" s="129"/>
-      <c r="G52" s="127"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="127"/>
-      <c r="J52" s="127"/>
-      <c r="K52" s="128"/>
+      <c r="B52" s="127"/>
+      <c r="G52" s="125"/>
+      <c r="H52" s="128"/>
+      <c r="I52" s="125"/>
+      <c r="J52" s="125"/>
+      <c r="K52" s="126"/>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="129"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="127"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="127"/>
-      <c r="G53" s="127"/>
-      <c r="H53" s="130"/>
-      <c r="I53" s="127"/>
-      <c r="J53" s="127"/>
-      <c r="K53" s="128"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="125"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="125"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="128"/>
+      <c r="I53" s="125"/>
+      <c r="J53" s="125"/>
+      <c r="K53" s="126"/>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="129"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="127"/>
-      <c r="E54" s="127"/>
-      <c r="F54" s="127"/>
-      <c r="G54" s="127"/>
-      <c r="H54" s="130"/>
-      <c r="I54" s="127"/>
-      <c r="J54" s="127"/>
-      <c r="K54" s="128"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="125"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="128"/>
+      <c r="I54" s="125"/>
+      <c r="J54" s="125"/>
+      <c r="K54" s="126"/>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="129"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="127"/>
-      <c r="E55" s="131"/>
-      <c r="F55" s="131"/>
-      <c r="G55" s="127"/>
-      <c r="H55" s="130"/>
-      <c r="I55" s="127"/>
-      <c r="J55" s="127"/>
-      <c r="K55" s="128"/>
+      <c r="B55" s="127"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="129"/>
+      <c r="F55" s="129"/>
+      <c r="G55" s="125"/>
+      <c r="H55" s="128"/>
+      <c r="I55" s="125"/>
+      <c r="J55" s="125"/>
+      <c r="K55" s="126"/>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="129"/>
-      <c r="C56" s="127"/>
-      <c r="G56" s="127"/>
-      <c r="H56" s="130"/>
-      <c r="I56" s="127"/>
-      <c r="J56" s="127"/>
-      <c r="K56" s="128"/>
+      <c r="B56" s="127"/>
+      <c r="C56" s="125"/>
+      <c r="G56" s="125"/>
+      <c r="H56" s="128"/>
+      <c r="I56" s="125"/>
+      <c r="J56" s="125"/>
+      <c r="K56" s="126"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="129"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="127"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="127"/>
-      <c r="G57" s="127"/>
-      <c r="H57" s="130"/>
-      <c r="I57" s="127"/>
-      <c r="J57" s="127"/>
-      <c r="K57" s="128"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="125"/>
+      <c r="E57" s="125"/>
+      <c r="F57" s="125"/>
+      <c r="G57" s="125"/>
+      <c r="H57" s="128"/>
+      <c r="I57" s="125"/>
+      <c r="J57" s="125"/>
+      <c r="K57" s="126"/>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="129"/>
-      <c r="C58" s="127"/>
-      <c r="G58" s="127"/>
-      <c r="H58" s="130"/>
-      <c r="I58" s="127"/>
-      <c r="J58" s="127"/>
-      <c r="K58" s="128"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="125"/>
+      <c r="G58" s="125"/>
+      <c r="H58" s="128"/>
+      <c r="I58" s="125"/>
+      <c r="J58" s="125"/>
+      <c r="K58" s="126"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="129"/>
-      <c r="C59" s="127"/>
-      <c r="D59" s="127"/>
-      <c r="E59" s="127"/>
-      <c r="F59" s="127"/>
-      <c r="G59" s="127"/>
-      <c r="H59" s="130"/>
-      <c r="I59" s="127"/>
-      <c r="J59" s="127"/>
-      <c r="K59" s="128"/>
+      <c r="B59" s="127"/>
+      <c r="C59" s="125"/>
+      <c r="D59" s="125"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="125"/>
+      <c r="G59" s="125"/>
+      <c r="H59" s="128"/>
+      <c r="I59" s="125"/>
+      <c r="J59" s="125"/>
+      <c r="K59" s="126"/>
     </row>
     <row r="60" spans="2:11">
-      <c r="B60" s="129"/>
-      <c r="C60" s="127"/>
-      <c r="D60" s="127"/>
-      <c r="E60" s="127"/>
-      <c r="F60" s="127"/>
-      <c r="G60" s="127"/>
-      <c r="H60" s="130"/>
-      <c r="I60" s="127"/>
-      <c r="J60" s="127"/>
-      <c r="K60" s="128"/>
+      <c r="B60" s="127"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="125"/>
+      <c r="E60" s="125"/>
+      <c r="F60" s="125"/>
+      <c r="G60" s="125"/>
+      <c r="H60" s="128"/>
+      <c r="I60" s="125"/>
+      <c r="J60" s="125"/>
+      <c r="K60" s="126"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="129"/>
-      <c r="C61" s="127"/>
-      <c r="D61" s="127"/>
-      <c r="E61" s="127"/>
-      <c r="F61" s="127"/>
-      <c r="G61" s="127"/>
-      <c r="H61" s="130"/>
-      <c r="I61" s="127"/>
-      <c r="J61" s="127"/>
-      <c r="K61" s="128"/>
+      <c r="B61" s="127"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="125"/>
+      <c r="E61" s="125"/>
+      <c r="F61" s="125"/>
+      <c r="G61" s="125"/>
+      <c r="H61" s="128"/>
+      <c r="I61" s="125"/>
+      <c r="J61" s="125"/>
+      <c r="K61" s="126"/>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="129"/>
-      <c r="C62" s="127"/>
-      <c r="D62" s="127"/>
-      <c r="E62" s="127"/>
-      <c r="F62" s="127"/>
-      <c r="G62" s="127"/>
-      <c r="H62" s="130"/>
-      <c r="I62" s="127"/>
-      <c r="J62" s="127"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="125"/>
+      <c r="E62" s="125"/>
+      <c r="F62" s="125"/>
+      <c r="G62" s="125"/>
+      <c r="H62" s="128"/>
+      <c r="I62" s="125"/>
+      <c r="J62" s="125"/>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="129"/>
-      <c r="C63" s="127"/>
-      <c r="D63" s="127"/>
-      <c r="E63" s="127"/>
-      <c r="F63" s="127"/>
-      <c r="G63" s="127"/>
-      <c r="H63" s="130"/>
-      <c r="I63" s="127"/>
-      <c r="J63" s="127"/>
-      <c r="K63" s="128"/>
+      <c r="B63" s="127"/>
+      <c r="C63" s="125"/>
+      <c r="D63" s="125"/>
+      <c r="E63" s="125"/>
+      <c r="F63" s="125"/>
+      <c r="G63" s="125"/>
+      <c r="H63" s="128"/>
+      <c r="I63" s="125"/>
+      <c r="J63" s="125"/>
+      <c r="K63" s="126"/>
     </row>
     <row r="64" spans="2:11">
-      <c r="B64" s="129"/>
-      <c r="C64" s="127"/>
-      <c r="D64" s="127"/>
-      <c r="E64" s="127"/>
-      <c r="F64" s="127"/>
-      <c r="G64" s="127"/>
-      <c r="H64" s="130"/>
-      <c r="I64" s="127"/>
-      <c r="J64" s="127"/>
-      <c r="K64" s="128"/>
+      <c r="B64" s="127"/>
+      <c r="C64" s="125"/>
+      <c r="D64" s="125"/>
+      <c r="E64" s="125"/>
+      <c r="F64" s="125"/>
+      <c r="G64" s="125"/>
+      <c r="H64" s="128"/>
+      <c r="I64" s="125"/>
+      <c r="J64" s="125"/>
+      <c r="K64" s="126"/>
     </row>
     <row r="65" spans="2:11">
-      <c r="B65" s="129"/>
-      <c r="C65" s="127"/>
-      <c r="D65" s="127"/>
-      <c r="E65" s="127"/>
-      <c r="F65" s="127"/>
-      <c r="G65" s="127"/>
-      <c r="H65" s="130"/>
-      <c r="I65" s="127"/>
-      <c r="J65" s="127"/>
-      <c r="K65" s="128"/>
+      <c r="B65" s="127"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="125"/>
+      <c r="E65" s="125"/>
+      <c r="F65" s="125"/>
+      <c r="G65" s="125"/>
+      <c r="H65" s="128"/>
+      <c r="I65" s="125"/>
+      <c r="J65" s="125"/>
+      <c r="K65" s="126"/>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="129"/>
-      <c r="C66" s="127"/>
-      <c r="D66" s="147"/>
-      <c r="E66" s="127"/>
-      <c r="F66" s="127"/>
-      <c r="G66" s="127"/>
-      <c r="H66" s="130"/>
-      <c r="I66" s="127"/>
-      <c r="J66" s="127"/>
-      <c r="K66" s="128"/>
+      <c r="B66" s="127"/>
+      <c r="C66" s="125"/>
+      <c r="D66" s="145"/>
+      <c r="E66" s="125"/>
+      <c r="F66" s="125"/>
+      <c r="G66" s="125"/>
+      <c r="H66" s="128"/>
+      <c r="I66" s="125"/>
+      <c r="J66" s="125"/>
+      <c r="K66" s="126"/>
     </row>
     <row r="67" spans="2:11">
-      <c r="B67" s="129"/>
-      <c r="C67" s="127"/>
-      <c r="D67" s="147"/>
-      <c r="E67" s="127"/>
-      <c r="F67" s="127"/>
-      <c r="G67" s="127"/>
-      <c r="H67" s="130"/>
-      <c r="I67" s="127"/>
-      <c r="J67" s="127"/>
-      <c r="K67" s="128"/>
+      <c r="B67" s="127"/>
+      <c r="C67" s="125"/>
+      <c r="D67" s="145"/>
+      <c r="E67" s="125"/>
+      <c r="F67" s="125"/>
+      <c r="G67" s="125"/>
+      <c r="H67" s="128"/>
+      <c r="I67" s="125"/>
+      <c r="J67" s="125"/>
+      <c r="K67" s="126"/>
     </row>
     <row r="68" spans="2:11">
-      <c r="B68" s="129"/>
-      <c r="C68" s="127"/>
-      <c r="D68" s="147"/>
-      <c r="E68" s="127"/>
-      <c r="F68" s="147"/>
-      <c r="G68" s="127"/>
-      <c r="H68" s="130"/>
-      <c r="I68" s="127"/>
-      <c r="J68" s="127"/>
-      <c r="K68" s="128"/>
+      <c r="B68" s="127"/>
+      <c r="C68" s="125"/>
+      <c r="D68" s="145"/>
+      <c r="E68" s="125"/>
+      <c r="F68" s="145"/>
+      <c r="G68" s="125"/>
+      <c r="H68" s="128"/>
+      <c r="I68" s="125"/>
+      <c r="J68" s="125"/>
+      <c r="K68" s="126"/>
     </row>
     <row r="69" spans="2:11">
-      <c r="B69" s="129"/>
-      <c r="C69" s="127"/>
-      <c r="G69" s="127"/>
-      <c r="H69" s="130"/>
-      <c r="I69" s="127"/>
-      <c r="J69" s="127"/>
-      <c r="K69" s="128"/>
+      <c r="B69" s="127"/>
+      <c r="C69" s="125"/>
+      <c r="G69" s="125"/>
+      <c r="H69" s="128"/>
+      <c r="I69" s="125"/>
+      <c r="J69" s="125"/>
+      <c r="K69" s="126"/>
     </row>
     <row r="70" spans="2:11">
-      <c r="B70" s="129"/>
-      <c r="C70" s="127"/>
-      <c r="G70" s="127"/>
-      <c r="H70" s="130"/>
-      <c r="I70" s="127"/>
-      <c r="J70" s="127"/>
-      <c r="K70" s="128"/>
+      <c r="B70" s="127"/>
+      <c r="C70" s="125"/>
+      <c r="G70" s="125"/>
+      <c r="H70" s="128"/>
+      <c r="I70" s="125"/>
+      <c r="J70" s="125"/>
+      <c r="K70" s="126"/>
     </row>
     <row r="71" spans="2:11">
-      <c r="B71" s="129"/>
-      <c r="C71" s="127"/>
-      <c r="G71" s="127"/>
-      <c r="H71" s="130"/>
-      <c r="I71" s="127"/>
-      <c r="J71" s="127"/>
-      <c r="K71" s="128"/>
+      <c r="B71" s="127"/>
+      <c r="C71" s="125"/>
+      <c r="G71" s="125"/>
+      <c r="H71" s="128"/>
+      <c r="I71" s="125"/>
+      <c r="J71" s="125"/>
+      <c r="K71" s="126"/>
     </row>
     <row r="72" spans="2:11">
-      <c r="B72" s="129"/>
-      <c r="C72" s="127"/>
-      <c r="G72" s="127"/>
-      <c r="H72" s="130"/>
-      <c r="I72" s="127"/>
-      <c r="J72" s="127"/>
-      <c r="K72" s="128"/>
+      <c r="B72" s="127"/>
+      <c r="C72" s="125"/>
+      <c r="G72" s="125"/>
+      <c r="H72" s="128"/>
+      <c r="I72" s="125"/>
+      <c r="J72" s="125"/>
+      <c r="K72" s="126"/>
     </row>
     <row r="73" spans="2:11">
-      <c r="B73" s="129"/>
-      <c r="C73" s="127"/>
-      <c r="G73" s="127"/>
-      <c r="H73" s="130"/>
-      <c r="I73" s="127"/>
-      <c r="J73" s="127"/>
-      <c r="K73" s="144"/>
+      <c r="B73" s="127"/>
+      <c r="C73" s="125"/>
+      <c r="G73" s="125"/>
+      <c r="H73" s="128"/>
+      <c r="I73" s="125"/>
+      <c r="J73" s="125"/>
+      <c r="K73" s="142"/>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="129"/>
-      <c r="C74" s="127"/>
-      <c r="D74" s="127"/>
-      <c r="E74" s="127"/>
-      <c r="F74" s="127"/>
-      <c r="G74" s="127"/>
-      <c r="H74" s="130"/>
-      <c r="I74" s="127"/>
-      <c r="J74" s="127"/>
-      <c r="K74" s="128"/>
+      <c r="B74" s="127"/>
+      <c r="C74" s="125"/>
+      <c r="D74" s="125"/>
+      <c r="E74" s="125"/>
+      <c r="F74" s="125"/>
+      <c r="G74" s="125"/>
+      <c r="H74" s="128"/>
+      <c r="I74" s="125"/>
+      <c r="J74" s="125"/>
+      <c r="K74" s="126"/>
     </row>
     <row r="75" spans="2:11">
-      <c r="B75" s="129"/>
-      <c r="C75" s="127"/>
-      <c r="D75" s="127"/>
-      <c r="E75" s="127"/>
-      <c r="F75" s="127"/>
-      <c r="G75" s="127"/>
-      <c r="H75" s="130"/>
-      <c r="I75" s="127"/>
-      <c r="J75" s="127"/>
-      <c r="K75" s="128"/>
+      <c r="B75" s="127"/>
+      <c r="C75" s="125"/>
+      <c r="D75" s="125"/>
+      <c r="E75" s="125"/>
+      <c r="F75" s="125"/>
+      <c r="G75" s="125"/>
+      <c r="H75" s="128"/>
+      <c r="I75" s="125"/>
+      <c r="J75" s="125"/>
+      <c r="K75" s="126"/>
     </row>
     <row r="76" spans="2:11">
-      <c r="B76" s="129"/>
-      <c r="C76" s="127"/>
-      <c r="D76" s="127"/>
-      <c r="E76" s="127"/>
-      <c r="F76" s="127"/>
-      <c r="G76" s="127"/>
-      <c r="H76" s="130"/>
-      <c r="I76" s="127"/>
-      <c r="J76" s="127"/>
-      <c r="K76" s="128"/>
+      <c r="B76" s="127"/>
+      <c r="C76" s="125"/>
+      <c r="D76" s="125"/>
+      <c r="E76" s="125"/>
+      <c r="F76" s="125"/>
+      <c r="G76" s="125"/>
+      <c r="H76" s="128"/>
+      <c r="I76" s="125"/>
+      <c r="J76" s="125"/>
+      <c r="K76" s="126"/>
     </row>
     <row r="77" spans="2:11">
-      <c r="B77" s="129"/>
-      <c r="C77" s="127"/>
-      <c r="D77" s="127"/>
-      <c r="E77" s="127"/>
-      <c r="F77" s="127"/>
-      <c r="G77" s="127"/>
-      <c r="H77" s="130"/>
-      <c r="I77" s="127"/>
-      <c r="J77" s="127"/>
-      <c r="K77" s="128"/>
+      <c r="B77" s="127"/>
+      <c r="C77" s="125"/>
+      <c r="D77" s="125"/>
+      <c r="E77" s="125"/>
+      <c r="F77" s="125"/>
+      <c r="G77" s="125"/>
+      <c r="H77" s="128"/>
+      <c r="I77" s="125"/>
+      <c r="J77" s="125"/>
+      <c r="K77" s="126"/>
     </row>
     <row r="78" spans="2:11">
-      <c r="B78" s="129"/>
-      <c r="C78" s="127"/>
-      <c r="G78" s="127"/>
-      <c r="H78" s="130"/>
-      <c r="I78" s="127"/>
-      <c r="J78" s="127"/>
-      <c r="K78" s="128"/>
+      <c r="B78" s="127"/>
+      <c r="C78" s="125"/>
+      <c r="G78" s="125"/>
+      <c r="H78" s="128"/>
+      <c r="I78" s="125"/>
+      <c r="J78" s="125"/>
+      <c r="K78" s="126"/>
     </row>
     <row r="79" spans="2:11">
-      <c r="B79" s="129"/>
-      <c r="C79" s="127"/>
-      <c r="G79" s="127"/>
-      <c r="H79" s="130"/>
-      <c r="I79" s="127"/>
-      <c r="J79" s="127"/>
-      <c r="K79" s="128"/>
+      <c r="B79" s="127"/>
+      <c r="C79" s="125"/>
+      <c r="G79" s="125"/>
+      <c r="H79" s="128"/>
+      <c r="I79" s="125"/>
+      <c r="J79" s="125"/>
+      <c r="K79" s="126"/>
     </row>
     <row r="80" spans="2:11">
-      <c r="B80" s="129"/>
-      <c r="C80" s="127"/>
-      <c r="D80" s="146"/>
-      <c r="G80" s="127"/>
-      <c r="H80" s="130"/>
-      <c r="I80" s="127"/>
-      <c r="J80" s="127"/>
-      <c r="K80" s="128"/>
+      <c r="B80" s="127"/>
+      <c r="C80" s="125"/>
+      <c r="D80" s="144"/>
+      <c r="G80" s="125"/>
+      <c r="H80" s="128"/>
+      <c r="I80" s="125"/>
+      <c r="J80" s="125"/>
+      <c r="K80" s="126"/>
     </row>
     <row r="81" spans="2:11">
-      <c r="B81" s="129"/>
-      <c r="C81" s="127"/>
-      <c r="D81" s="127"/>
-      <c r="E81" s="127"/>
-      <c r="F81" s="143"/>
-      <c r="G81" s="127"/>
-      <c r="H81" s="130"/>
-      <c r="I81" s="127"/>
-      <c r="J81" s="127"/>
-      <c r="K81" s="128"/>
+      <c r="B81" s="127"/>
+      <c r="C81" s="125"/>
+      <c r="D81" s="125"/>
+      <c r="E81" s="125"/>
+      <c r="F81" s="141"/>
+      <c r="G81" s="125"/>
+      <c r="H81" s="128"/>
+      <c r="I81" s="125"/>
+      <c r="J81" s="125"/>
+      <c r="K81" s="126"/>
     </row>
     <row r="82" spans="2:11">
-      <c r="B82" s="129"/>
-      <c r="C82" s="127"/>
-      <c r="D82" s="127"/>
-      <c r="E82" s="127"/>
-      <c r="F82" s="143"/>
-      <c r="G82" s="127"/>
-      <c r="H82" s="130"/>
-      <c r="I82" s="127"/>
-      <c r="J82" s="127"/>
-      <c r="K82" s="128"/>
+      <c r="B82" s="127"/>
+      <c r="C82" s="125"/>
+      <c r="D82" s="125"/>
+      <c r="E82" s="125"/>
+      <c r="F82" s="141"/>
+      <c r="G82" s="125"/>
+      <c r="H82" s="128"/>
+      <c r="I82" s="125"/>
+      <c r="J82" s="125"/>
+      <c r="K82" s="126"/>
     </row>
     <row r="83" spans="2:11">
-      <c r="B83" s="129"/>
-      <c r="C83" s="127"/>
-      <c r="D83" s="127"/>
-      <c r="E83" s="127"/>
-      <c r="F83" s="127"/>
-      <c r="G83" s="127"/>
-      <c r="H83" s="130"/>
-      <c r="I83" s="127"/>
-      <c r="J83" s="127"/>
-      <c r="K83" s="128"/>
+      <c r="B83" s="127"/>
+      <c r="C83" s="125"/>
+      <c r="D83" s="125"/>
+      <c r="E83" s="125"/>
+      <c r="F83" s="125"/>
+      <c r="G83" s="125"/>
+      <c r="H83" s="128"/>
+      <c r="I83" s="125"/>
+      <c r="J83" s="125"/>
+      <c r="K83" s="126"/>
     </row>
     <row r="84" spans="2:11">
-      <c r="B84" s="129"/>
-      <c r="C84" s="127"/>
-      <c r="D84" s="127"/>
-      <c r="E84" s="127"/>
-      <c r="F84" s="127"/>
-      <c r="G84" s="127"/>
-      <c r="H84" s="130"/>
-      <c r="I84" s="127"/>
-      <c r="J84" s="127"/>
-      <c r="K84" s="128"/>
+      <c r="B84" s="127"/>
+      <c r="C84" s="125"/>
+      <c r="D84" s="125"/>
+      <c r="E84" s="125"/>
+      <c r="F84" s="125"/>
+      <c r="G84" s="125"/>
+      <c r="H84" s="128"/>
+      <c r="I84" s="125"/>
+      <c r="J84" s="125"/>
+      <c r="K84" s="126"/>
     </row>
     <row r="85" spans="2:11">
-      <c r="B85" s="129"/>
-      <c r="C85" s="127"/>
-      <c r="D85" s="127"/>
-      <c r="E85" s="127"/>
-      <c r="F85" s="127"/>
-      <c r="G85" s="127"/>
-      <c r="H85" s="130"/>
-      <c r="I85" s="127"/>
-      <c r="J85" s="127"/>
-      <c r="K85" s="128"/>
+      <c r="B85" s="127"/>
+      <c r="C85" s="125"/>
+      <c r="D85" s="125"/>
+      <c r="E85" s="125"/>
+      <c r="F85" s="125"/>
+      <c r="G85" s="125"/>
+      <c r="H85" s="128"/>
+      <c r="I85" s="125"/>
+      <c r="J85" s="125"/>
+      <c r="K85" s="126"/>
     </row>
     <row r="86" spans="2:11">
-      <c r="B86" s="129"/>
-      <c r="C86" s="127"/>
-      <c r="D86" s="127"/>
-      <c r="E86" s="127"/>
-      <c r="F86" s="127"/>
-      <c r="G86" s="127"/>
-      <c r="H86" s="130"/>
-      <c r="I86" s="127"/>
-      <c r="J86" s="127"/>
-      <c r="K86" s="128"/>
+      <c r="B86" s="127"/>
+      <c r="C86" s="125"/>
+      <c r="D86" s="125"/>
+      <c r="E86" s="125"/>
+      <c r="F86" s="125"/>
+      <c r="G86" s="125"/>
+      <c r="H86" s="128"/>
+      <c r="I86" s="125"/>
+      <c r="J86" s="125"/>
+      <c r="K86" s="126"/>
     </row>
     <row r="87" spans="2:11">
-      <c r="B87" s="129"/>
-      <c r="C87" s="127"/>
-      <c r="D87" s="127"/>
-      <c r="E87" s="127"/>
-      <c r="F87" s="127"/>
-      <c r="G87" s="127"/>
-      <c r="H87" s="130"/>
-      <c r="I87" s="127"/>
-      <c r="J87" s="127"/>
-      <c r="K87" s="128"/>
+      <c r="B87" s="127"/>
+      <c r="C87" s="125"/>
+      <c r="D87" s="125"/>
+      <c r="E87" s="125"/>
+      <c r="F87" s="125"/>
+      <c r="G87" s="125"/>
+      <c r="H87" s="128"/>
+      <c r="I87" s="125"/>
+      <c r="J87" s="125"/>
+      <c r="K87" s="126"/>
     </row>
     <row r="88" spans="2:11">
-      <c r="B88" s="129"/>
-      <c r="C88" s="127"/>
-      <c r="D88" s="127"/>
-      <c r="E88" s="127"/>
-      <c r="F88" s="127"/>
-      <c r="G88" s="127"/>
-      <c r="H88" s="130"/>
-      <c r="I88" s="127"/>
-      <c r="J88" s="127"/>
-      <c r="K88" s="128"/>
+      <c r="B88" s="127"/>
+      <c r="C88" s="125"/>
+      <c r="D88" s="125"/>
+      <c r="E88" s="125"/>
+      <c r="F88" s="125"/>
+      <c r="G88" s="125"/>
+      <c r="H88" s="128"/>
+      <c r="I88" s="125"/>
+      <c r="J88" s="125"/>
+      <c r="K88" s="126"/>
     </row>
     <row r="89" spans="2:11">
-      <c r="B89" s="129"/>
-      <c r="C89" s="127"/>
-      <c r="D89" s="127"/>
-      <c r="E89" s="127"/>
-      <c r="F89" s="127"/>
-      <c r="G89" s="127"/>
-      <c r="H89" s="130"/>
-      <c r="I89" s="127"/>
-      <c r="J89" s="127"/>
-      <c r="K89" s="128"/>
+      <c r="B89" s="127"/>
+      <c r="C89" s="125"/>
+      <c r="D89" s="125"/>
+      <c r="E89" s="125"/>
+      <c r="F89" s="125"/>
+      <c r="G89" s="125"/>
+      <c r="H89" s="128"/>
+      <c r="I89" s="125"/>
+      <c r="J89" s="125"/>
+      <c r="K89" s="126"/>
     </row>
     <row r="90" spans="2:11">
-      <c r="B90" s="129"/>
-      <c r="C90" s="127"/>
-      <c r="D90" s="127"/>
-      <c r="E90" s="127"/>
-      <c r="F90" s="127"/>
-      <c r="G90" s="127"/>
-      <c r="H90" s="130"/>
-      <c r="I90" s="127"/>
-      <c r="J90" s="127"/>
-      <c r="K90" s="128"/>
+      <c r="B90" s="127"/>
+      <c r="C90" s="125"/>
+      <c r="D90" s="125"/>
+      <c r="E90" s="125"/>
+      <c r="F90" s="125"/>
+      <c r="G90" s="125"/>
+      <c r="H90" s="128"/>
+      <c r="I90" s="125"/>
+      <c r="J90" s="125"/>
+      <c r="K90" s="126"/>
     </row>
     <row r="91" spans="2:11">
-      <c r="B91" s="129"/>
-      <c r="C91" s="127"/>
-      <c r="D91" s="127"/>
-      <c r="E91" s="127"/>
-      <c r="F91" s="127"/>
-      <c r="G91" s="127"/>
-      <c r="H91" s="130"/>
-      <c r="I91" s="127"/>
-      <c r="J91" s="127"/>
-      <c r="K91" s="128"/>
+      <c r="B91" s="127"/>
+      <c r="C91" s="125"/>
+      <c r="D91" s="125"/>
+      <c r="E91" s="125"/>
+      <c r="F91" s="125"/>
+      <c r="G91" s="125"/>
+      <c r="H91" s="128"/>
+      <c r="I91" s="125"/>
+      <c r="J91" s="125"/>
+      <c r="K91" s="126"/>
     </row>
     <row r="92" spans="2:11">
-      <c r="B92" s="129"/>
-      <c r="C92" s="127"/>
-      <c r="D92" s="127"/>
-      <c r="E92" s="127"/>
-      <c r="F92" s="127"/>
-      <c r="G92" s="127"/>
-      <c r="H92" s="130"/>
-      <c r="I92" s="127"/>
-      <c r="J92" s="127"/>
-      <c r="K92" s="128"/>
+      <c r="B92" s="127"/>
+      <c r="C92" s="125"/>
+      <c r="D92" s="125"/>
+      <c r="E92" s="125"/>
+      <c r="F92" s="125"/>
+      <c r="G92" s="125"/>
+      <c r="H92" s="128"/>
+      <c r="I92" s="125"/>
+      <c r="J92" s="125"/>
+      <c r="K92" s="126"/>
     </row>
     <row r="93" spans="2:11">
-      <c r="B93" s="129"/>
-      <c r="C93" s="127"/>
-      <c r="D93" s="127"/>
-      <c r="E93" s="127"/>
-      <c r="F93" s="127"/>
-      <c r="G93" s="127"/>
-      <c r="H93" s="130"/>
-      <c r="I93" s="127"/>
-      <c r="J93" s="127"/>
-      <c r="K93" s="128"/>
+      <c r="B93" s="127"/>
+      <c r="C93" s="125"/>
+      <c r="D93" s="125"/>
+      <c r="E93" s="125"/>
+      <c r="F93" s="125"/>
+      <c r="G93" s="125"/>
+      <c r="H93" s="128"/>
+      <c r="I93" s="125"/>
+      <c r="J93" s="125"/>
+      <c r="K93" s="126"/>
     </row>
     <row r="94" spans="2:11">
-      <c r="B94" s="129"/>
-      <c r="C94" s="127"/>
-      <c r="D94" s="127"/>
-      <c r="E94" s="127"/>
-      <c r="F94" s="127"/>
-      <c r="G94" s="127"/>
-      <c r="H94" s="130"/>
-      <c r="I94" s="127"/>
-      <c r="J94" s="127"/>
-      <c r="K94" s="128"/>
+      <c r="B94" s="127"/>
+      <c r="C94" s="125"/>
+      <c r="D94" s="125"/>
+      <c r="E94" s="125"/>
+      <c r="F94" s="125"/>
+      <c r="G94" s="125"/>
+      <c r="H94" s="128"/>
+      <c r="I94" s="125"/>
+      <c r="J94" s="125"/>
+      <c r="K94" s="126"/>
     </row>
     <row r="95" spans="2:11">
-      <c r="B95" s="129"/>
-      <c r="C95" s="127"/>
-      <c r="D95" s="127"/>
-      <c r="E95" s="127"/>
-      <c r="F95" s="127"/>
-      <c r="G95" s="127"/>
-      <c r="H95" s="130"/>
-      <c r="I95" s="127"/>
-      <c r="J95" s="127"/>
-      <c r="K95" s="128"/>
+      <c r="B95" s="127"/>
+      <c r="C95" s="125"/>
+      <c r="D95" s="125"/>
+      <c r="E95" s="125"/>
+      <c r="F95" s="125"/>
+      <c r="G95" s="125"/>
+      <c r="H95" s="128"/>
+      <c r="I95" s="125"/>
+      <c r="J95" s="125"/>
+      <c r="K95" s="126"/>
     </row>
     <row r="96" spans="2:11">
-      <c r="B96" s="129"/>
-      <c r="C96" s="127"/>
-      <c r="D96" s="127"/>
-      <c r="E96" s="127"/>
-      <c r="F96" s="127"/>
-      <c r="G96" s="127"/>
-      <c r="H96" s="130"/>
-      <c r="I96" s="127"/>
-      <c r="J96" s="127"/>
-      <c r="K96" s="128"/>
+      <c r="B96" s="127"/>
+      <c r="C96" s="125"/>
+      <c r="D96" s="125"/>
+      <c r="E96" s="125"/>
+      <c r="F96" s="125"/>
+      <c r="G96" s="125"/>
+      <c r="H96" s="128"/>
+      <c r="I96" s="125"/>
+      <c r="J96" s="125"/>
+      <c r="K96" s="126"/>
     </row>
     <row r="97" spans="2:11">
-      <c r="B97" s="129"/>
-      <c r="C97" s="127"/>
-      <c r="D97" s="127"/>
-      <c r="E97" s="127"/>
-      <c r="F97" s="127"/>
-      <c r="G97" s="127"/>
-      <c r="H97" s="130"/>
-      <c r="I97" s="127"/>
-      <c r="J97" s="127"/>
-      <c r="K97" s="128"/>
+      <c r="B97" s="127"/>
+      <c r="C97" s="125"/>
+      <c r="D97" s="125"/>
+      <c r="E97" s="125"/>
+      <c r="F97" s="125"/>
+      <c r="G97" s="125"/>
+      <c r="H97" s="128"/>
+      <c r="I97" s="125"/>
+      <c r="J97" s="125"/>
+      <c r="K97" s="126"/>
     </row>
     <row r="98" spans="2:11">
-      <c r="B98" s="129"/>
-      <c r="C98" s="127"/>
-      <c r="D98" s="127"/>
-      <c r="E98" s="127"/>
-      <c r="F98" s="127"/>
-      <c r="G98" s="127"/>
-      <c r="H98" s="130"/>
-      <c r="I98" s="127"/>
-      <c r="J98" s="127"/>
-      <c r="K98" s="128"/>
+      <c r="B98" s="127"/>
+      <c r="C98" s="125"/>
+      <c r="D98" s="125"/>
+      <c r="E98" s="125"/>
+      <c r="F98" s="125"/>
+      <c r="G98" s="125"/>
+      <c r="H98" s="128"/>
+      <c r="I98" s="125"/>
+      <c r="J98" s="125"/>
+      <c r="K98" s="126"/>
     </row>
     <row r="99" spans="2:11">
-      <c r="B99" s="129"/>
-      <c r="C99" s="127"/>
-      <c r="D99" s="127"/>
-      <c r="E99" s="127"/>
-      <c r="F99" s="127"/>
-      <c r="G99" s="127"/>
-      <c r="H99" s="130"/>
-      <c r="I99" s="127"/>
-      <c r="J99" s="127"/>
-      <c r="K99" s="128"/>
+      <c r="B99" s="127"/>
+      <c r="C99" s="125"/>
+      <c r="D99" s="125"/>
+      <c r="E99" s="125"/>
+      <c r="F99" s="125"/>
+      <c r="G99" s="125"/>
+      <c r="H99" s="128"/>
+      <c r="I99" s="125"/>
+      <c r="J99" s="125"/>
+      <c r="K99" s="126"/>
     </row>
     <row r="100" spans="2:11">
-      <c r="B100" s="129"/>
-      <c r="C100" s="127"/>
-      <c r="D100" s="127"/>
-      <c r="E100" s="127"/>
-      <c r="F100" s="127"/>
-      <c r="G100" s="127"/>
-      <c r="H100" s="130"/>
-      <c r="I100" s="127"/>
-      <c r="J100" s="127"/>
-      <c r="K100" s="128"/>
+      <c r="B100" s="127"/>
+      <c r="C100" s="125"/>
+      <c r="D100" s="125"/>
+      <c r="E100" s="125"/>
+      <c r="F100" s="125"/>
+      <c r="G100" s="125"/>
+      <c r="H100" s="128"/>
+      <c r="I100" s="125"/>
+      <c r="J100" s="125"/>
+      <c r="K100" s="126"/>
     </row>
     <row r="101" spans="2:11">
-      <c r="B101" s="129"/>
-      <c r="C101" s="127"/>
-      <c r="D101" s="127"/>
-      <c r="E101" s="127"/>
-      <c r="F101" s="127"/>
-      <c r="G101" s="127"/>
-      <c r="H101" s="130"/>
-      <c r="I101" s="127"/>
-      <c r="J101" s="127"/>
-      <c r="K101" s="128"/>
+      <c r="B101" s="127"/>
+      <c r="C101" s="125"/>
+      <c r="D101" s="125"/>
+      <c r="E101" s="125"/>
+      <c r="F101" s="125"/>
+      <c r="G101" s="125"/>
+      <c r="H101" s="128"/>
+      <c r="I101" s="125"/>
+      <c r="J101" s="125"/>
+      <c r="K101" s="126"/>
     </row>
     <row r="102" spans="2:11">
-      <c r="B102" s="129"/>
-      <c r="C102" s="127"/>
-      <c r="D102" s="127"/>
-      <c r="E102" s="127"/>
-      <c r="F102" s="127"/>
-      <c r="G102" s="127"/>
-      <c r="H102" s="130"/>
-      <c r="I102" s="127"/>
-      <c r="J102" s="127"/>
-      <c r="K102" s="128"/>
+      <c r="B102" s="127"/>
+      <c r="C102" s="125"/>
+      <c r="D102" s="125"/>
+      <c r="E102" s="125"/>
+      <c r="F102" s="125"/>
+      <c r="G102" s="125"/>
+      <c r="H102" s="128"/>
+      <c r="I102" s="125"/>
+      <c r="J102" s="125"/>
+      <c r="K102" s="126"/>
     </row>
     <row r="103" spans="2:11">
-      <c r="B103" s="129"/>
-      <c r="C103" s="127"/>
-      <c r="D103" s="127"/>
-      <c r="E103" s="127"/>
-      <c r="F103" s="127"/>
-      <c r="G103" s="127"/>
-      <c r="H103" s="130"/>
-      <c r="I103" s="127"/>
-      <c r="J103" s="127"/>
-      <c r="K103" s="128"/>
+      <c r="B103" s="127"/>
+      <c r="C103" s="125"/>
+      <c r="D103" s="125"/>
+      <c r="E103" s="125"/>
+      <c r="F103" s="125"/>
+      <c r="G103" s="125"/>
+      <c r="H103" s="128"/>
+      <c r="I103" s="125"/>
+      <c r="J103" s="125"/>
+      <c r="K103" s="126"/>
     </row>
     <row r="104" spans="2:11">
-      <c r="B104" s="129"/>
-      <c r="C104" s="127"/>
-      <c r="D104" s="127"/>
-      <c r="E104" s="127"/>
-      <c r="F104" s="127"/>
-      <c r="G104" s="127"/>
-      <c r="H104" s="130"/>
-      <c r="I104" s="127"/>
-      <c r="J104" s="127"/>
-      <c r="K104" s="128"/>
+      <c r="B104" s="127"/>
+      <c r="C104" s="125"/>
+      <c r="D104" s="125"/>
+      <c r="E104" s="125"/>
+      <c r="F104" s="125"/>
+      <c r="G104" s="125"/>
+      <c r="H104" s="128"/>
+      <c r="I104" s="125"/>
+      <c r="J104" s="125"/>
+      <c r="K104" s="126"/>
     </row>
     <row r="105" spans="2:11">
-      <c r="B105" s="129"/>
-      <c r="C105" s="127"/>
-      <c r="D105" s="127"/>
-      <c r="E105" s="127"/>
-      <c r="F105" s="127"/>
-      <c r="G105" s="127"/>
-      <c r="H105" s="130"/>
-      <c r="I105" s="127"/>
-      <c r="J105" s="127"/>
-      <c r="K105" s="128"/>
+      <c r="B105" s="127"/>
+      <c r="C105" s="125"/>
+      <c r="D105" s="125"/>
+      <c r="E105" s="125"/>
+      <c r="F105" s="125"/>
+      <c r="G105" s="125"/>
+      <c r="H105" s="128"/>
+      <c r="I105" s="125"/>
+      <c r="J105" s="125"/>
+      <c r="K105" s="126"/>
     </row>
     <row r="106" spans="2:11">
-      <c r="B106" s="129"/>
-      <c r="C106" s="127"/>
-      <c r="D106" s="127"/>
-      <c r="E106" s="127"/>
-      <c r="F106" s="127"/>
-      <c r="G106" s="127"/>
-      <c r="H106" s="130"/>
-      <c r="I106" s="127"/>
-      <c r="J106" s="127"/>
-      <c r="K106" s="128"/>
+      <c r="B106" s="127"/>
+      <c r="C106" s="125"/>
+      <c r="D106" s="125"/>
+      <c r="E106" s="125"/>
+      <c r="F106" s="125"/>
+      <c r="G106" s="125"/>
+      <c r="H106" s="128"/>
+      <c r="I106" s="125"/>
+      <c r="J106" s="125"/>
+      <c r="K106" s="126"/>
     </row>
     <row r="107" spans="2:11">
-      <c r="B107" s="129"/>
-      <c r="C107" s="127"/>
-      <c r="D107" s="127"/>
-      <c r="E107" s="127"/>
-      <c r="F107" s="127"/>
-      <c r="G107" s="127"/>
-      <c r="H107" s="130"/>
-      <c r="I107" s="127"/>
-      <c r="J107" s="127"/>
-      <c r="K107" s="128"/>
+      <c r="B107" s="127"/>
+      <c r="C107" s="125"/>
+      <c r="D107" s="125"/>
+      <c r="E107" s="125"/>
+      <c r="F107" s="125"/>
+      <c r="G107" s="125"/>
+      <c r="H107" s="128"/>
+      <c r="I107" s="125"/>
+      <c r="J107" s="125"/>
+      <c r="K107" s="126"/>
     </row>
     <row r="108" spans="2:11">
-      <c r="B108" s="129"/>
-      <c r="C108" s="127"/>
-      <c r="D108" s="127"/>
-      <c r="E108" s="127"/>
-      <c r="F108" s="127"/>
-      <c r="G108" s="127"/>
-      <c r="H108" s="130"/>
-      <c r="I108" s="127"/>
-      <c r="J108" s="127"/>
-      <c r="K108" s="128"/>
+      <c r="B108" s="127"/>
+      <c r="C108" s="125"/>
+      <c r="D108" s="125"/>
+      <c r="E108" s="125"/>
+      <c r="F108" s="125"/>
+      <c r="G108" s="125"/>
+      <c r="H108" s="128"/>
+      <c r="I108" s="125"/>
+      <c r="J108" s="125"/>
+      <c r="K108" s="126"/>
     </row>
     <row r="109" spans="2:11">
-      <c r="B109" s="129"/>
-      <c r="C109" s="127"/>
-      <c r="D109" s="127"/>
-      <c r="E109" s="127"/>
-      <c r="F109" s="127"/>
-      <c r="G109" s="127"/>
-      <c r="H109" s="130"/>
-      <c r="I109" s="127"/>
-      <c r="J109" s="127"/>
-      <c r="K109" s="128"/>
+      <c r="B109" s="127"/>
+      <c r="C109" s="125"/>
+      <c r="D109" s="125"/>
+      <c r="E109" s="125"/>
+      <c r="F109" s="125"/>
+      <c r="G109" s="125"/>
+      <c r="H109" s="128"/>
+      <c r="I109" s="125"/>
+      <c r="J109" s="125"/>
+      <c r="K109" s="126"/>
     </row>
     <row r="110" spans="2:11">
-      <c r="B110" s="129"/>
-      <c r="C110" s="127"/>
-      <c r="D110" s="127"/>
-      <c r="E110" s="127"/>
-      <c r="F110" s="127"/>
-      <c r="G110" s="127"/>
-      <c r="H110" s="130"/>
-      <c r="I110" s="127"/>
-      <c r="J110" s="127"/>
-      <c r="K110" s="128"/>
+      <c r="B110" s="127"/>
+      <c r="C110" s="125"/>
+      <c r="D110" s="125"/>
+      <c r="E110" s="125"/>
+      <c r="F110" s="125"/>
+      <c r="G110" s="125"/>
+      <c r="H110" s="128"/>
+      <c r="I110" s="125"/>
+      <c r="J110" s="125"/>
+      <c r="K110" s="126"/>
     </row>
     <row r="111" spans="2:11">
-      <c r="B111" s="129"/>
-      <c r="C111" s="127"/>
-      <c r="D111" s="127"/>
-      <c r="E111" s="127"/>
-      <c r="F111" s="127"/>
-      <c r="G111" s="127"/>
-      <c r="H111" s="130"/>
-      <c r="I111" s="127"/>
-      <c r="J111" s="127"/>
-      <c r="K111" s="128"/>
+      <c r="B111" s="127"/>
+      <c r="C111" s="125"/>
+      <c r="D111" s="125"/>
+      <c r="E111" s="125"/>
+      <c r="F111" s="125"/>
+      <c r="G111" s="125"/>
+      <c r="H111" s="128"/>
+      <c r="I111" s="125"/>
+      <c r="J111" s="125"/>
+      <c r="K111" s="126"/>
     </row>
     <row r="112" spans="2:11">
-      <c r="B112" s="129"/>
-      <c r="C112" s="127"/>
-      <c r="D112" s="127"/>
-      <c r="E112" s="127"/>
-      <c r="F112" s="127"/>
-      <c r="G112" s="127"/>
-      <c r="H112" s="130"/>
-      <c r="I112" s="127"/>
-      <c r="J112" s="127"/>
-      <c r="K112" s="128"/>
+      <c r="B112" s="127"/>
+      <c r="C112" s="125"/>
+      <c r="D112" s="125"/>
+      <c r="E112" s="125"/>
+      <c r="F112" s="125"/>
+      <c r="G112" s="125"/>
+      <c r="H112" s="128"/>
+      <c r="I112" s="125"/>
+      <c r="J112" s="125"/>
+      <c r="K112" s="126"/>
     </row>
     <row r="113" spans="2:11">
-      <c r="B113" s="129"/>
-      <c r="C113" s="127"/>
-      <c r="D113" s="127"/>
-      <c r="E113" s="127"/>
-      <c r="F113" s="127"/>
-      <c r="G113" s="127"/>
-      <c r="H113" s="130"/>
-      <c r="I113" s="127"/>
-      <c r="J113" s="127"/>
-      <c r="K113" s="128"/>
+      <c r="B113" s="127"/>
+      <c r="C113" s="125"/>
+      <c r="D113" s="125"/>
+      <c r="E113" s="125"/>
+      <c r="F113" s="125"/>
+      <c r="G113" s="125"/>
+      <c r="H113" s="128"/>
+      <c r="I113" s="125"/>
+      <c r="J113" s="125"/>
+      <c r="K113" s="126"/>
     </row>
     <row r="114" spans="2:11">
-      <c r="B114" s="129"/>
-      <c r="C114" s="127"/>
-      <c r="D114" s="127"/>
-      <c r="E114" s="127"/>
-      <c r="F114" s="127"/>
-      <c r="G114" s="127"/>
-      <c r="H114" s="130"/>
-      <c r="I114" s="127"/>
-      <c r="J114" s="127"/>
-      <c r="K114" s="128"/>
+      <c r="B114" s="127"/>
+      <c r="C114" s="125"/>
+      <c r="D114" s="125"/>
+      <c r="E114" s="125"/>
+      <c r="F114" s="125"/>
+      <c r="G114" s="125"/>
+      <c r="H114" s="128"/>
+      <c r="I114" s="125"/>
+      <c r="J114" s="125"/>
+      <c r="K114" s="126"/>
     </row>
     <row r="115" spans="2:11">
-      <c r="B115" s="129"/>
-      <c r="C115" s="127"/>
-      <c r="D115" s="127"/>
-      <c r="E115" s="127"/>
-      <c r="F115" s="127"/>
-      <c r="G115" s="127"/>
-      <c r="H115" s="130"/>
-      <c r="I115" s="127"/>
-      <c r="J115" s="127"/>
-      <c r="K115" s="128"/>
+      <c r="B115" s="127"/>
+      <c r="C115" s="125"/>
+      <c r="D115" s="125"/>
+      <c r="E115" s="125"/>
+      <c r="F115" s="125"/>
+      <c r="G115" s="125"/>
+      <c r="H115" s="128"/>
+      <c r="I115" s="125"/>
+      <c r="J115" s="125"/>
+      <c r="K115" s="126"/>
     </row>
     <row r="116" spans="2:11">
-      <c r="B116" s="129"/>
-      <c r="C116" s="127"/>
-      <c r="D116" s="127"/>
-      <c r="E116" s="127"/>
-      <c r="F116" s="127"/>
-      <c r="G116" s="127"/>
-      <c r="H116" s="130"/>
-      <c r="I116" s="127"/>
-      <c r="J116" s="127"/>
-      <c r="K116" s="128"/>
+      <c r="B116" s="127"/>
+      <c r="C116" s="125"/>
+      <c r="D116" s="125"/>
+      <c r="E116" s="125"/>
+      <c r="F116" s="125"/>
+      <c r="G116" s="125"/>
+      <c r="H116" s="128"/>
+      <c r="I116" s="125"/>
+      <c r="J116" s="125"/>
+      <c r="K116" s="126"/>
     </row>
     <row r="117" spans="2:11">
-      <c r="B117" s="129"/>
-      <c r="C117" s="127"/>
-      <c r="D117" s="127"/>
-      <c r="E117" s="127"/>
-      <c r="F117" s="127"/>
-      <c r="G117" s="127"/>
-      <c r="H117" s="130"/>
-      <c r="I117" s="127"/>
-      <c r="J117" s="127"/>
-      <c r="K117" s="128"/>
+      <c r="B117" s="127"/>
+      <c r="C117" s="125"/>
+      <c r="D117" s="125"/>
+      <c r="E117" s="125"/>
+      <c r="F117" s="125"/>
+      <c r="G117" s="125"/>
+      <c r="H117" s="128"/>
+      <c r="I117" s="125"/>
+      <c r="J117" s="125"/>
+      <c r="K117" s="126"/>
     </row>
     <row r="118" spans="2:11">
-      <c r="B118" s="129"/>
-      <c r="C118" s="127"/>
-      <c r="D118" s="127"/>
-      <c r="E118" s="127"/>
-      <c r="F118" s="127"/>
-      <c r="G118" s="127"/>
-      <c r="H118" s="130"/>
-      <c r="I118" s="127"/>
-      <c r="J118" s="127"/>
-      <c r="K118" s="128"/>
+      <c r="B118" s="127"/>
+      <c r="C118" s="125"/>
+      <c r="D118" s="125"/>
+      <c r="E118" s="125"/>
+      <c r="F118" s="125"/>
+      <c r="G118" s="125"/>
+      <c r="H118" s="128"/>
+      <c r="I118" s="125"/>
+      <c r="J118" s="125"/>
+      <c r="K118" s="126"/>
     </row>
     <row r="119" spans="2:11">
-      <c r="B119" s="129"/>
-      <c r="C119" s="127"/>
-      <c r="D119" s="127"/>
-      <c r="E119" s="127"/>
-      <c r="F119" s="127"/>
-      <c r="G119" s="127"/>
-      <c r="H119" s="130"/>
-      <c r="I119" s="127"/>
-      <c r="J119" s="127"/>
-      <c r="K119" s="128"/>
+      <c r="B119" s="127"/>
+      <c r="C119" s="125"/>
+      <c r="D119" s="125"/>
+      <c r="E119" s="125"/>
+      <c r="F119" s="125"/>
+      <c r="G119" s="125"/>
+      <c r="H119" s="128"/>
+      <c r="I119" s="125"/>
+      <c r="J119" s="125"/>
+      <c r="K119" s="126"/>
     </row>
     <row r="120" spans="2:11">
-      <c r="B120" s="129"/>
-      <c r="C120" s="127"/>
-      <c r="D120" s="127"/>
-      <c r="E120" s="127"/>
-      <c r="F120" s="127"/>
-      <c r="G120" s="127"/>
-      <c r="H120" s="130"/>
-      <c r="I120" s="127"/>
-      <c r="J120" s="127"/>
-      <c r="K120" s="128"/>
+      <c r="B120" s="127"/>
+      <c r="C120" s="125"/>
+      <c r="D120" s="125"/>
+      <c r="E120" s="125"/>
+      <c r="F120" s="125"/>
+      <c r="G120" s="125"/>
+      <c r="H120" s="128"/>
+      <c r="I120" s="125"/>
+      <c r="J120" s="125"/>
+      <c r="K120" s="126"/>
     </row>
     <row r="121" spans="2:11">
-      <c r="B121" s="129"/>
-      <c r="C121" s="127"/>
-      <c r="D121" s="127"/>
-      <c r="E121" s="127"/>
-      <c r="F121" s="127"/>
-      <c r="G121" s="127"/>
-      <c r="H121" s="130"/>
-      <c r="I121" s="127"/>
-      <c r="J121" s="127"/>
-      <c r="K121" s="128"/>
+      <c r="B121" s="127"/>
+      <c r="C121" s="125"/>
+      <c r="D121" s="125"/>
+      <c r="E121" s="125"/>
+      <c r="F121" s="125"/>
+      <c r="G121" s="125"/>
+      <c r="H121" s="128"/>
+      <c r="I121" s="125"/>
+      <c r="J121" s="125"/>
+      <c r="K121" s="126"/>
     </row>
     <row r="122" spans="2:11">
-      <c r="B122" s="129"/>
-      <c r="C122" s="127"/>
-      <c r="D122" s="127"/>
-      <c r="E122" s="127"/>
-      <c r="F122" s="127"/>
-      <c r="G122" s="127"/>
-      <c r="H122" s="130"/>
-      <c r="I122" s="127"/>
-      <c r="J122" s="127"/>
-      <c r="K122" s="128"/>
+      <c r="B122" s="127"/>
+      <c r="C122" s="125"/>
+      <c r="D122" s="125"/>
+      <c r="E122" s="125"/>
+      <c r="F122" s="125"/>
+      <c r="G122" s="125"/>
+      <c r="H122" s="128"/>
+      <c r="I122" s="125"/>
+      <c r="J122" s="125"/>
+      <c r="K122" s="126"/>
     </row>
     <row r="123" spans="2:11">
-      <c r="B123" s="129"/>
-      <c r="C123" s="127"/>
-      <c r="D123" s="127"/>
-      <c r="E123" s="127"/>
-      <c r="F123" s="127"/>
-      <c r="G123" s="127"/>
-      <c r="H123" s="130"/>
-      <c r="I123" s="127"/>
-      <c r="J123" s="127"/>
-      <c r="K123" s="128"/>
+      <c r="B123" s="127"/>
+      <c r="C123" s="125"/>
+      <c r="D123" s="125"/>
+      <c r="E123" s="125"/>
+      <c r="F123" s="125"/>
+      <c r="G123" s="125"/>
+      <c r="H123" s="128"/>
+      <c r="I123" s="125"/>
+      <c r="J123" s="125"/>
+      <c r="K123" s="126"/>
     </row>
     <row r="124" spans="2:11">
-      <c r="B124" s="129"/>
-      <c r="C124" s="127"/>
-      <c r="D124" s="127"/>
-      <c r="E124" s="127"/>
-      <c r="F124" s="127"/>
-      <c r="G124" s="127"/>
-      <c r="H124" s="130"/>
-      <c r="I124" s="127"/>
-      <c r="J124" s="127"/>
-      <c r="K124" s="128"/>
+      <c r="B124" s="127"/>
+      <c r="C124" s="125"/>
+      <c r="D124" s="125"/>
+      <c r="E124" s="125"/>
+      <c r="F124" s="125"/>
+      <c r="G124" s="125"/>
+      <c r="H124" s="128"/>
+      <c r="I124" s="125"/>
+      <c r="J124" s="125"/>
+      <c r="K124" s="126"/>
     </row>
     <row r="125" spans="2:11">
-      <c r="B125" s="129"/>
-      <c r="C125" s="127"/>
-      <c r="D125" s="127"/>
-      <c r="E125" s="127"/>
-      <c r="F125" s="127"/>
-      <c r="G125" s="127"/>
-      <c r="H125" s="130"/>
-      <c r="I125" s="127"/>
-      <c r="J125" s="127"/>
-      <c r="K125" s="128"/>
+      <c r="B125" s="127"/>
+      <c r="C125" s="125"/>
+      <c r="D125" s="125"/>
+      <c r="E125" s="125"/>
+      <c r="F125" s="125"/>
+      <c r="G125" s="125"/>
+      <c r="H125" s="128"/>
+      <c r="I125" s="125"/>
+      <c r="J125" s="125"/>
+      <c r="K125" s="126"/>
     </row>
     <row r="126" spans="2:11">
-      <c r="B126" s="129"/>
-      <c r="C126" s="127"/>
-      <c r="D126" s="127"/>
-      <c r="E126" s="127"/>
-      <c r="F126" s="127"/>
-      <c r="G126" s="127"/>
-      <c r="H126" s="130"/>
-      <c r="I126" s="127"/>
-      <c r="J126" s="127"/>
-      <c r="K126" s="128"/>
+      <c r="B126" s="127"/>
+      <c r="C126" s="125"/>
+      <c r="D126" s="125"/>
+      <c r="E126" s="125"/>
+      <c r="F126" s="125"/>
+      <c r="G126" s="125"/>
+      <c r="H126" s="128"/>
+      <c r="I126" s="125"/>
+      <c r="J126" s="125"/>
+      <c r="K126" s="126"/>
     </row>
     <row r="127" spans="2:11">
-      <c r="B127" s="129"/>
-      <c r="C127" s="127"/>
-      <c r="D127" s="127"/>
-      <c r="E127" s="127"/>
-      <c r="F127" s="127"/>
-      <c r="G127" s="127"/>
-      <c r="H127" s="130"/>
-      <c r="I127" s="127"/>
-      <c r="J127" s="127"/>
-      <c r="K127" s="128"/>
+      <c r="B127" s="127"/>
+      <c r="C127" s="125"/>
+      <c r="D127" s="125"/>
+      <c r="E127" s="125"/>
+      <c r="F127" s="125"/>
+      <c r="G127" s="125"/>
+      <c r="H127" s="128"/>
+      <c r="I127" s="125"/>
+      <c r="J127" s="125"/>
+      <c r="K127" s="126"/>
     </row>
     <row r="128" spans="2:11">
-      <c r="B128" s="129"/>
-      <c r="C128" s="127"/>
-      <c r="D128" s="127"/>
-      <c r="E128" s="127"/>
-      <c r="F128" s="127"/>
-      <c r="G128" s="127"/>
-      <c r="H128" s="130"/>
-      <c r="I128" s="127"/>
-      <c r="J128" s="127"/>
-      <c r="K128" s="128"/>
+      <c r="B128" s="127"/>
+      <c r="C128" s="125"/>
+      <c r="D128" s="125"/>
+      <c r="E128" s="125"/>
+      <c r="F128" s="125"/>
+      <c r="G128" s="125"/>
+      <c r="H128" s="128"/>
+      <c r="I128" s="125"/>
+      <c r="J128" s="125"/>
+      <c r="K128" s="126"/>
     </row>
     <row r="129" spans="2:11">
-      <c r="B129" s="129"/>
-      <c r="C129" s="127"/>
-      <c r="D129" s="127"/>
-      <c r="E129" s="127"/>
-      <c r="F129" s="127"/>
-      <c r="G129" s="127"/>
-      <c r="H129" s="130"/>
-      <c r="I129" s="127"/>
-      <c r="J129" s="127"/>
-      <c r="K129" s="128"/>
+      <c r="B129" s="127"/>
+      <c r="C129" s="125"/>
+      <c r="D129" s="125"/>
+      <c r="E129" s="125"/>
+      <c r="F129" s="125"/>
+      <c r="G129" s="125"/>
+      <c r="H129" s="128"/>
+      <c r="I129" s="125"/>
+      <c r="J129" s="125"/>
+      <c r="K129" s="126"/>
     </row>
     <row r="130" spans="2:11">
-      <c r="B130" s="129"/>
-      <c r="C130" s="127"/>
-      <c r="D130" s="127"/>
-      <c r="E130" s="127"/>
-      <c r="F130" s="127"/>
-      <c r="G130" s="127"/>
-      <c r="H130" s="130"/>
-      <c r="I130" s="127"/>
-      <c r="J130" s="127"/>
-      <c r="K130" s="128"/>
+      <c r="B130" s="127"/>
+      <c r="C130" s="125"/>
+      <c r="D130" s="125"/>
+      <c r="E130" s="125"/>
+      <c r="F130" s="125"/>
+      <c r="G130" s="125"/>
+      <c r="H130" s="128"/>
+      <c r="I130" s="125"/>
+      <c r="J130" s="125"/>
+      <c r="K130" s="126"/>
     </row>
     <row r="131" spans="2:11">
-      <c r="B131" s="129"/>
-      <c r="C131" s="127"/>
-      <c r="D131" s="127"/>
-      <c r="E131" s="127"/>
-      <c r="F131" s="127"/>
-      <c r="G131" s="127"/>
-      <c r="H131" s="130"/>
-      <c r="I131" s="127"/>
-      <c r="J131" s="127"/>
-      <c r="K131" s="128"/>
+      <c r="B131" s="127"/>
+      <c r="C131" s="125"/>
+      <c r="D131" s="125"/>
+      <c r="E131" s="125"/>
+      <c r="F131" s="125"/>
+      <c r="G131" s="125"/>
+      <c r="H131" s="128"/>
+      <c r="I131" s="125"/>
+      <c r="J131" s="125"/>
+      <c r="K131" s="126"/>
     </row>
     <row r="132" spans="2:11">
-      <c r="B132" s="129"/>
-      <c r="C132" s="127"/>
-      <c r="D132" s="127"/>
-      <c r="E132" s="127"/>
-      <c r="F132" s="127"/>
-      <c r="G132" s="127"/>
-      <c r="H132" s="130"/>
-      <c r="I132" s="127"/>
-      <c r="J132" s="127"/>
-      <c r="K132" s="128"/>
+      <c r="B132" s="127"/>
+      <c r="C132" s="125"/>
+      <c r="D132" s="125"/>
+      <c r="E132" s="125"/>
+      <c r="F132" s="125"/>
+      <c r="G132" s="125"/>
+      <c r="H132" s="128"/>
+      <c r="I132" s="125"/>
+      <c r="J132" s="125"/>
+      <c r="K132" s="126"/>
     </row>
     <row r="133" spans="2:11">
-      <c r="B133" s="129"/>
-      <c r="C133" s="127"/>
-      <c r="D133" s="127"/>
-      <c r="E133" s="127"/>
-      <c r="F133" s="127"/>
-      <c r="G133" s="127"/>
-      <c r="H133" s="130"/>
-      <c r="I133" s="127"/>
-      <c r="J133" s="127"/>
-      <c r="K133" s="128"/>
+      <c r="B133" s="127"/>
+      <c r="C133" s="125"/>
+      <c r="D133" s="125"/>
+      <c r="E133" s="125"/>
+      <c r="F133" s="125"/>
+      <c r="G133" s="125"/>
+      <c r="H133" s="128"/>
+      <c r="I133" s="125"/>
+      <c r="J133" s="125"/>
+      <c r="K133" s="126"/>
     </row>
     <row r="134" spans="2:11">
-      <c r="B134" s="129"/>
-      <c r="C134" s="127"/>
-      <c r="D134" s="127"/>
-      <c r="E134" s="127"/>
-      <c r="F134" s="127"/>
-      <c r="G134" s="127"/>
-      <c r="H134" s="130"/>
-      <c r="I134" s="127"/>
-      <c r="J134" s="127"/>
-      <c r="K134" s="128"/>
+      <c r="B134" s="127"/>
+      <c r="C134" s="125"/>
+      <c r="D134" s="125"/>
+      <c r="E134" s="125"/>
+      <c r="F134" s="125"/>
+      <c r="G134" s="125"/>
+      <c r="H134" s="128"/>
+      <c r="I134" s="125"/>
+      <c r="J134" s="125"/>
+      <c r="K134" s="126"/>
     </row>
     <row r="135" spans="2:11">
-      <c r="B135" s="129"/>
-      <c r="C135" s="127"/>
-      <c r="D135" s="127"/>
-      <c r="E135" s="127"/>
-      <c r="F135" s="127"/>
-      <c r="G135" s="127"/>
-      <c r="H135" s="130"/>
-      <c r="I135" s="127"/>
-      <c r="J135" s="127"/>
-      <c r="K135" s="128"/>
+      <c r="B135" s="127"/>
+      <c r="C135" s="125"/>
+      <c r="D135" s="125"/>
+      <c r="E135" s="125"/>
+      <c r="F135" s="125"/>
+      <c r="G135" s="125"/>
+      <c r="H135" s="128"/>
+      <c r="I135" s="125"/>
+      <c r="J135" s="125"/>
+      <c r="K135" s="126"/>
     </row>
     <row r="136" spans="2:11">
-      <c r="B136" s="129"/>
-      <c r="C136" s="127"/>
-      <c r="D136" s="127"/>
-      <c r="E136" s="127"/>
-      <c r="F136" s="127"/>
-      <c r="G136" s="127"/>
-      <c r="H136" s="130"/>
-      <c r="I136" s="127"/>
-      <c r="J136" s="127"/>
-      <c r="K136" s="128"/>
+      <c r="B136" s="127"/>
+      <c r="C136" s="125"/>
+      <c r="D136" s="125"/>
+      <c r="E136" s="125"/>
+      <c r="F136" s="125"/>
+      <c r="G136" s="125"/>
+      <c r="H136" s="128"/>
+      <c r="I136" s="125"/>
+      <c r="J136" s="125"/>
+      <c r="K136" s="126"/>
     </row>
     <row r="137" spans="2:11">
-      <c r="B137" s="129"/>
-      <c r="C137" s="127"/>
-      <c r="D137" s="127"/>
-      <c r="E137" s="127"/>
-      <c r="F137" s="127"/>
-      <c r="G137" s="127"/>
-      <c r="H137" s="130"/>
-      <c r="I137" s="127"/>
-      <c r="J137" s="127"/>
-      <c r="K137" s="128"/>
+      <c r="B137" s="127"/>
+      <c r="C137" s="125"/>
+      <c r="D137" s="125"/>
+      <c r="E137" s="125"/>
+      <c r="F137" s="125"/>
+      <c r="G137" s="125"/>
+      <c r="H137" s="128"/>
+      <c r="I137" s="125"/>
+      <c r="J137" s="125"/>
+      <c r="K137" s="126"/>
     </row>
     <row r="138" spans="2:11">
-      <c r="B138" s="129"/>
-      <c r="C138" s="127"/>
-      <c r="D138" s="127"/>
-      <c r="E138" s="127"/>
-      <c r="F138" s="127"/>
-      <c r="G138" s="127"/>
-      <c r="H138" s="130"/>
-      <c r="I138" s="127"/>
-      <c r="J138" s="127"/>
-      <c r="K138" s="128"/>
+      <c r="B138" s="127"/>
+      <c r="C138" s="125"/>
+      <c r="D138" s="125"/>
+      <c r="E138" s="125"/>
+      <c r="F138" s="125"/>
+      <c r="G138" s="125"/>
+      <c r="H138" s="128"/>
+      <c r="I138" s="125"/>
+      <c r="J138" s="125"/>
+      <c r="K138" s="126"/>
     </row>
     <row r="139" spans="2:11">
-      <c r="B139" s="129"/>
-      <c r="C139" s="127"/>
-      <c r="D139" s="127"/>
-      <c r="E139" s="127"/>
-      <c r="F139" s="127"/>
-      <c r="G139" s="127"/>
-      <c r="H139" s="130"/>
-      <c r="I139" s="127"/>
-      <c r="J139" s="127"/>
-      <c r="K139" s="128"/>
+      <c r="B139" s="127"/>
+      <c r="C139" s="125"/>
+      <c r="D139" s="125"/>
+      <c r="E139" s="125"/>
+      <c r="F139" s="125"/>
+      <c r="G139" s="125"/>
+      <c r="H139" s="128"/>
+      <c r="I139" s="125"/>
+      <c r="J139" s="125"/>
+      <c r="K139" s="126"/>
     </row>
     <row r="140" spans="2:11">
-      <c r="B140" s="129"/>
-      <c r="C140" s="127"/>
-      <c r="D140" s="127"/>
-      <c r="E140" s="127"/>
-      <c r="F140" s="127"/>
-      <c r="G140" s="127"/>
-      <c r="H140" s="130"/>
-      <c r="I140" s="127"/>
-      <c r="J140" s="127"/>
-      <c r="K140" s="128"/>
+      <c r="B140" s="127"/>
+      <c r="C140" s="125"/>
+      <c r="D140" s="125"/>
+      <c r="E140" s="125"/>
+      <c r="F140" s="125"/>
+      <c r="G140" s="125"/>
+      <c r="H140" s="128"/>
+      <c r="I140" s="125"/>
+      <c r="J140" s="125"/>
+      <c r="K140" s="126"/>
     </row>
     <row r="141" spans="2:11">
-      <c r="B141" s="129"/>
-      <c r="C141" s="127"/>
-      <c r="D141" s="127"/>
-      <c r="E141" s="127"/>
-      <c r="F141" s="127"/>
-      <c r="G141" s="127"/>
-      <c r="H141" s="130"/>
-      <c r="I141" s="127"/>
-      <c r="J141" s="127"/>
-      <c r="K141" s="128"/>
+      <c r="B141" s="127"/>
+      <c r="C141" s="125"/>
+      <c r="D141" s="125"/>
+      <c r="E141" s="125"/>
+      <c r="F141" s="125"/>
+      <c r="G141" s="125"/>
+      <c r="H141" s="128"/>
+      <c r="I141" s="125"/>
+      <c r="J141" s="125"/>
+      <c r="K141" s="126"/>
     </row>
     <row r="142" spans="2:11">
-      <c r="B142" s="129"/>
-      <c r="C142" s="127"/>
-      <c r="D142" s="127"/>
-      <c r="E142" s="127"/>
-      <c r="F142" s="127"/>
-      <c r="G142" s="127"/>
-      <c r="H142" s="130"/>
-      <c r="I142" s="127"/>
-      <c r="J142" s="127"/>
-      <c r="K142" s="128"/>
+      <c r="B142" s="127"/>
+      <c r="C142" s="125"/>
+      <c r="D142" s="125"/>
+      <c r="E142" s="125"/>
+      <c r="F142" s="125"/>
+      <c r="G142" s="125"/>
+      <c r="H142" s="128"/>
+      <c r="I142" s="125"/>
+      <c r="J142" s="125"/>
+      <c r="K142" s="126"/>
     </row>
     <row r="143" spans="2:11">
-      <c r="B143" s="129"/>
-      <c r="C143" s="127"/>
-      <c r="D143" s="127"/>
-      <c r="E143" s="127"/>
-      <c r="F143" s="127"/>
-      <c r="G143" s="127"/>
-      <c r="H143" s="130"/>
-      <c r="I143" s="127"/>
-      <c r="J143" s="127"/>
-      <c r="K143" s="128"/>
+      <c r="B143" s="127"/>
+      <c r="C143" s="125"/>
+      <c r="D143" s="125"/>
+      <c r="E143" s="125"/>
+      <c r="F143" s="125"/>
+      <c r="G143" s="125"/>
+      <c r="H143" s="128"/>
+      <c r="I143" s="125"/>
+      <c r="J143" s="125"/>
+      <c r="K143" s="126"/>
     </row>
     <row r="144" spans="2:11">
-      <c r="B144" s="129"/>
-      <c r="C144" s="127"/>
-      <c r="D144" s="127"/>
-      <c r="E144" s="127"/>
-      <c r="F144" s="127"/>
-      <c r="G144" s="127"/>
-      <c r="H144" s="130"/>
-      <c r="I144" s="127"/>
-      <c r="J144" s="127"/>
-      <c r="K144" s="128"/>
+      <c r="B144" s="127"/>
+      <c r="C144" s="125"/>
+      <c r="D144" s="125"/>
+      <c r="E144" s="125"/>
+      <c r="F144" s="125"/>
+      <c r="G144" s="125"/>
+      <c r="H144" s="128"/>
+      <c r="I144" s="125"/>
+      <c r="J144" s="125"/>
+      <c r="K144" s="126"/>
     </row>
     <row r="145" spans="2:11">
-      <c r="B145" s="129"/>
-      <c r="C145" s="127"/>
-      <c r="D145" s="127"/>
-      <c r="E145" s="127"/>
-      <c r="F145" s="127"/>
-      <c r="G145" s="127"/>
-      <c r="H145" s="130"/>
-      <c r="I145" s="127"/>
-      <c r="J145" s="127"/>
-      <c r="K145" s="128"/>
+      <c r="B145" s="127"/>
+      <c r="C145" s="125"/>
+      <c r="D145" s="125"/>
+      <c r="E145" s="125"/>
+      <c r="F145" s="125"/>
+      <c r="G145" s="125"/>
+      <c r="H145" s="128"/>
+      <c r="I145" s="125"/>
+      <c r="J145" s="125"/>
+      <c r="K145" s="126"/>
     </row>
     <row r="146" spans="2:11">
-      <c r="B146" s="129"/>
-      <c r="C146" s="127"/>
-      <c r="D146" s="127"/>
-      <c r="E146" s="127"/>
-      <c r="F146" s="127"/>
-      <c r="G146" s="127"/>
-      <c r="H146" s="130"/>
-      <c r="I146" s="127"/>
-      <c r="J146" s="127"/>
-      <c r="K146" s="128"/>
+      <c r="B146" s="127"/>
+      <c r="C146" s="125"/>
+      <c r="D146" s="125"/>
+      <c r="E146" s="125"/>
+      <c r="F146" s="125"/>
+      <c r="G146" s="125"/>
+      <c r="H146" s="128"/>
+      <c r="I146" s="125"/>
+      <c r="J146" s="125"/>
+      <c r="K146" s="126"/>
     </row>
     <row r="147" spans="2:11">
-      <c r="B147" s="129"/>
-      <c r="C147" s="127"/>
-      <c r="D147" s="127"/>
-      <c r="E147" s="127"/>
-      <c r="F147" s="127"/>
-      <c r="G147" s="127"/>
-      <c r="H147" s="130"/>
-      <c r="I147" s="127"/>
-      <c r="J147" s="127"/>
-      <c r="K147" s="128"/>
+      <c r="B147" s="127"/>
+      <c r="C147" s="125"/>
+      <c r="D147" s="125"/>
+      <c r="E147" s="125"/>
+      <c r="F147" s="125"/>
+      <c r="G147" s="125"/>
+      <c r="H147" s="128"/>
+      <c r="I147" s="125"/>
+      <c r="J147" s="125"/>
+      <c r="K147" s="126"/>
     </row>
     <row r="148" spans="2:11">
-      <c r="B148" s="129"/>
-      <c r="C148" s="127"/>
-      <c r="D148" s="127"/>
-      <c r="E148" s="127"/>
-      <c r="F148" s="127"/>
-      <c r="G148" s="127"/>
-      <c r="H148" s="130"/>
-      <c r="I148" s="127"/>
-      <c r="J148" s="127"/>
-      <c r="K148" s="128"/>
+      <c r="B148" s="127"/>
+      <c r="C148" s="125"/>
+      <c r="D148" s="125"/>
+      <c r="E148" s="125"/>
+      <c r="F148" s="125"/>
+      <c r="G148" s="125"/>
+      <c r="H148" s="128"/>
+      <c r="I148" s="125"/>
+      <c r="J148" s="125"/>
+      <c r="K148" s="126"/>
     </row>
     <row r="149" spans="2:11">
-      <c r="B149" s="129"/>
-      <c r="C149" s="127"/>
-      <c r="D149" s="127"/>
-      <c r="E149" s="127"/>
-      <c r="F149" s="127"/>
-      <c r="G149" s="127"/>
-      <c r="H149" s="130"/>
-      <c r="I149" s="127"/>
-      <c r="J149" s="127"/>
-      <c r="K149" s="128"/>
+      <c r="B149" s="127"/>
+      <c r="C149" s="125"/>
+      <c r="D149" s="125"/>
+      <c r="E149" s="125"/>
+      <c r="F149" s="125"/>
+      <c r="G149" s="125"/>
+      <c r="H149" s="128"/>
+      <c r="I149" s="125"/>
+      <c r="J149" s="125"/>
+      <c r="K149" s="126"/>
     </row>
     <row r="150" spans="2:11">
-      <c r="B150" s="129"/>
-      <c r="C150" s="127"/>
-      <c r="D150" s="127"/>
-      <c r="E150" s="127"/>
-      <c r="F150" s="127"/>
-      <c r="G150" s="127"/>
-      <c r="H150" s="130"/>
-      <c r="I150" s="127"/>
-      <c r="J150" s="127"/>
-      <c r="K150" s="128"/>
+      <c r="B150" s="127"/>
+      <c r="C150" s="125"/>
+      <c r="D150" s="125"/>
+      <c r="E150" s="125"/>
+      <c r="F150" s="125"/>
+      <c r="G150" s="125"/>
+      <c r="H150" s="128"/>
+      <c r="I150" s="125"/>
+      <c r="J150" s="125"/>
+      <c r="K150" s="126"/>
     </row>
     <row r="151" spans="2:11">
-      <c r="B151" s="129"/>
-      <c r="C151" s="127"/>
-      <c r="D151" s="127"/>
-      <c r="E151" s="127"/>
-      <c r="F151" s="127"/>
-      <c r="G151" s="127"/>
-      <c r="H151" s="130"/>
-      <c r="I151" s="127"/>
-      <c r="J151" s="127"/>
-      <c r="K151" s="128"/>
+      <c r="B151" s="127"/>
+      <c r="C151" s="125"/>
+      <c r="D151" s="125"/>
+      <c r="E151" s="125"/>
+      <c r="F151" s="125"/>
+      <c r="G151" s="125"/>
+      <c r="H151" s="128"/>
+      <c r="I151" s="125"/>
+      <c r="J151" s="125"/>
+      <c r="K151" s="126"/>
     </row>
     <row r="152" spans="2:11">
-      <c r="B152" s="129"/>
-      <c r="C152" s="127"/>
-      <c r="D152" s="127"/>
-      <c r="E152" s="127"/>
-      <c r="F152" s="127"/>
-      <c r="G152" s="127"/>
-      <c r="H152" s="130"/>
-      <c r="I152" s="127"/>
-      <c r="J152" s="127"/>
-      <c r="K152" s="128"/>
+      <c r="B152" s="127"/>
+      <c r="C152" s="125"/>
+      <c r="D152" s="125"/>
+      <c r="E152" s="125"/>
+      <c r="F152" s="125"/>
+      <c r="G152" s="125"/>
+      <c r="H152" s="128"/>
+      <c r="I152" s="125"/>
+      <c r="J152" s="125"/>
+      <c r="K152" s="126"/>
     </row>
     <row r="153" spans="2:11">
-      <c r="B153" s="129"/>
-      <c r="C153" s="127"/>
-      <c r="D153" s="127"/>
-      <c r="E153" s="127"/>
-      <c r="F153" s="127"/>
-      <c r="G153" s="127"/>
-      <c r="H153" s="130"/>
-      <c r="I153" s="127"/>
-      <c r="J153" s="127"/>
-      <c r="K153" s="128"/>
+      <c r="B153" s="127"/>
+      <c r="C153" s="125"/>
+      <c r="D153" s="125"/>
+      <c r="E153" s="125"/>
+      <c r="F153" s="125"/>
+      <c r="G153" s="125"/>
+      <c r="H153" s="128"/>
+      <c r="I153" s="125"/>
+      <c r="J153" s="125"/>
+      <c r="K153" s="126"/>
     </row>
     <row r="154" spans="2:11">
-      <c r="B154" s="129"/>
-      <c r="C154" s="127"/>
-      <c r="D154" s="127"/>
-      <c r="E154" s="127"/>
-      <c r="F154" s="127"/>
-      <c r="G154" s="127"/>
-      <c r="H154" s="130"/>
-      <c r="I154" s="127"/>
-      <c r="J154" s="127"/>
-      <c r="K154" s="128"/>
+      <c r="B154" s="127"/>
+      <c r="C154" s="125"/>
+      <c r="D154" s="125"/>
+      <c r="E154" s="125"/>
+      <c r="F154" s="125"/>
+      <c r="G154" s="125"/>
+      <c r="H154" s="128"/>
+      <c r="I154" s="125"/>
+      <c r="J154" s="125"/>
+      <c r="K154" s="126"/>
     </row>
     <row r="155" spans="2:11">
-      <c r="B155" s="129"/>
-      <c r="C155" s="127"/>
-      <c r="D155" s="127"/>
-      <c r="E155" s="127"/>
-      <c r="F155" s="127"/>
-      <c r="G155" s="127"/>
-      <c r="H155" s="130"/>
-      <c r="I155" s="127"/>
-      <c r="J155" s="127"/>
-      <c r="K155" s="128"/>
+      <c r="B155" s="127"/>
+      <c r="C155" s="125"/>
+      <c r="D155" s="125"/>
+      <c r="E155" s="125"/>
+      <c r="F155" s="125"/>
+      <c r="G155" s="125"/>
+      <c r="H155" s="128"/>
+      <c r="I155" s="125"/>
+      <c r="J155" s="125"/>
+      <c r="K155" s="126"/>
     </row>
     <row r="156" spans="2:11">
-      <c r="B156" s="129"/>
-      <c r="C156" s="127"/>
-      <c r="D156" s="127"/>
-      <c r="E156" s="127"/>
-      <c r="F156" s="127"/>
-      <c r="G156" s="127"/>
-      <c r="H156" s="130"/>
-      <c r="I156" s="127"/>
-      <c r="J156" s="127"/>
-      <c r="K156" s="128"/>
+      <c r="B156" s="127"/>
+      <c r="C156" s="125"/>
+      <c r="D156" s="125"/>
+      <c r="E156" s="125"/>
+      <c r="F156" s="125"/>
+      <c r="G156" s="125"/>
+      <c r="H156" s="128"/>
+      <c r="I156" s="125"/>
+      <c r="J156" s="125"/>
+      <c r="K156" s="126"/>
     </row>
     <row r="157" spans="2:11">
-      <c r="B157" s="129"/>
-      <c r="C157" s="127"/>
-      <c r="D157" s="127"/>
-      <c r="E157" s="127"/>
-      <c r="F157" s="127"/>
-      <c r="G157" s="127"/>
-      <c r="H157" s="130"/>
-      <c r="I157" s="127"/>
-      <c r="J157" s="127"/>
-      <c r="K157" s="128"/>
+      <c r="B157" s="127"/>
+      <c r="C157" s="125"/>
+      <c r="D157" s="125"/>
+      <c r="E157" s="125"/>
+      <c r="F157" s="125"/>
+      <c r="G157" s="125"/>
+      <c r="H157" s="128"/>
+      <c r="I157" s="125"/>
+      <c r="J157" s="125"/>
+      <c r="K157" s="126"/>
     </row>
     <row r="158" spans="2:11">
-      <c r="B158" s="129"/>
-      <c r="C158" s="127"/>
-      <c r="D158" s="127"/>
-      <c r="E158" s="127"/>
-      <c r="F158" s="127"/>
-      <c r="G158" s="127"/>
-      <c r="H158" s="130"/>
-      <c r="I158" s="127"/>
-      <c r="J158" s="127"/>
-      <c r="K158" s="128"/>
+      <c r="B158" s="127"/>
+      <c r="C158" s="125"/>
+      <c r="D158" s="125"/>
+      <c r="E158" s="125"/>
+      <c r="F158" s="125"/>
+      <c r="G158" s="125"/>
+      <c r="H158" s="128"/>
+      <c r="I158" s="125"/>
+      <c r="J158" s="125"/>
+      <c r="K158" s="126"/>
     </row>
     <row r="159" spans="2:11">
-      <c r="B159" s="129"/>
-      <c r="C159" s="127"/>
-      <c r="D159" s="127"/>
-      <c r="E159" s="127"/>
-      <c r="F159" s="127"/>
-      <c r="G159" s="127"/>
-      <c r="H159" s="130"/>
-      <c r="I159" s="127"/>
-      <c r="J159" s="127"/>
-      <c r="K159" s="128"/>
+      <c r="B159" s="127"/>
+      <c r="C159" s="125"/>
+      <c r="D159" s="125"/>
+      <c r="E159" s="125"/>
+      <c r="F159" s="125"/>
+      <c r="G159" s="125"/>
+      <c r="H159" s="128"/>
+      <c r="I159" s="125"/>
+      <c r="J159" s="125"/>
+      <c r="K159" s="126"/>
     </row>
     <row r="160" spans="2:11">
-      <c r="B160" s="129"/>
-      <c r="C160" s="127"/>
-      <c r="D160" s="127"/>
-      <c r="E160" s="127"/>
-      <c r="F160" s="127"/>
-      <c r="G160" s="127"/>
-      <c r="H160" s="130"/>
-      <c r="I160" s="127"/>
-      <c r="J160" s="127"/>
-      <c r="K160" s="128"/>
+      <c r="B160" s="127"/>
+      <c r="C160" s="125"/>
+      <c r="D160" s="125"/>
+      <c r="E160" s="125"/>
+      <c r="F160" s="125"/>
+      <c r="G160" s="125"/>
+      <c r="H160" s="128"/>
+      <c r="I160" s="125"/>
+      <c r="J160" s="125"/>
+      <c r="K160" s="126"/>
     </row>
     <row r="161" spans="2:11">
-      <c r="B161" s="129"/>
-      <c r="C161" s="127"/>
-      <c r="D161" s="127"/>
-      <c r="E161" s="127"/>
-      <c r="F161" s="127"/>
-      <c r="G161" s="127"/>
-      <c r="H161" s="130"/>
-      <c r="I161" s="127"/>
-      <c r="J161" s="127"/>
-      <c r="K161" s="128"/>
+      <c r="B161" s="127"/>
+      <c r="C161" s="125"/>
+      <c r="D161" s="125"/>
+      <c r="E161" s="125"/>
+      <c r="F161" s="125"/>
+      <c r="G161" s="125"/>
+      <c r="H161" s="128"/>
+      <c r="I161" s="125"/>
+      <c r="J161" s="125"/>
+      <c r="K161" s="126"/>
     </row>
     <row r="162" spans="2:11">
-      <c r="B162" s="129"/>
-      <c r="C162" s="127"/>
-      <c r="D162" s="127"/>
-      <c r="E162" s="127"/>
-      <c r="F162" s="127"/>
-      <c r="G162" s="127"/>
-      <c r="H162" s="130"/>
-      <c r="I162" s="127"/>
-      <c r="J162" s="127"/>
-      <c r="K162" s="128"/>
+      <c r="B162" s="127"/>
+      <c r="C162" s="125"/>
+      <c r="D162" s="125"/>
+      <c r="E162" s="125"/>
+      <c r="F162" s="125"/>
+      <c r="G162" s="125"/>
+      <c r="H162" s="128"/>
+      <c r="I162" s="125"/>
+      <c r="J162" s="125"/>
+      <c r="K162" s="126"/>
     </row>
     <row r="163" spans="2:11">
-      <c r="B163" s="129"/>
-      <c r="C163" s="127"/>
-      <c r="D163" s="127"/>
-      <c r="E163" s="127"/>
-      <c r="F163" s="127"/>
-      <c r="G163" s="127"/>
-      <c r="H163" s="130"/>
-      <c r="I163" s="127"/>
-      <c r="J163" s="127"/>
-      <c r="K163" s="128"/>
+      <c r="B163" s="127"/>
+      <c r="C163" s="125"/>
+      <c r="D163" s="125"/>
+      <c r="E163" s="125"/>
+      <c r="F163" s="125"/>
+      <c r="G163" s="125"/>
+      <c r="H163" s="128"/>
+      <c r="I163" s="125"/>
+      <c r="J163" s="125"/>
+      <c r="K163" s="126"/>
     </row>
     <row r="164" spans="2:11">
-      <c r="B164" s="129"/>
-      <c r="C164" s="127"/>
-      <c r="D164" s="127"/>
-      <c r="E164" s="127"/>
-      <c r="F164" s="127"/>
-      <c r="G164" s="127"/>
-      <c r="H164" s="130"/>
-      <c r="I164" s="127"/>
-      <c r="J164" s="127"/>
-      <c r="K164" s="128"/>
+      <c r="B164" s="127"/>
+      <c r="C164" s="125"/>
+      <c r="D164" s="125"/>
+      <c r="E164" s="125"/>
+      <c r="F164" s="125"/>
+      <c r="G164" s="125"/>
+      <c r="H164" s="128"/>
+      <c r="I164" s="125"/>
+      <c r="J164" s="125"/>
+      <c r="K164" s="126"/>
     </row>
     <row r="165" spans="2:11">
-      <c r="B165" s="129"/>
-      <c r="C165" s="127"/>
-      <c r="D165" s="127"/>
-      <c r="E165" s="127"/>
-      <c r="F165" s="127"/>
-      <c r="G165" s="127"/>
-      <c r="H165" s="130"/>
-      <c r="I165" s="127"/>
-      <c r="J165" s="127"/>
-      <c r="K165" s="128"/>
+      <c r="B165" s="127"/>
+      <c r="C165" s="125"/>
+      <c r="D165" s="125"/>
+      <c r="E165" s="125"/>
+      <c r="F165" s="125"/>
+      <c r="G165" s="125"/>
+      <c r="H165" s="128"/>
+      <c r="I165" s="125"/>
+      <c r="J165" s="125"/>
+      <c r="K165" s="126"/>
     </row>
     <row r="166" spans="2:11">
-      <c r="B166" s="129"/>
-      <c r="C166" s="127"/>
-      <c r="D166" s="127"/>
-      <c r="E166" s="127"/>
-      <c r="F166" s="127"/>
-      <c r="G166" s="127"/>
-      <c r="H166" s="130"/>
-      <c r="I166" s="127"/>
-      <c r="J166" s="127"/>
-      <c r="K166" s="128"/>
+      <c r="B166" s="127"/>
+      <c r="C166" s="125"/>
+      <c r="D166" s="125"/>
+      <c r="E166" s="125"/>
+      <c r="F166" s="125"/>
+      <c r="G166" s="125"/>
+      <c r="H166" s="128"/>
+      <c r="I166" s="125"/>
+      <c r="J166" s="125"/>
+      <c r="K166" s="126"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
